--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B96D976-CA89-5A4D-8FA3-609D32FE3007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FB7C3-F1A8-BC40-95B9-28E39C4629B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="27220" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14819,8 +14819,8 @@
   <dimension ref="A1:V469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O101" sqref="O101"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4FB7C3-F1A8-BC40-95B9-28E39C4629B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617498B7-4C3A-E445-9751-B2D87E4BF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="27220" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="33540" windowHeight="20020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tox Book" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1004">
   <si>
     <t>INTOXICATE Status</t>
   </si>
@@ -3005,13 +3005,79 @@
     <t>Dr. Rao
 "Consult"
 Inpatient consult to toxicology CON67 in referrals but "order status" says canceled</t>
+  </si>
+  <si>
+    <t>30-Day Mortality</t>
+  </si>
+  <si>
+    <t>Longer Term Complication</t>
+  </si>
+  <si>
+    <t>ETOH Withdrawal</t>
+  </si>
+  <si>
+    <t>Was in ICU for hypotension and AMS of unclear etiology</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>Airway Risk, too sedated to eat</t>
+  </si>
+  <si>
+    <t>Required ICU for not tox reasons</t>
+  </si>
+  <si>
+    <t>Had seizure immediately after discharge</t>
+  </si>
+  <si>
+    <t>APAP with double peak</t>
+  </si>
+  <si>
+    <t>Sinus tachycardia infaltes INTOXICATE's recommendations</t>
+  </si>
+  <si>
+    <t>EKG with sinius tachycardia</t>
+  </si>
+  <si>
+    <t>No actual ingestion, psych facility wanted clearance</t>
+  </si>
+  <si>
+    <t>Admitted for aspiration PNA, not tox</t>
+  </si>
+  <si>
+    <t>Predicted Ignore Sinus</t>
+  </si>
+  <si>
+    <t>Predicted Ignore Sinus &lt; 140</t>
+  </si>
+  <si>
+    <t>Should stage cirrhosis, like sinus tachycardia, it is a vague term</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>No age adjustment for vital signs</t>
+  </si>
+  <si>
+    <t>Tachycardia vs INTOXICATE</t>
+  </si>
+  <si>
+    <t>Tox was consulted for weaning sedatioin</t>
+  </si>
+  <si>
+    <t>Was for etoh withdrawal, not intoxication</t>
+  </si>
+  <si>
+    <t>In Retrospect Required ICU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3122,6 +3188,13 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3143,7 +3216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3247,23 +3320,26 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4386,8 +4462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}" name="Table3" displayName="Table3" ref="V2:V10" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
-  <autoFilter ref="V2:V10" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}" name="Table3" displayName="Table3" ref="AA2:AA10" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+  <autoFilter ref="AA2:AA10" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AB316893-1109-4C39-948A-005BE9A21A5D}" name="Exposure Values" dataDxfId="104"/>
   </tableColumns>
@@ -4695,8 +4771,8 @@
   <dimension ref="A1:O503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E206" sqref="E206"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5850,7 +5926,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3">
@@ -5865,27 +5941,27 @@
       <c r="E35" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="44" t="s">
+      <c r="G35" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H35" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="44"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="45" t="s">
+      <c r="K35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="N35" s="42" t="s">
+      <c r="L35" s="44"/>
+      <c r="N35" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3">
         <v>45036</v>
       </c>
@@ -5898,14 +5974,14 @@
       <c r="E36" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="42"/>
-      <c r="N36" s="42"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="44"/>
+      <c r="N36" s="44"/>
     </row>
     <row r="37" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
@@ -6164,28 +6240,28 @@
       <c r="E45" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="44" t="s">
+      <c r="G45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="44" t="s">
+      <c r="H45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="44" t="s">
+      <c r="I45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K45" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="48" t="s">
+      <c r="L45" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="42" t="s">
+      <c r="M45" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="N45" s="42" t="s">
+      <c r="N45" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6205,14 +6281,14 @@
       <c r="E46" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -6343,7 +6419,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -6358,18 +6434,18 @@
       <c r="E51" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="42" t="s">
+      <c r="G51" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="42" t="s">
+      <c r="H51" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="42"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="31"/>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="46" t="s">
         <v>99</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -6377,7 +6453,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="3">
         <v>45042</v>
       </c>
@@ -6390,18 +6466,18 @@
       <c r="E52" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F52" s="47"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="46"/>
       <c r="N52" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="3">
         <v>45043</v>
       </c>
@@ -6414,12 +6490,12 @@
       <c r="E53" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F53" s="47"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
       <c r="J53" s="31"/>
-      <c r="K53" s="45"/>
+      <c r="K53" s="46"/>
       <c r="N53" s="1" t="s">
         <v>100</v>
       </c>
@@ -6582,21 +6658,21 @@
       <c r="E59" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="G59" s="42" t="s">
+      <c r="G59" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="42" t="s">
+      <c r="H59" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="I59" s="42"/>
+      <c r="I59" s="44"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="45" t="s">
+      <c r="K59" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="42" t="s">
+      <c r="N59" s="44" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6613,13 +6689,13 @@
       <c r="E60" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="45"/>
-      <c r="N60" s="42"/>
+      <c r="K60" s="46"/>
+      <c r="N60" s="44"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
@@ -8167,7 +8243,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="42" t="s">
+      <c r="A109" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="3">
@@ -8182,16 +8258,16 @@
       <c r="E109" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F109" s="47" t="s">
+      <c r="F109" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="42" t="s">
+      <c r="G109" s="44" t="s">
         <v>407</v>
       </c>
-      <c r="H109" s="42" t="s">
+      <c r="H109" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="K109" s="42" t="s">
+      <c r="K109" s="44" t="s">
         <v>99</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -8199,7 +8275,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="42"/>
+      <c r="A110" s="44"/>
       <c r="B110" s="3">
         <v>45087</v>
       </c>
@@ -8212,16 +8288,16 @@
       <c r="E110" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F110" s="47"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="K110" s="42"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="K110" s="44"/>
       <c r="N110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="42"/>
+      <c r="A111" s="44"/>
       <c r="B111" s="3">
         <v>45088</v>
       </c>
@@ -8234,10 +8310,10 @@
       <c r="E111" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F111" s="47"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="K111" s="42"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="K111" s="44"/>
       <c r="N111" s="1" t="s">
         <v>100</v>
       </c>
@@ -8733,7 +8809,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B132" s="3">
@@ -8748,12 +8824,12 @@
       <c r="E132" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N132" s="42" t="s">
+      <c r="N132" s="44" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="42"/>
+      <c r="A133" s="44"/>
       <c r="B133" s="3">
         <v>45104</v>
       </c>
@@ -8766,10 +8842,10 @@
       <c r="E133" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N133" s="42"/>
+      <c r="N133" s="44"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="42"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="3">
         <v>45105</v>
       </c>
@@ -8782,7 +8858,7 @@
       <c r="E134" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N134" s="42"/>
+      <c r="N134" s="44"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
@@ -8805,7 +8881,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="42" t="s">
+      <c r="A136" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B136" s="3">
@@ -8820,12 +8896,12 @@
       <c r="E136" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N136" s="42" t="s">
+      <c r="N136" s="44" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="42"/>
+      <c r="A137" s="44"/>
       <c r="B137" s="3">
         <v>45104</v>
       </c>
@@ -8838,10 +8914,10 @@
       <c r="E137" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N137" s="42"/>
+      <c r="N137" s="44"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="42"/>
+      <c r="A138" s="44"/>
       <c r="B138" s="3">
         <v>45105</v>
       </c>
@@ -8854,7 +8930,7 @@
       <c r="E138" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N138" s="42"/>
+      <c r="N138" s="44"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -8897,7 +8973,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="42" t="s">
+      <c r="A141" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B141" s="3">
@@ -8917,7 +8993,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="42"/>
+      <c r="A142" s="44"/>
       <c r="B142" s="3">
         <v>45108</v>
       </c>
@@ -9343,7 +9419,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="45" t="s">
+      <c r="A164" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B164" s="3">
@@ -9360,7 +9436,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="45"/>
+      <c r="A165" s="46"/>
       <c r="B165" s="3">
         <v>45140</v>
       </c>
@@ -9630,7 +9706,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B181" s="3">
@@ -9647,7 +9723,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="42"/>
+      <c r="A182" s="44"/>
       <c r="B182" s="3">
         <v>45153</v>
       </c>
@@ -9662,7 +9738,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="42" t="s">
+      <c r="A183" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B183" s="3">
@@ -9679,7 +9755,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="42"/>
+      <c r="A184" s="44"/>
       <c r="B184" s="3">
         <v>45154</v>
       </c>
@@ -9711,7 +9787,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="45" t="s">
+      <c r="A186" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B186" s="3">
@@ -9728,7 +9804,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="45"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="3">
         <v>45154</v>
       </c>
@@ -9743,7 +9819,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="42" t="s">
+      <c r="A188" s="44" t="s">
         <v>14</v>
       </c>
       <c r="B188" s="3">
@@ -9760,7 +9836,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="42"/>
+      <c r="A189" s="44"/>
       <c r="B189" s="3">
         <v>45154</v>
       </c>
@@ -11014,7 +11090,7 @@
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A274" s="45" t="s">
+      <c r="A274" s="46" t="s">
         <v>62</v>
       </c>
       <c r="B274" s="3">
@@ -11029,31 +11105,31 @@
       <c r="E274" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F274" s="46" t="s">
+      <c r="F274" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="G274" s="45" t="s">
+      <c r="G274" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="H274" s="45" t="s">
+      <c r="H274" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="I274" s="45" t="s">
+      <c r="I274" s="46" t="s">
         <v>136</v>
       </c>
       <c r="J274" s="32"/>
-      <c r="K274" s="45" t="s">
+      <c r="K274" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="L274" s="46" t="s">
+      <c r="L274" s="48" t="s">
         <v>565</v>
       </c>
-      <c r="M274" s="42" t="s">
+      <c r="M274" s="44" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A275" s="45"/>
+      <c r="A275" s="46"/>
       <c r="B275" s="3">
         <v>45223</v>
       </c>
@@ -11066,14 +11142,14 @@
       <c r="E275" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F275" s="46"/>
-      <c r="G275" s="45"/>
-      <c r="H275" s="45"/>
-      <c r="I275" s="45"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="46"/>
+      <c r="H275" s="46"/>
+      <c r="I275" s="46"/>
       <c r="J275" s="32"/>
-      <c r="K275" s="45"/>
-      <c r="L275" s="46"/>
-      <c r="M275" s="42"/>
+      <c r="K275" s="46"/>
+      <c r="L275" s="48"/>
+      <c r="M275" s="44"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B276" s="3">
@@ -14755,12 +14831,35 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="M274:M275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="I274:I275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="N136:N138"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="K109:K111"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="N132:N134"/>
@@ -14777,35 +14876,12 @@
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N136:N138"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="M274:M275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="I274:I275"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="103" priority="1"/>
@@ -14816,11 +14892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25C0DBF-50F6-4E43-B81A-8EA8A04F8EC5}">
-  <dimension ref="A1:V469"/>
+  <dimension ref="A1:AA469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14838,14 +14914,16 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="40.6640625" style="26" customWidth="1"/>
+    <col min="22" max="22" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
@@ -14889,23 +14967,38 @@
         <v>840</v>
       </c>
       <c r="O1" s="35" t="s">
+        <v>995</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q1" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>842</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="S1" s="41" t="s">
+        <v>983</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>982</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V1" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-    </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1205218011</v>
       </c>
@@ -14948,20 +15041,26 @@
       <c r="N2" t="s">
         <v>847</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>848</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="T2" t="s">
+      <c r="S2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y2" t="s">
         <v>731</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="AA2" s="33" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1401129153</v>
       </c>
@@ -15004,20 +15103,26 @@
       <c r="N3" t="s">
         <v>847</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>848</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="T3" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="33" t="s">
+      <c r="S3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA3" s="33" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1400059656</v>
       </c>
@@ -15060,17 +15165,26 @@
       <c r="N4" t="s">
         <v>852</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>847</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="R4" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="S4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U4" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="AA4" s="33" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1401090590</v>
       </c>
@@ -15113,17 +15227,23 @@
       <c r="N5" t="s">
         <v>852</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>848</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="R5" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="V5" s="33" t="s">
+      <c r="S5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA5" s="33" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1001720769</v>
       </c>
@@ -15166,17 +15286,23 @@
       <c r="N6" t="s">
         <v>852</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>848</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="R6" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="S6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA6" s="33" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1401096023</v>
       </c>
@@ -15219,17 +15345,26 @@
       <c r="N7" t="s">
         <v>852</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>847</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="R7" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="S7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="AA7" s="33" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1006629455</v>
       </c>
@@ -15272,17 +15407,23 @@
       <c r="N8" t="s">
         <v>847</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>848</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="R8" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="V8" s="33" t="s">
+      <c r="S8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA8" s="33" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="38">
         <v>1010033242</v>
       </c>
@@ -15325,17 +15466,29 @@
       <c r="N9" t="s">
         <v>847</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>847</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="R9" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="V9" s="33" t="s">
+      <c r="S9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="AA9" s="33" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>1400361697</v>
       </c>
@@ -15372,17 +15525,24 @@
       <c r="L10" t="s">
         <v>138</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>848</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="R10" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="V10" s="33" t="s">
+      <c r="S10" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="49"/>
+      <c r="AA10" s="33" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1001694549</v>
       </c>
@@ -15425,11 +15585,18 @@
       <c r="N11" t="s">
         <v>847</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="S11" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>1006139627</v>
       </c>
@@ -15472,14 +15639,21 @@
       <c r="N12" t="s">
         <v>847</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>848</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="R12" s="26" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S12" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="49"/>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1009487000</v>
       </c>
@@ -15522,11 +15696,18 @@
       <c r="N13" t="s">
         <v>852</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S13" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="49"/>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>1401159022</v>
       </c>
@@ -15569,11 +15750,21 @@
       <c r="N14" t="s">
         <v>847</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="S14" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1401141829</v>
       </c>
@@ -15616,14 +15807,26 @@
       <c r="N15" t="s">
         <v>847</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>847</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S15" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="49" t="s">
+        <v>731</v>
+      </c>
+      <c r="V15" s="49" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1008108363</v>
       </c>
@@ -15666,11 +15869,17 @@
       <c r="N16" t="s">
         <v>852</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S16" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1101578680</v>
       </c>
@@ -15713,20 +15922,32 @@
       <c r="N17" t="s">
         <v>847</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>848</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="R17" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="T17" t="s">
+      <c r="S17" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V17" t="s">
+        <v>992</v>
+      </c>
+      <c r="Y17" t="s">
         <v>868</v>
       </c>
-      <c r="V17" t="s">
+      <c r="AA17" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1000053365</v>
       </c>
@@ -15769,17 +15990,29 @@
       <c r="N18" t="s">
         <v>847</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>852</v>
       </c>
-      <c r="T18" t="s">
+      <c r="S18" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V18" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y18" t="s">
         <v>847</v>
       </c>
-      <c r="V18" t="s">
+      <c r="AA18" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1100404076</v>
       </c>
@@ -15822,17 +16055,26 @@
       <c r="N19" t="s">
         <v>847</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>852</v>
       </c>
-      <c r="T19" t="s">
+      <c r="S19" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y19" t="s">
         <v>852</v>
       </c>
-      <c r="V19" t="s">
+      <c r="AA19" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1007809059</v>
       </c>
@@ -15875,11 +16117,23 @@
       <c r="N20" t="s">
         <v>847</v>
       </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S20" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1011109895</v>
       </c>
@@ -15922,14 +16176,26 @@
       <c r="N21" t="s">
         <v>847</v>
       </c>
-      <c r="O21" t="s">
+      <c r="Q21" t="s">
         <v>847</v>
       </c>
-      <c r="P21" s="26" t="s">
+      <c r="R21" s="26" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="S21" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V21" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1102644291</v>
       </c>
@@ -15972,14 +16238,23 @@
       <c r="N22" t="s">
         <v>847</v>
       </c>
-      <c r="O22" t="s">
+      <c r="Q22" t="s">
         <v>848</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="R22" s="26" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S22" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1400587005</v>
       </c>
@@ -16022,11 +16297,20 @@
       <c r="N23" t="s">
         <v>847</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S23" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U23" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1006702172</v>
       </c>
@@ -16069,11 +16353,20 @@
       <c r="N24" t="s">
         <v>847</v>
       </c>
-      <c r="O24" t="s">
+      <c r="Q24" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S24" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1007329807</v>
       </c>
@@ -16116,14 +16409,23 @@
       <c r="N25" t="s">
         <v>847</v>
       </c>
-      <c r="O25" t="s">
+      <c r="Q25" t="s">
         <v>848</v>
       </c>
-      <c r="P25" s="26" t="s">
+      <c r="R25" s="26" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="S25" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1102416341</v>
       </c>
@@ -16166,14 +16468,23 @@
       <c r="N26" t="s">
         <v>847</v>
       </c>
-      <c r="O26" t="s">
+      <c r="Q26" t="s">
         <v>847</v>
       </c>
-      <c r="P26" s="26" t="s">
+      <c r="R26" s="26" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S26" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T26" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1401192570</v>
       </c>
@@ -16216,14 +16527,23 @@
       <c r="N27" t="s">
         <v>852</v>
       </c>
-      <c r="O27" t="s">
+      <c r="Q27" t="s">
         <v>848</v>
       </c>
-      <c r="P27" s="26" t="s">
+      <c r="R27" s="26" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S27" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1009103377</v>
       </c>
@@ -16266,11 +16586,23 @@
       <c r="N28" t="s">
         <v>847</v>
       </c>
-      <c r="O28" t="s">
+      <c r="Q28" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S28" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V28" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1101010685</v>
       </c>
@@ -16313,11 +16645,20 @@
       <c r="N29" t="s">
         <v>852</v>
       </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>1002805912</v>
       </c>
@@ -16360,11 +16701,20 @@
       <c r="N30" t="s">
         <v>852</v>
       </c>
-      <c r="O30" t="s">
+      <c r="Q30" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1103414115</v>
       </c>
@@ -16407,14 +16757,26 @@
       <c r="N31" t="s">
         <v>847</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
         <v>852</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="R31" s="26" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="S31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V31" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1000326621</v>
       </c>
@@ -16457,14 +16819,23 @@
       <c r="N32" t="s">
         <v>852</v>
       </c>
-      <c r="O32" t="s">
+      <c r="Q32" t="s">
         <v>848</v>
       </c>
-      <c r="P32" s="26" t="s">
+      <c r="R32" s="26" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U32" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1401206978</v>
       </c>
@@ -16507,14 +16878,26 @@
       <c r="N33" t="s">
         <v>852</v>
       </c>
-      <c r="O33" t="s">
+      <c r="Q33" t="s">
         <v>848</v>
       </c>
-      <c r="P33" s="26" t="s">
+      <c r="R33" s="26" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1401207030</v>
       </c>
@@ -16557,14 +16940,26 @@
       <c r="N34" t="s">
         <v>847</v>
       </c>
-      <c r="O34" t="s">
+      <c r="Q34" t="s">
         <v>848</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="R34" s="26" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V34" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1400775825</v>
       </c>
@@ -16607,14 +17002,26 @@
       <c r="N35" t="s">
         <v>847</v>
       </c>
-      <c r="O35" t="s">
+      <c r="Q35" t="s">
         <v>847</v>
       </c>
-      <c r="P35" s="26" t="s">
+      <c r="R35" s="26" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V35" s="26" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1401208505</v>
       </c>
@@ -16657,11 +17064,20 @@
       <c r="N36" t="s">
         <v>852</v>
       </c>
-      <c r="O36" t="s">
+      <c r="Q36" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U36" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1100390034</v>
       </c>
@@ -16704,11 +17120,20 @@
       <c r="N37" t="s">
         <v>852</v>
       </c>
-      <c r="O37" t="s">
+      <c r="Q37" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U37" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1401161378</v>
       </c>
@@ -16751,11 +17176,23 @@
       <c r="N38" t="s">
         <v>847</v>
       </c>
-      <c r="O38" t="s">
+      <c r="Q38" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V38" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1401215589</v>
       </c>
@@ -16798,11 +17235,23 @@
       <c r="N39" t="s">
         <v>847</v>
       </c>
-      <c r="O39" t="s">
+      <c r="Q39" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V39" s="26" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1401138268</v>
       </c>
@@ -16845,11 +17294,23 @@
       <c r="N40" t="s">
         <v>847</v>
       </c>
-      <c r="O40" t="s">
+      <c r="Q40" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V40" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1102188394</v>
       </c>
@@ -16892,11 +17353,23 @@
       <c r="N41" t="s">
         <v>847</v>
       </c>
-      <c r="O41" t="s">
+      <c r="Q41" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V41" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1401098593</v>
       </c>
@@ -16939,11 +17412,20 @@
       <c r="N42" t="s">
         <v>852</v>
       </c>
-      <c r="O42" t="s">
+      <c r="Q42" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U42" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1400616084</v>
       </c>
@@ -16986,11 +17468,23 @@
       <c r="N43" t="s">
         <v>847</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="S43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U43" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V43" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1009024651</v>
       </c>
@@ -17033,14 +17527,23 @@
       <c r="N44" t="s">
         <v>847</v>
       </c>
-      <c r="O44" t="s">
+      <c r="Q44" t="s">
         <v>848</v>
       </c>
-      <c r="P44" s="26" t="s">
+      <c r="R44" s="26" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T44" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U44" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1102644291</v>
       </c>
@@ -17083,11 +17586,20 @@
       <c r="N45" t="s">
         <v>847</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U45" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1401224985</v>
       </c>
@@ -17130,11 +17642,20 @@
       <c r="N46" t="s">
         <v>852</v>
       </c>
-      <c r="O46" t="s">
+      <c r="Q46" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1008508665</v>
       </c>
@@ -17177,14 +17698,23 @@
       <c r="N47" t="s">
         <v>852</v>
       </c>
-      <c r="O47" t="s">
+      <c r="Q47" t="s">
         <v>848</v>
       </c>
-      <c r="P47" s="26" t="s">
+      <c r="R47" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U47" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1401239791</v>
       </c>
@@ -17227,17 +17757,26 @@
       <c r="N48" t="s">
         <v>852</v>
       </c>
-      <c r="O48" t="s">
+      <c r="Q48" t="s">
         <v>848</v>
       </c>
-      <c r="P48" s="26" t="s">
+      <c r="R48" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="S48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V48" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1011109716</v>
       </c>
@@ -17280,14 +17819,23 @@
       <c r="N49" t="s">
         <v>852</v>
       </c>
-      <c r="O49" t="s">
+      <c r="Q49" t="s">
         <v>848</v>
       </c>
-      <c r="P49" s="26" t="s">
+      <c r="R49" s="26" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U49" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1008550250</v>
       </c>
@@ -17330,17 +17878,26 @@
       <c r="N50" t="s">
         <v>852</v>
       </c>
-      <c r="O50" t="s">
+      <c r="Q50" t="s">
         <v>852</v>
       </c>
-      <c r="P50" s="26" t="s">
+      <c r="R50" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="S50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U50" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V50" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1201301817</v>
       </c>
@@ -17383,17 +17940,26 @@
       <c r="N51" t="s">
         <v>847</v>
       </c>
-      <c r="O51" t="s">
+      <c r="Q51" t="s">
         <v>848</v>
       </c>
-      <c r="P51" s="26" t="s">
+      <c r="R51" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="S51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V51" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1102506734</v>
       </c>
@@ -17436,17 +18002,26 @@
       <c r="N52" t="s">
         <v>847</v>
       </c>
-      <c r="O52" t="s">
+      <c r="Q52" t="s">
         <v>848</v>
       </c>
-      <c r="P52" s="26" t="s">
+      <c r="R52" s="26" t="s">
         <v>882</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="S52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U52" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V52" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1401249635</v>
       </c>
@@ -17489,14 +18064,26 @@
       <c r="N53" t="s">
         <v>847</v>
       </c>
-      <c r="O53" t="s">
+      <c r="Q53" t="s">
         <v>847</v>
       </c>
-      <c r="P53" s="26" t="s">
+      <c r="R53" s="26" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U53" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V53" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1401250968</v>
       </c>
@@ -17539,17 +18126,26 @@
       <c r="N54" t="s">
         <v>852</v>
       </c>
-      <c r="O54" t="s">
+      <c r="Q54" t="s">
         <v>848</v>
       </c>
-      <c r="P54" s="26" t="s">
+      <c r="R54" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="S54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V54" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1009826465</v>
       </c>
@@ -17592,14 +18188,23 @@
       <c r="N55" t="s">
         <v>852</v>
       </c>
-      <c r="O55" t="s">
+      <c r="Q55" t="s">
         <v>848</v>
       </c>
-      <c r="P55" s="26" t="s">
+      <c r="R55" s="26" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T55" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U55" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1401251362</v>
       </c>
@@ -17642,14 +18247,23 @@
       <c r="N56" t="s">
         <v>852</v>
       </c>
-      <c r="O56" t="s">
+      <c r="Q56" t="s">
         <v>848</v>
       </c>
-      <c r="P56" s="26" t="s">
+      <c r="R56" s="26" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S56" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T56" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U56" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1000024972</v>
       </c>
@@ -17692,17 +18306,26 @@
       <c r="N57" t="s">
         <v>847</v>
       </c>
-      <c r="O57" t="s">
+      <c r="Q57" t="s">
         <v>848</v>
       </c>
-      <c r="P57" s="26" t="s">
+      <c r="R57" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="S57" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T57" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U57" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V57" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1401255084</v>
       </c>
@@ -17745,14 +18368,23 @@
       <c r="N58" t="s">
         <v>847</v>
       </c>
-      <c r="O58" t="s">
+      <c r="Q58" t="s">
         <v>848</v>
       </c>
-      <c r="P58" s="26" t="s">
+      <c r="R58" s="26" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T58" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U58" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1401281866</v>
       </c>
@@ -17795,14 +18427,23 @@
       <c r="N59" t="s">
         <v>852</v>
       </c>
-      <c r="O59" t="s">
+      <c r="Q59" t="s">
         <v>847</v>
       </c>
-      <c r="P59" s="26" t="s">
+      <c r="R59" s="26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T59" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U59" s="26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1401622561</v>
       </c>
@@ -17845,14 +18486,26 @@
       <c r="N60" t="s">
         <v>847</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q60" t="s">
         <v>847</v>
       </c>
-      <c r="P60" s="26" t="s">
+      <c r="R60" s="26" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V60" s="26" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1102874529</v>
       </c>
@@ -17895,14 +18548,23 @@
       <c r="N61" t="s">
         <v>852</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q61" t="s">
         <v>848</v>
       </c>
-      <c r="P61" s="26" t="s">
+      <c r="R61" s="26" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S61" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T61" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U61" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1002666748</v>
       </c>
@@ -17945,17 +18607,26 @@
       <c r="N62" t="s">
         <v>847</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q62" t="s">
         <v>847</v>
       </c>
-      <c r="P62" s="26" t="s">
+      <c r="R62" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="S62" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T62" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U62" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V62" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="38">
         <v>1401126371</v>
       </c>
@@ -17998,14 +18669,26 @@
       <c r="N63" t="s">
         <v>852</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>848</v>
       </c>
-      <c r="P63" s="26" t="s">
+      <c r="R63" s="26" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U63" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V63" s="26" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="38">
         <v>1200624653</v>
       </c>
@@ -18048,17 +18731,26 @@
       <c r="N64" t="s">
         <v>852</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q64" t="s">
         <v>848</v>
       </c>
-      <c r="P64" s="26" t="s">
+      <c r="R64" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="S64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V64" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="38">
         <v>1401621668</v>
       </c>
@@ -18095,17 +18787,26 @@
       <c r="L65" t="s">
         <v>138</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q65" t="s">
         <v>848</v>
       </c>
-      <c r="P65" s="26" t="s">
+      <c r="R65" s="26" t="s">
         <v>890</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="S65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U65" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V65" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1101568757</v>
       </c>
@@ -18148,17 +18849,26 @@
       <c r="N66" t="s">
         <v>847</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q66" t="s">
         <v>848</v>
       </c>
-      <c r="P66" s="26" t="s">
+      <c r="R66" s="26" t="s">
         <v>892</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="S66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U66" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V66" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="38">
         <v>1401645430</v>
       </c>
@@ -18201,17 +18911,26 @@
       <c r="N67" t="s">
         <v>847</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
         <v>848</v>
       </c>
-      <c r="P67" s="26" t="s">
+      <c r="R67" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="S67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V67" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="38">
         <v>1002234563</v>
       </c>
@@ -18251,14 +18970,23 @@
       <c r="N68" t="s">
         <v>847</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q68" t="s">
         <v>848</v>
       </c>
-      <c r="P68" s="26" t="s">
+      <c r="R68" s="26" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U68" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="38">
         <v>1004993792</v>
       </c>
@@ -18298,17 +19026,26 @@
       <c r="N69" t="s">
         <v>852</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q69" t="s">
         <v>848</v>
       </c>
-      <c r="P69" s="17" t="s">
+      <c r="R69" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="S69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V69" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1002316006</v>
       </c>
@@ -18348,17 +19085,26 @@
       <c r="N70" t="s">
         <v>847</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q70" t="s">
         <v>852</v>
       </c>
-      <c r="P70" s="17" t="s">
+      <c r="R70" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="S70" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U70" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V70" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1200230428</v>
       </c>
@@ -18398,17 +19144,26 @@
       <c r="N71" t="s">
         <v>847</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q71" t="s">
         <v>848</v>
       </c>
-      <c r="P71" s="26" t="s">
+      <c r="R71" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="S71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U71" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V71" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1401210342</v>
       </c>
@@ -18448,17 +19203,26 @@
       <c r="N72" t="s">
         <v>852</v>
       </c>
-      <c r="O72" t="s">
+      <c r="Q72" t="s">
         <v>852</v>
       </c>
-      <c r="P72" s="26" t="s">
+      <c r="R72" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="S72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U72" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V72" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1102295028</v>
       </c>
@@ -18501,14 +19265,23 @@
       <c r="N73" t="s">
         <v>852</v>
       </c>
-      <c r="O73" t="s">
+      <c r="Q73" t="s">
         <v>848</v>
       </c>
-      <c r="P73" s="26" t="s">
+      <c r="R73" s="26" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T73" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U73" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1005149298</v>
       </c>
@@ -18551,17 +19324,26 @@
       <c r="N74" t="s">
         <v>847</v>
       </c>
-      <c r="O74" t="s">
+      <c r="Q74" t="s">
         <v>847</v>
       </c>
-      <c r="P74" s="26" t="s">
+      <c r="R74" s="26" t="s">
         <v>898</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="S74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T74" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U74" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V74" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1203506199</v>
       </c>
@@ -18604,17 +19386,26 @@
       <c r="N75" t="s">
         <v>852</v>
       </c>
-      <c r="O75" t="s">
+      <c r="Q75" t="s">
         <v>848</v>
       </c>
-      <c r="P75" s="26" t="s">
+      <c r="R75" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="S75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V75" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1401311288</v>
       </c>
@@ -18655,14 +19446,23 @@
       <c r="N76" t="s">
         <v>847</v>
       </c>
-      <c r="O76" t="s">
+      <c r="Q76" t="s">
         <v>848</v>
       </c>
-      <c r="P76" s="26" t="s">
+      <c r="R76" s="26" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U76" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1400105541</v>
       </c>
@@ -18702,17 +19502,26 @@
       <c r="N77" t="s">
         <v>847</v>
       </c>
-      <c r="O77" t="s">
+      <c r="Q77" t="s">
         <v>848</v>
       </c>
-      <c r="P77" s="26" t="s">
+      <c r="R77" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T77" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U77" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V77" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1401316516</v>
       </c>
@@ -18752,17 +19561,26 @@
       <c r="N78" t="s">
         <v>847</v>
       </c>
-      <c r="O78" t="s">
+      <c r="Q78" t="s">
         <v>848</v>
       </c>
-      <c r="P78" s="26" t="s">
+      <c r="R78" s="26" t="s">
         <v>901</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="S78" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T78" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U78" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V78" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>1101619038</v>
       </c>
@@ -18802,17 +19620,26 @@
       <c r="N79" t="s">
         <v>847</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>847</v>
       </c>
-      <c r="P79" s="26" t="s">
+      <c r="R79" s="26" t="s">
         <v>902</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T79" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U79" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V79" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>1009612218</v>
       </c>
@@ -18849,17 +19676,26 @@
       <c r="N80" t="s">
         <v>847</v>
       </c>
-      <c r="O80" t="s">
+      <c r="Q80" t="s">
         <v>847</v>
       </c>
-      <c r="P80" s="26" t="s">
+      <c r="R80" s="26" t="s">
         <v>903</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="S80" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T80" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U80" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V80" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1009368877</v>
       </c>
@@ -18899,17 +19735,17 @@
       <c r="N81" t="s">
         <v>847</v>
       </c>
-      <c r="O81" t="s">
+      <c r="Q81" t="s">
         <v>852</v>
       </c>
-      <c r="P81" s="26" t="s">
+      <c r="R81" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="V81" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>1401325082</v>
       </c>
@@ -18949,14 +19785,23 @@
       <c r="N82" t="s">
         <v>852</v>
       </c>
-      <c r="O82" t="s">
+      <c r="Q82" t="s">
         <v>847</v>
       </c>
-      <c r="P82" s="26" t="s">
+      <c r="R82" s="26" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S82" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T82" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U82" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>1203506199</v>
       </c>
@@ -18996,17 +19841,26 @@
       <c r="N83" t="s">
         <v>852</v>
       </c>
-      <c r="O83" t="s">
+      <c r="Q83" t="s">
         <v>848</v>
       </c>
-      <c r="P83" s="26" t="s">
+      <c r="R83" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="S83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V83" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>1400041383</v>
       </c>
@@ -19046,14 +19900,23 @@
       <c r="N84" t="s">
         <v>847</v>
       </c>
-      <c r="O84" t="s">
+      <c r="Q84" t="s">
         <v>848</v>
       </c>
-      <c r="P84" s="26" t="s">
+      <c r="R84" s="26" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U84" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>1401332618</v>
       </c>
@@ -19093,17 +19956,26 @@
       <c r="N85" t="s">
         <v>847</v>
       </c>
-      <c r="O85" t="s">
+      <c r="Q85" t="s">
         <v>848</v>
       </c>
-      <c r="P85" s="26" t="s">
+      <c r="R85" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="S85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U85" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V85" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1003435007</v>
       </c>
@@ -19143,14 +20015,23 @@
       <c r="N86" t="s">
         <v>852</v>
       </c>
-      <c r="O86" t="s">
+      <c r="Q86" t="s">
         <v>848</v>
       </c>
-      <c r="P86" s="26" t="s">
+      <c r="R86" s="26" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U86" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>1400161166</v>
       </c>
@@ -19190,14 +20071,23 @@
       <c r="N87" t="s">
         <v>847</v>
       </c>
-      <c r="O87" t="s">
+      <c r="Q87" t="s">
         <v>852</v>
       </c>
-      <c r="P87" s="26" t="s">
+      <c r="R87" s="26" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S87" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T87" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U87" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>1007340188</v>
       </c>
@@ -19237,17 +20127,26 @@
       <c r="N88" t="s">
         <v>852</v>
       </c>
-      <c r="O88" t="s">
+      <c r="Q88" t="s">
         <v>848</v>
       </c>
-      <c r="P88" s="26" t="s">
+      <c r="R88" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="S88" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T88" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U88" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V88" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>1401359722</v>
       </c>
@@ -19287,17 +20186,26 @@
       <c r="N89" t="s">
         <v>847</v>
       </c>
-      <c r="O89" t="s">
+      <c r="Q89" t="s">
         <v>847</v>
       </c>
-      <c r="P89" s="26" t="s">
+      <c r="R89" s="26" t="s">
         <v>914</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="S89" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T89" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U89" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V89" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>1401369977</v>
       </c>
@@ -19337,14 +20245,23 @@
       <c r="N90" t="s">
         <v>852</v>
       </c>
-      <c r="O90" t="s">
+      <c r="Q90" t="s">
         <v>847</v>
       </c>
-      <c r="P90" s="26" t="s">
+      <c r="R90" s="26" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S90" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T90" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U90" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>1401369968</v>
       </c>
@@ -19384,14 +20301,23 @@
       <c r="N91" t="s">
         <v>852</v>
       </c>
-      <c r="O91" t="s">
+      <c r="Q91" t="s">
         <v>847</v>
       </c>
-      <c r="P91" s="26" t="s">
+      <c r="R91" s="26" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S91" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T91" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U91" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>1401369966</v>
       </c>
@@ -19431,14 +20357,23 @@
       <c r="N92" t="s">
         <v>852</v>
       </c>
-      <c r="O92" t="s">
+      <c r="Q92" t="s">
         <v>848</v>
       </c>
-      <c r="P92" s="26" t="s">
+      <c r="R92" s="26" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S92" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T92" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U92" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>1008177567</v>
       </c>
@@ -19478,14 +20413,23 @@
       <c r="N93" t="s">
         <v>852</v>
       </c>
-      <c r="O93" t="s">
+      <c r="Q93" t="s">
         <v>848</v>
       </c>
-      <c r="P93" s="26" t="s">
+      <c r="R93" s="26" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S93" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T93" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U93" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>1005430532</v>
       </c>
@@ -19525,14 +20469,23 @@
       <c r="N94" t="s">
         <v>852</v>
       </c>
-      <c r="O94" t="s">
+      <c r="Q94" t="s">
         <v>848</v>
       </c>
-      <c r="P94" s="26" t="s">
+      <c r="R94" s="26" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S94" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T94" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U94" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>1010313203</v>
       </c>
@@ -19572,17 +20525,26 @@
       <c r="N95" t="s">
         <v>847</v>
       </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>848</v>
       </c>
-      <c r="P95" s="26" t="s">
+      <c r="R95" s="26" t="s">
         <v>917</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="S95" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T95" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U95" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V95" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>1401315092</v>
       </c>
@@ -19622,14 +20584,23 @@
       <c r="N96" t="s">
         <v>847</v>
       </c>
-      <c r="O96" t="s">
+      <c r="Q96" t="s">
         <v>848</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="S96" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T96" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U96" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V96" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>1401373597</v>
       </c>
@@ -19669,17 +20640,26 @@
       <c r="N97" t="s">
         <v>852</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Q97" t="s">
         <v>848</v>
       </c>
-      <c r="P97" s="26" t="s">
+      <c r="R97" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="S97" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T97" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U97" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V97" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1400877154</v>
       </c>
@@ -19719,17 +20699,26 @@
       <c r="N98" t="s">
         <v>852</v>
       </c>
-      <c r="O98" t="s">
+      <c r="Q98" t="s">
         <v>848</v>
       </c>
-      <c r="P98" s="26" t="s">
+      <c r="R98" s="26" t="s">
         <v>919</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="S98" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T98" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U98" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V98" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>1401374927</v>
       </c>
@@ -19769,17 +20758,26 @@
       <c r="N99" t="s">
         <v>847</v>
       </c>
-      <c r="O99" t="s">
+      <c r="Q99" t="s">
         <v>847</v>
       </c>
-      <c r="P99" s="26" t="s">
+      <c r="R99" s="26" t="s">
         <v>920</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="S99" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T99" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U99" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V99" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="100" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>1205450202</v>
       </c>
@@ -19819,14 +20817,26 @@
       <c r="N100" t="s">
         <v>847</v>
       </c>
-      <c r="O100" t="s">
+      <c r="Q100" t="s">
         <v>848</v>
       </c>
-      <c r="P100" s="26" t="s">
+      <c r="R100" s="26" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S100" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T100" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U100" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V100" s="49" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>1401380766</v>
       </c>
@@ -19866,14 +20876,23 @@
       <c r="N101" t="s">
         <v>847</v>
       </c>
-      <c r="O101" t="s">
+      <c r="Q101" t="s">
         <v>848</v>
       </c>
-      <c r="P101" s="26" t="s">
+      <c r="R101" s="26" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S101" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T101" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U101" s="49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1010017969</v>
       </c>
@@ -19913,14 +20932,26 @@
       <c r="N102" t="s">
         <v>852</v>
       </c>
-      <c r="O102" t="s">
+      <c r="Q102" t="s">
         <v>847</v>
       </c>
-      <c r="P102" s="26" t="s">
+      <c r="R102" s="26" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="S102" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T102" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U102" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V102" s="49" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1401382217</v>
       </c>
@@ -19960,17 +20991,26 @@
       <c r="N103" t="s">
         <v>847</v>
       </c>
-      <c r="O103" t="s">
+      <c r="Q103" t="s">
         <v>848</v>
       </c>
-      <c r="P103" s="26" t="s">
+      <c r="R103" s="26" t="s">
         <v>924</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="S103" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="T103" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="U103" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="V103" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>1401381886</v>
       </c>
@@ -20010,14 +21050,26 @@
       <c r="N104" t="s">
         <v>847</v>
       </c>
-      <c r="O104" t="s">
+      <c r="Q104" t="s">
         <v>847</v>
       </c>
-      <c r="P104" s="26" t="s">
+      <c r="R104" s="26" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S104" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T104" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U104" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V104" s="26" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>1400712166</v>
       </c>
@@ -20057,17 +21109,26 @@
       <c r="N105" t="s">
         <v>852</v>
       </c>
-      <c r="O105" t="s">
+      <c r="Q105" t="s">
         <v>848</v>
       </c>
-      <c r="P105" s="26" t="s">
+      <c r="R105" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="S105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V105" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="106" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1400394345</v>
       </c>
@@ -20107,14 +21168,23 @@
       <c r="N106" t="s">
         <v>847</v>
       </c>
-      <c r="O106" t="s">
+      <c r="Q106" t="s">
         <v>852</v>
       </c>
-      <c r="P106" s="26" t="s">
+      <c r="R106" s="26" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="S106" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T106" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U106" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1003297212</v>
       </c>
@@ -20154,17 +21224,26 @@
       <c r="N107" t="s">
         <v>847</v>
       </c>
-      <c r="O107" t="s">
+      <c r="Q107" t="s">
         <v>852</v>
       </c>
-      <c r="P107" s="26" t="s">
+      <c r="R107" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="S107" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T107" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U107" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V107" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1102881845</v>
       </c>
@@ -20204,14 +21283,23 @@
       <c r="N108" t="s">
         <v>847</v>
       </c>
-      <c r="O108" t="s">
+      <c r="Q108" t="s">
         <v>848</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="S108" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T108" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U108" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V108" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="109" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1205055292</v>
       </c>
@@ -20251,14 +21339,23 @@
       <c r="N109" t="s">
         <v>847</v>
       </c>
-      <c r="O109" t="s">
+      <c r="Q109" t="s">
         <v>848</v>
       </c>
-      <c r="P109" s="26" t="s">
+      <c r="R109" s="26" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S109" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T109" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U109" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1100869636</v>
       </c>
@@ -20298,14 +21395,23 @@
       <c r="N110" t="s">
         <v>852</v>
       </c>
-      <c r="O110" t="s">
+      <c r="Q110" t="s">
         <v>848</v>
       </c>
-      <c r="P110" s="26" t="s">
+      <c r="R110" s="26" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="S110" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T110" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U110" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1203342736</v>
       </c>
@@ -20345,17 +21451,26 @@
       <c r="N111" t="s">
         <v>847</v>
       </c>
-      <c r="O111" t="s">
+      <c r="Q111" t="s">
         <v>848</v>
       </c>
-      <c r="P111" s="26" t="s">
+      <c r="R111" s="26" t="s">
         <v>931</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="S111" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T111" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U111" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V111" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="112" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>1401393822</v>
       </c>
@@ -20395,14 +21510,23 @@
       <c r="N112" t="s">
         <v>847</v>
       </c>
-      <c r="O112" t="s">
+      <c r="Q112" t="s">
         <v>848</v>
       </c>
-      <c r="P112" s="26" t="s">
+      <c r="R112" s="26" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="S112" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T112" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U112" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>1401393820</v>
       </c>
@@ -20442,56 +21566,65 @@
       <c r="N113" t="s">
         <v>847</v>
       </c>
-      <c r="O113" t="s">
+      <c r="Q113" t="s">
         <v>848</v>
       </c>
-      <c r="P113" s="26" t="s">
+      <c r="R113" s="26" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S113" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T113" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U113" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -21829,13 +22962,14 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{756351FA-EA10-4EFA-B4D6-83BEC0F103E1}">
-      <formula1>$V$3:$V$10</formula1>
+      <formula1>$AA$3:$AA$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I1:L1048576" xr:uid="{2DB06261-F2B9-48EC-96E9-635A45F2E9BD}">
-      <formula1>$T$2:$T$3</formula1>
+      <formula1>$Y$2:$Y$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617498B7-4C3A-E445-9751-B2D87E4BF3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551F7F1-36D2-E14F-A7FA-8B5CBE0DC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="33540" windowHeight="20020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tox Book" sheetId="1" r:id="rId1"/>
     <sheet name="INTOXICATE" sheetId="3" r:id="rId2"/>
-    <sheet name="Smartsheet not in report" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Smartsheet not in report" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1007">
   <si>
     <t>INTOXICATE Status</t>
   </si>
@@ -2653,9 +2654,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t xml:space="preserve">Predicted </t>
-  </si>
-  <si>
     <t>Found with empty bottles of klonopin, iron, and prozac</t>
   </si>
   <si>
@@ -3071,6 +3069,18 @@
   </si>
   <si>
     <t>In Retrospect Required ICU</t>
+  </si>
+  <si>
+    <t>ADULT</t>
+  </si>
+  <si>
+    <t>PEDS</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -3319,27 +3329,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5926,7 +5936,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3">
@@ -5941,27 +5951,27 @@
       <c r="E35" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="43" t="s">
+      <c r="G35" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="43"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="30"/>
       <c r="K35" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="44"/>
-      <c r="N35" s="44" t="s">
+      <c r="L35" s="43"/>
+      <c r="N35" s="43" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="3">
         <v>45036</v>
       </c>
@@ -5974,14 +5984,14 @@
       <c r="E36" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="30"/>
       <c r="K36" s="46"/>
-      <c r="L36" s="44"/>
-      <c r="N36" s="44"/>
+      <c r="L36" s="43"/>
+      <c r="N36" s="43"/>
     </row>
     <row r="37" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
@@ -6240,28 +6250,28 @@
       <c r="E45" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F45" s="42" t="s">
+      <c r="F45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="43" t="s">
+      <c r="G45" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="43" t="s">
+      <c r="I45" s="45" t="s">
         <v>136</v>
       </c>
       <c r="K45" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="47" t="s">
+      <c r="L45" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="N45" s="44" t="s">
+      <c r="N45" s="43" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6281,14 +6291,14 @@
       <c r="E46" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
       <c r="K46" s="46"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -6419,7 +6429,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -6434,16 +6444,16 @@
       <c r="E51" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="44" t="s">
+      <c r="G51" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="44"/>
+      <c r="I51" s="43"/>
       <c r="J51" s="31"/>
       <c r="K51" s="46" t="s">
         <v>99</v>
@@ -6453,7 +6463,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="44"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3">
         <v>45042</v>
       </c>
@@ -6466,10 +6476,10 @@
       <c r="E52" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="31"/>
       <c r="K52" s="46"/>
       <c r="N52" s="1" t="s">
@@ -6477,7 +6487,7 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="44"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="3">
         <v>45043</v>
       </c>
@@ -6490,10 +6500,10 @@
       <c r="E53" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="31"/>
       <c r="K53" s="46"/>
       <c r="N53" s="1" t="s">
@@ -6658,21 +6668,21 @@
       <c r="E59" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="44" t="s">
+      <c r="H59" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="I59" s="44"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="31"/>
       <c r="K59" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="44" t="s">
+      <c r="N59" s="43" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6689,13 +6699,13 @@
       <c r="E60" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
       <c r="J60" s="31"/>
       <c r="K60" s="46"/>
-      <c r="N60" s="44"/>
+      <c r="N60" s="43"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
@@ -8243,7 +8253,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="3">
@@ -8258,16 +8268,16 @@
       <c r="E109" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F109" s="45" t="s">
+      <c r="F109" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="44" t="s">
+      <c r="G109" s="43" t="s">
         <v>407</v>
       </c>
-      <c r="H109" s="44" t="s">
+      <c r="H109" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="K109" s="44" t="s">
+      <c r="K109" s="43" t="s">
         <v>99</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -8275,7 +8285,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="44"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="3">
         <v>45087</v>
       </c>
@@ -8288,16 +8298,16 @@
       <c r="E110" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F110" s="45"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="K110" s="44"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="K110" s="43"/>
       <c r="N110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="44"/>
+      <c r="A111" s="43"/>
       <c r="B111" s="3">
         <v>45088</v>
       </c>
@@ -8310,10 +8320,10 @@
       <c r="E111" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F111" s="45"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="K111" s="44"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="43"/>
+      <c r="H111" s="43"/>
+      <c r="K111" s="43"/>
       <c r="N111" s="1" t="s">
         <v>100</v>
       </c>
@@ -8809,7 +8819,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="44" t="s">
+      <c r="A132" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B132" s="3">
@@ -8824,12 +8834,12 @@
       <c r="E132" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N132" s="44" t="s">
+      <c r="N132" s="43" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="44"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="3">
         <v>45104</v>
       </c>
@@ -8842,10 +8852,10 @@
       <c r="E133" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N133" s="44"/>
+      <c r="N133" s="43"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="44"/>
+      <c r="A134" s="43"/>
       <c r="B134" s="3">
         <v>45105</v>
       </c>
@@ -8858,7 +8868,7 @@
       <c r="E134" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N134" s="44"/>
+      <c r="N134" s="43"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
@@ -8881,7 +8891,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="44" t="s">
+      <c r="A136" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B136" s="3">
@@ -8896,12 +8906,12 @@
       <c r="E136" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N136" s="44" t="s">
+      <c r="N136" s="43" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="44"/>
+      <c r="A137" s="43"/>
       <c r="B137" s="3">
         <v>45104</v>
       </c>
@@ -8914,10 +8924,10 @@
       <c r="E137" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N137" s="44"/>
+      <c r="N137" s="43"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="44"/>
+      <c r="A138" s="43"/>
       <c r="B138" s="3">
         <v>45105</v>
       </c>
@@ -8930,7 +8940,7 @@
       <c r="E138" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N138" s="44"/>
+      <c r="N138" s="43"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -8973,7 +8983,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B141" s="3">
@@ -8993,7 +9003,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="44"/>
+      <c r="A142" s="43"/>
       <c r="B142" s="3">
         <v>45108</v>
       </c>
@@ -9706,7 +9716,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="44" t="s">
+      <c r="A181" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B181" s="3">
@@ -9723,7 +9733,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="44"/>
+      <c r="A182" s="43"/>
       <c r="B182" s="3">
         <v>45153</v>
       </c>
@@ -9738,7 +9748,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="44" t="s">
+      <c r="A183" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B183" s="3">
@@ -9755,7 +9765,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="44"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="3">
         <v>45154</v>
       </c>
@@ -9819,7 +9829,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="44" t="s">
+      <c r="A188" s="43" t="s">
         <v>14</v>
       </c>
       <c r="B188" s="3">
@@ -9836,7 +9846,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="44"/>
+      <c r="A189" s="43"/>
       <c r="B189" s="3">
         <v>45154</v>
       </c>
@@ -11105,7 +11115,7 @@
       <c r="E274" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F274" s="48" t="s">
+      <c r="F274" s="47" t="s">
         <v>136</v>
       </c>
       <c r="G274" s="46" t="s">
@@ -11121,10 +11131,10 @@
       <c r="K274" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="L274" s="48" t="s">
+      <c r="L274" s="47" t="s">
         <v>565</v>
       </c>
-      <c r="M274" s="44" t="s">
+      <c r="M274" s="43" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11142,14 +11152,14 @@
       <c r="E275" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F275" s="48"/>
+      <c r="F275" s="47"/>
       <c r="G275" s="46"/>
       <c r="H275" s="46"/>
       <c r="I275" s="46"/>
       <c r="J275" s="32"/>
       <c r="K275" s="46"/>
-      <c r="L275" s="48"/>
-      <c r="M275" s="44"/>
+      <c r="L275" s="47"/>
+      <c r="M275" s="43"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B276" s="3">
@@ -14831,35 +14841,12 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="M274:M275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="I274:I275"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="N136:N138"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="N132:N134"/>
@@ -14876,12 +14863,35 @@
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="N136:N138"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="M274:M275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="I274:I275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="103" priority="1"/>
@@ -14892,11 +14902,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25C0DBF-50F6-4E43-B81A-8EA8A04F8EC5}">
-  <dimension ref="A1:AA469"/>
+  <dimension ref="A1:AG469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14967,10 +14977,10 @@
         <v>840</v>
       </c>
       <c r="O1" s="35" t="s">
+        <v>994</v>
+      </c>
+      <c r="P1" s="35" t="s">
         <v>995</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>996</v>
       </c>
       <c r="Q1" s="35" t="s">
         <v>841</v>
@@ -14979,13 +14989,13 @@
         <v>842</v>
       </c>
       <c r="S1" s="41" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="T1" s="41" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="U1" s="41" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="V1" s="35" t="s">
         <v>843</v>
@@ -14999,26 +15009,26 @@
       <c r="AA1" s="36"/>
     </row>
     <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1205218011</v>
-      </c>
-      <c r="B2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="38">
+        <v>1401126371</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D2" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="G2">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -15027,7 +15037,7 @@
         <v>138</v>
       </c>
       <c r="J2" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
         <v>138</v>
@@ -15036,22 +15046,28 @@
         <v>138</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q2" t="s">
         <v>848</v>
       </c>
       <c r="R2" s="26" t="s">
-        <v>178</v>
+        <v>887</v>
       </c>
       <c r="S2" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T2" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="Y2" t="s">
         <v>731</v>
@@ -15061,26 +15077,26 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1401129153</v>
-      </c>
-      <c r="B3" t="s">
-        <v>797</v>
-      </c>
-      <c r="C3" t="s">
-        <v>850</v>
+      <c r="A3" s="38">
+        <v>1400361697</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D3" t="s">
         <v>846</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>90</v>
-      </c>
-      <c r="G3">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>864</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -15097,24 +15113,19 @@
       <c r="L3" t="s">
         <v>138</v>
       </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>847</v>
-      </c>
       <c r="Q3" t="s">
         <v>848</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="42"/>
       <c r="Y3" t="s">
         <v>138</v>
       </c>
@@ -15123,26 +15134,26 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1400059656</v>
-      </c>
-      <c r="B4" t="s">
-        <v>784</v>
-      </c>
-      <c r="C4" t="s">
-        <v>845</v>
+      <c r="A4" s="38">
+        <v>1401621668</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D4" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>81</v>
-      </c>
-      <c r="G4">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>864</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -15159,17 +15170,11 @@
       <c r="L4" t="s">
         <v>138</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>852</v>
-      </c>
       <c r="Q4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R4" s="26" t="s">
-        <v>178</v>
+        <v>889</v>
       </c>
       <c r="S4" s="26" t="s">
         <v>138</v>
@@ -15178,7 +15183,10 @@
         <v>138</v>
       </c>
       <c r="U4" s="26" t="s">
-        <v>986</v>
+        <v>138</v>
+      </c>
+      <c r="V4" t="s">
+        <v>890</v>
       </c>
       <c r="AA4" s="33" t="s">
         <v>846</v>
@@ -15186,25 +15194,25 @@
     </row>
     <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1401090590</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1400616084</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D5" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G5">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -15222,80 +15230,83 @@
         <v>138</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q5" t="s">
         <v>848</v>
       </c>
-      <c r="R5" s="26" t="s">
-        <v>853</v>
-      </c>
       <c r="S5" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T5" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="AA5" s="33" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1001720769</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
+        <v>1401393820</v>
       </c>
       <c r="C6" t="s">
         <v>850</v>
       </c>
       <c r="D6" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G6">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="H6">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J6" t="s">
         <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L6" t="s">
         <v>138</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q6" t="s">
         <v>848</v>
       </c>
       <c r="R6" s="26" t="s">
-        <v>856</v>
+        <v>913</v>
       </c>
       <c r="S6" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U6" s="26" t="s">
         <v>138</v>
       </c>
       <c r="AA6" s="33" t="s">
@@ -15304,31 +15315,28 @@
     </row>
     <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1401096023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+        <v>1401393822</v>
       </c>
       <c r="C7" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G7">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J7" t="s">
         <v>138</v>
@@ -15340,16 +15348,16 @@
         <v>138</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N7" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R7" s="26" t="s">
-        <v>858</v>
+        <v>913</v>
       </c>
       <c r="S7" s="26" t="s">
         <v>138</v>
@@ -15357,8 +15365,8 @@
       <c r="T7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V7" s="26" t="s">
-        <v>984</v>
+      <c r="U7" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="AA7" s="33" t="s">
         <v>859</v>
@@ -15366,69 +15374,69 @@
     </row>
     <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1006629455</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+        <v>1100869636</v>
       </c>
       <c r="C8" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D8" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J8" t="s">
         <v>138</v>
       </c>
       <c r="K8" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
         <v>138</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q8" t="s">
         <v>848</v>
       </c>
       <c r="R8" s="26" t="s">
-        <v>861</v>
+        <v>929</v>
       </c>
       <c r="S8" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U8" s="26" t="s">
         <v>138</v>
       </c>
       <c r="AA8" s="33" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
-        <v>1010033242</v>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1101578680</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>845</v>
@@ -15437,63 +15445,63 @@
         <v>862</v>
       </c>
       <c r="E9">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="G9">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K9" t="s">
         <v>731</v>
       </c>
-      <c r="J9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K9" t="s">
-        <v>138</v>
-      </c>
       <c r="L9" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N9" t="s">
         <v>847</v>
       </c>
       <c r="Q9" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R9" s="26" t="s">
-        <v>863</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="S9" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T9" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V9" s="26" t="s">
-        <v>985</v>
+        <v>138</v>
+      </c>
+      <c r="V9" t="s">
+        <v>991</v>
       </c>
       <c r="AA9" s="33" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
-        <v>1400361697</v>
+    <row r="10" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1009826465</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>845</v>
@@ -15502,13 +15510,13 @@
         <v>846</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>116</v>
-      </c>
-      <c r="G10" t="s">
-        <v>864</v>
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>106</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -15525,44 +15533,52 @@
       <c r="L10" t="s">
         <v>138</v>
       </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>852</v>
+      </c>
       <c r="Q10" t="s">
         <v>848</v>
       </c>
       <c r="R10" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="S10" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" s="49"/>
+        <v>883</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>138</v>
+      </c>
       <c r="AA10" s="33" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1001694549</v>
+        <v>1203506199</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" t="s">
         <v>845</v>
       </c>
       <c r="D11" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="G11">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -15574,52 +15590,57 @@
         <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
         <v>138</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q11" t="s">
         <v>848</v>
       </c>
-      <c r="S11" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T11" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U11" s="49"/>
+      <c r="R11" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V11" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
-        <v>1006139627</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="2">
+        <v>1203506199</v>
+      </c>
+      <c r="C12" t="s">
         <v>845</v>
       </c>
       <c r="D12" t="s">
         <v>862</v>
       </c>
       <c r="E12">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G12">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
         <v>138</v>
@@ -15634,46 +15655,48 @@
         <v>138</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q12" t="s">
         <v>848</v>
       </c>
       <c r="R12" s="26" t="s">
-        <v>865</v>
-      </c>
-      <c r="S12" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T12" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U12" s="49"/>
-    </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1009487000</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>845</v>
+        <v>1401332618</v>
+      </c>
+      <c r="C13" t="s">
+        <v>908</v>
       </c>
       <c r="D13" t="s">
         <v>854</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G13">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -15685,49 +15708,54 @@
         <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L13" t="s">
         <v>138</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N13" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q13" t="s">
         <v>848</v>
       </c>
-      <c r="S13" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T13" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U13" s="49"/>
+      <c r="R13" s="26" t="s">
+        <v>909</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V13" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
-        <v>1401159022</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="2">
+        <v>1010313203</v>
+      </c>
+      <c r="C14" t="s">
         <v>845</v>
       </c>
       <c r="D14" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="E14">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="G14">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -15745,7 +15773,7 @@
         <v>138</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
         <v>847</v>
@@ -15753,44 +15781,49 @@
       <c r="Q14" t="s">
         <v>848</v>
       </c>
-      <c r="S14" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T14" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="R14" s="26" t="s">
+        <v>916</v>
+      </c>
+      <c r="S14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>1401141829</v>
-      </c>
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s">
-        <v>850</v>
+        <v>1009487000</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E15">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G15">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J15" t="s">
         <v>138</v>
@@ -15802,51 +15835,43 @@
         <v>138</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q15" t="s">
-        <v>847</v>
-      </c>
-      <c r="R15" s="26" t="s">
-        <v>866</v>
-      </c>
-      <c r="S15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" s="49" t="s">
-        <v>731</v>
-      </c>
-      <c r="V15" s="49" t="s">
-        <v>987</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="S15" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U15" s="42"/>
     </row>
     <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>1008108363</v>
+        <v>1009024651</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D16" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E16">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="G16">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -15858,48 +15883,51 @@
         <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L16" t="s">
         <v>138</v>
       </c>
       <c r="M16">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q16" t="s">
         <v>848</v>
       </c>
-      <c r="S16" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T16" s="49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="R16" s="26" t="s">
+        <v>877</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>1101578680</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>1203342736</v>
+      </c>
+      <c r="C17" t="s">
         <v>845</v>
       </c>
       <c r="D17" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G17">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -15917,7 +15945,7 @@
         <v>138</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N17" t="s">
         <v>847</v>
@@ -15926,51 +15954,60 @@
         <v>848</v>
       </c>
       <c r="R17" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="S17" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T17" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U17" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V17" t="s">
-        <v>992</v>
+        <v>878</v>
       </c>
       <c r="Y17" t="s">
         <v>868</v>
       </c>
       <c r="AA17" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>868</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>1000053365</v>
+        <v>1008508665</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>342</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D18" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E18">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
         <v>138</v>
@@ -15985,25 +16022,25 @@
         <v>138</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q18" t="s">
-        <v>852</v>
-      </c>
-      <c r="S18" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="R18" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="S18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U18" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V18" t="s">
-        <v>988</v>
       </c>
       <c r="Y18" t="s">
         <v>847</v>
@@ -16011,28 +16048,52 @@
       <c r="AA18" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q$2:$Q$115,$AA18)</f>
+        <v>20</v>
+      </c>
+      <c r="AC18">
+        <f>ROUND(100*AB18/AB$21,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AD18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q2:$Q115,$AA18, $E$2:$E$115,"&lt;"&amp;18)</f>
+        <v>4</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" ref="AE18:AE20" si="0">ROUND(100*AD18/AD$21,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AF18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$Q2:$Q115,$AA18)</f>
+        <v>16</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" ref="AG18:AG20" si="1">ROUND(100*AF18/AF$21,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1100404076</v>
+        <v>1011109716</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>350</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D19" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E19">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G19">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="H19">
         <v>15</v>
@@ -16044,24 +16105,27 @@
         <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s">
         <v>138</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q19" t="s">
-        <v>852</v>
-      </c>
-      <c r="S19" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U19" s="26" t="s">
@@ -16073,28 +16137,49 @@
       <c r="AA19" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB19">
+        <f t="shared" ref="AB19:AB20" si="2">COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q$2:$Q$115,$AA19)</f>
+        <v>16</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ref="AC19:AC20" si="3">ROUND(100*AB19/AB$21,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" ref="AC19:AD20" si="4">COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q3:$Q116,$AA19, $E$2:$E$115,"&lt;"&amp;18)</f>
+        <v>2</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" ref="AD19:AF20" si="5">COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$Q3:$Q116,$AA19)</f>
+        <v>14</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>1007809059</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>1401373597</v>
+      </c>
+      <c r="C20" t="s">
         <v>845</v>
       </c>
       <c r="D20" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E20">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F20">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="G20">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>15</v>
@@ -16106,57 +16191,87 @@
         <v>138</v>
       </c>
       <c r="K20" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s">
         <v>138</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N20" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q20" t="s">
         <v>848</v>
       </c>
-      <c r="S20" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U20" s="26" t="s">
-        <v>731</v>
+      <c r="R20" s="26" t="s">
+        <v>917</v>
+      </c>
+      <c r="S20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="V20" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>848</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>1011109895</v>
+        <v>1401251362</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>384</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D21" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E21">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="G21">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
         <v>138</v>
@@ -16165,57 +16280,63 @@
         <v>138</v>
       </c>
       <c r="K21" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L21" t="s">
         <v>138</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q21" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>870</v>
-      </c>
-      <c r="S21" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T21" s="49" t="s">
+        <v>879</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U21" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V21" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="AB21">
+        <f>SUM(AB$18:AB$20)</f>
+        <v>103</v>
+      </c>
+      <c r="AD21">
+        <f>SUM(AD$18:AD$20)</f>
+        <v>24</v>
+      </c>
+      <c r="AF21">
+        <f>SUM(AF$18:AF$20)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1102644291</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>850</v>
+        <v>1008177567</v>
+      </c>
+      <c r="C22" t="s">
+        <v>845</v>
       </c>
       <c r="D22" t="s">
         <v>862</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -16233,48 +16354,48 @@
         <v>138</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q22" t="s">
         <v>848</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="S22" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U22" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>1400587005</v>
+        <v>1401138268</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D23" t="s">
         <v>857</v>
       </c>
       <c r="E23">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F23">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="G23">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>15</v>
@@ -16292,48 +16413,55 @@
         <v>138</v>
       </c>
       <c r="M23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N23" t="s">
         <v>847</v>
       </c>
       <c r="Q23" t="s">
-        <v>852</v>
-      </c>
-      <c r="S23" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T23" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U23" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="V23" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB23">
+        <f>COUNTIF($E$2:$E$155,"&gt;="&amp;12)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1006702172</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>845</v>
+        <v>1400041383</v>
+      </c>
+      <c r="C24" t="s">
+        <v>850</v>
       </c>
       <c r="D24" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E24">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G24">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
         <v>138</v>
@@ -16342,51 +16470,54 @@
         <v>138</v>
       </c>
       <c r="K24" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L24" t="s">
         <v>138</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N24" t="s">
         <v>847</v>
       </c>
       <c r="Q24" t="s">
-        <v>852</v>
-      </c>
-      <c r="S24" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T24" s="49" t="s">
+        <v>848</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="S24" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U24" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1007329807</v>
+        <v>1201301817</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D25" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E25">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G25">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H25">
         <v>15</v>
@@ -16404,7 +16535,7 @@
         <v>138</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N25" t="s">
         <v>847</v>
@@ -16413,39 +16544,42 @@
         <v>848</v>
       </c>
       <c r="R25" s="26" t="s">
-        <v>871</v>
-      </c>
-      <c r="S25" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T25" s="49" t="s">
+        <v>356</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U25" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1102416341</v>
+        <v>1102506734</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>179</v>
+        <v>365</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D26" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E26">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G26">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="H26">
         <v>15</v>
@@ -16457,54 +16591,54 @@
         <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L26" t="s">
         <v>138</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N26" t="s">
         <v>847</v>
       </c>
       <c r="Q26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>872</v>
-      </c>
-      <c r="S26" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T26" s="49" t="s">
+        <v>881</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T26" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="V26" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>1401192570</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>1401380766</v>
+      </c>
+      <c r="C27" t="s">
         <v>850</v>
       </c>
       <c r="D27" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E27">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G27">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="H27">
         <v>15</v>
@@ -16516,54 +16650,54 @@
         <v>138</v>
       </c>
       <c r="K27" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L27" t="s">
         <v>138</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q27" t="s">
         <v>848</v>
       </c>
       <c r="R27" s="26" t="s">
-        <v>873</v>
-      </c>
-      <c r="S27" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T27" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U27" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>922</v>
+      </c>
+      <c r="S27" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>1009103377</v>
+        <v>1401239791</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D28" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E28">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F28">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="G28">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H28">
         <v>15</v>
@@ -16575,60 +16709,60 @@
         <v>138</v>
       </c>
       <c r="K28" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s">
         <v>138</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q28" t="s">
         <v>848</v>
       </c>
-      <c r="S28" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" s="49" t="s">
+      <c r="R28" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="S28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U28" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V28" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>1101010685</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>850</v>
+        <v>1401369966</v>
+      </c>
+      <c r="C29" t="s">
+        <v>845</v>
       </c>
       <c r="D29" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F29">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G29">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="H29">
         <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J29" t="s">
         <v>138</v>
@@ -16640,7 +16774,7 @@
         <v>138</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
         <v>852</v>
@@ -16648,37 +16782,40 @@
       <c r="Q29" t="s">
         <v>848</v>
       </c>
-      <c r="S29" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T29" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U29" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>1002805912</v>
+      <c r="R29" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1401161378</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D30" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F30">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="G30">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="H30">
         <v>15</v>
@@ -16690,19 +16827,19 @@
         <v>138</v>
       </c>
       <c r="K30" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L30" t="s">
         <v>138</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N30" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q30" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S30" s="26" t="s">
         <v>138</v>
@@ -16713,55 +16850,55 @@
       <c r="U30" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="V30" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>1103414115</v>
+        <v>1401098593</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D31" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F31">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="G31">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H31">
         <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J31" t="s">
         <v>138</v>
       </c>
       <c r="K31" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s">
         <v>138</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q31" t="s">
-        <v>852</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>219</v>
+        <v>848</v>
       </c>
       <c r="S31" s="26" t="s">
         <v>138</v>
@@ -16772,31 +16909,28 @@
       <c r="U31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V31" s="26" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>1000326621</v>
+        <v>1401224985</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D32" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -16808,13 +16942,13 @@
         <v>138</v>
       </c>
       <c r="K32" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L32" t="s">
         <v>138</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
         <v>852</v>
@@ -16822,9 +16956,6 @@
       <c r="Q32" t="s">
         <v>848</v>
       </c>
-      <c r="R32" s="26" t="s">
-        <v>874</v>
-      </c>
       <c r="S32" s="26" t="s">
         <v>138</v>
       </c>
@@ -16835,27 +16966,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>1401206978</v>
+        <v>1401250968</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D33" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E33">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H33">
         <v>15</v>
@@ -16873,7 +17004,7 @@
         <v>138</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
         <v>852</v>
@@ -16882,7 +17013,7 @@
         <v>848</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>875</v>
+        <v>178</v>
       </c>
       <c r="S33" s="26" t="s">
         <v>138</v>
@@ -16893,31 +17024,31 @@
       <c r="U33" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V33" s="26" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V33" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>1401207030</v>
+        <v>1102874529</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>241</v>
+        <v>729</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D34" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="G34">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="H34">
         <v>15</v>
@@ -16929,22 +17060,22 @@
         <v>138</v>
       </c>
       <c r="K34" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s">
         <v>138</v>
       </c>
       <c r="M34">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q34" t="s">
         <v>848</v>
       </c>
       <c r="R34" s="26" t="s">
-        <v>876</v>
+        <v>728</v>
       </c>
       <c r="S34" s="26" t="s">
         <v>138</v>
@@ -16954,59 +17085,53 @@
       </c>
       <c r="U34" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V34" s="26" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>1400775825</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>850</v>
+        <v>1400712166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>845</v>
       </c>
       <c r="D35" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="G35">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J35" t="s">
         <v>138</v>
       </c>
       <c r="K35" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s">
         <v>138</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q35" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R35" s="26" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="S35" s="26" t="s">
         <v>138</v>
@@ -17017,31 +17142,31 @@
       <c r="U35" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V35" s="26" t="s">
-        <v>994</v>
+      <c r="V35" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>1401208505</v>
+        <v>1008108363</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D36" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E36">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F36">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G36">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>15</v>
@@ -17059,45 +17184,39 @@
         <v>138</v>
       </c>
       <c r="M36">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="N36" t="s">
         <v>852</v>
       </c>
       <c r="Q36" t="s">
-        <v>852</v>
-      </c>
-      <c r="S36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T36" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U36" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+      <c r="S36" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1100390034</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="1" t="s">
+        <v>1400877154</v>
+      </c>
+      <c r="C37" t="s">
         <v>845</v>
       </c>
       <c r="D37" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F37">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G37">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H37">
         <v>15</v>
@@ -17115,7 +17234,7 @@
         <v>138</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>852</v>
@@ -17123,37 +17242,40 @@
       <c r="Q37" t="s">
         <v>848</v>
       </c>
-      <c r="S37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U37" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="R37" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="S37" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T37" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U37" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V37" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>1401161378</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="1" t="s">
+        <v>1003435007</v>
+      </c>
+      <c r="C38" t="s">
         <v>850</v>
       </c>
       <c r="D38" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E38">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F38">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G38">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H38">
         <v>15</v>
@@ -17165,20 +17287,23 @@
         <v>138</v>
       </c>
       <c r="K38" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s">
         <v>138</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q38" t="s">
         <v>848</v>
       </c>
+      <c r="R38" s="26" t="s">
+        <v>910</v>
+      </c>
       <c r="S38" s="26" t="s">
         <v>138</v>
       </c>
@@ -17188,31 +17313,28 @@
       <c r="U38" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V38" s="26" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>1401215589</v>
+    </row>
+    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>1401645430</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>280</v>
+        <v>757</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D39" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E39">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="G39">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H39">
         <v>15</v>
@@ -17221,22 +17343,25 @@
         <v>138</v>
       </c>
       <c r="J39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" t="s">
         <v>731</v>
       </c>
-      <c r="K39" t="s">
-        <v>138</v>
-      </c>
       <c r="L39" t="s">
         <v>138</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N39" t="s">
         <v>847</v>
       </c>
       <c r="Q39" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="R39" s="26" t="s">
+        <v>893</v>
       </c>
       <c r="S39" s="26" t="s">
         <v>138</v>
@@ -17247,31 +17372,31 @@
       <c r="U39" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V39" s="26" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V39" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>1401138268</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>1401090590</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
         <v>845</v>
       </c>
       <c r="D40" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E40">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F40">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G40">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -17283,54 +17408,48 @@
         <v>138</v>
       </c>
       <c r="K40" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L40" t="s">
         <v>138</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q40" t="s">
         <v>848</v>
       </c>
+      <c r="R40" s="26" t="s">
+        <v>853</v>
+      </c>
       <c r="S40" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T40" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="U40" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V40" s="26" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1102188394</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="38">
+        <v>1004993792</v>
+      </c>
+      <c r="C41" t="s">
         <v>845</v>
       </c>
       <c r="D41" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E41">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F41">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="G41">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H41">
         <v>15</v>
@@ -17342,19 +17461,22 @@
         <v>138</v>
       </c>
       <c r="K41" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L41" t="s">
         <v>138</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q41" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="R41" s="17" t="s">
+        <v>435</v>
       </c>
       <c r="S41" s="26" t="s">
         <v>138</v>
@@ -17365,31 +17487,31 @@
       <c r="U41" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V41" s="26" t="s">
-        <v>991</v>
+      <c r="V41" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1401098593</v>
+        <v>1102295028</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C42" t="s">
         <v>845</v>
       </c>
       <c r="D42" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E42">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F42">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G42">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H42">
         <v>15</v>
@@ -17407,7 +17529,7 @@
         <v>138</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
         <v>852</v>
@@ -17415,6 +17537,9 @@
       <c r="Q42" t="s">
         <v>848</v>
       </c>
+      <c r="R42" s="26" t="s">
+        <v>896</v>
+      </c>
       <c r="S42" s="26" t="s">
         <v>138</v>
       </c>
@@ -17425,27 +17550,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>1400616084</v>
+        <v>1401192570</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D43" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F43">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H43">
         <v>15</v>
@@ -17463,48 +17588,48 @@
         <v>138</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q43" t="s">
         <v>848</v>
       </c>
-      <c r="S43" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T43" s="26" t="s">
+      <c r="R43" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="S43" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T43" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U43" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V43" s="26" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>1009024651</v>
+        <v>1100390034</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D44" t="s">
         <v>846</v>
       </c>
       <c r="E44">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G44">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H44">
         <v>15</v>
@@ -17516,23 +17641,20 @@
         <v>138</v>
       </c>
       <c r="K44" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s">
         <v>138</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="N44" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q44" t="s">
         <v>848</v>
       </c>
-      <c r="R44" s="26" t="s">
-        <v>878</v>
-      </c>
       <c r="S44" s="26" t="s">
         <v>138</v>
       </c>
@@ -17545,28 +17667,25 @@
     </row>
     <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1102644291</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="1" t="s">
+        <v>1401315092</v>
+      </c>
+      <c r="C45" t="s">
         <v>850</v>
       </c>
       <c r="D45" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E45">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F45">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G45">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
         <v>138</v>
@@ -17575,13 +17694,13 @@
         <v>138</v>
       </c>
       <c r="K45" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L45" t="s">
         <v>138</v>
       </c>
       <c r="M45">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N45" t="s">
         <v>847</v>
@@ -17589,37 +17708,40 @@
       <c r="Q45" t="s">
         <v>848</v>
       </c>
-      <c r="S45" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T45" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U45" s="26" t="s">
-        <v>138</v>
+      <c r="S45" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T45" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U45" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V45" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>1401224985</v>
+        <v>1401206978</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>318</v>
+        <v>236</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D46" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F46">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G46">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -17631,13 +17753,13 @@
         <v>138</v>
       </c>
       <c r="K46" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s">
         <v>138</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
         <v>852</v>
@@ -17645,6 +17767,9 @@
       <c r="Q46" t="s">
         <v>848</v>
       </c>
+      <c r="R46" s="26" t="s">
+        <v>874</v>
+      </c>
       <c r="S46" s="26" t="s">
         <v>138</v>
       </c>
@@ -17654,28 +17779,28 @@
       <c r="U46" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V46" s="26" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>1008508665</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C47" s="1" t="s">
+        <v>1007340188</v>
+      </c>
+      <c r="C47" t="s">
         <v>850</v>
       </c>
       <c r="D47" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F47">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G47">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H47">
         <v>15</v>
@@ -17702,7 +17827,7 @@
         <v>848</v>
       </c>
       <c r="R47" s="26" t="s">
-        <v>178</v>
+        <v>912</v>
       </c>
       <c r="S47" s="26" t="s">
         <v>138</v>
@@ -17712,29 +17837,32 @@
       </c>
       <c r="U47" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="V47" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>1401239791</v>
+        <v>1401207030</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>346</v>
+        <v>241</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D48" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E48">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F48">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G48">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H48">
         <v>15</v>
@@ -17746,22 +17874,22 @@
         <v>138</v>
       </c>
       <c r="K48" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L48" t="s">
         <v>138</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N48" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q48" t="s">
         <v>848</v>
       </c>
       <c r="R48" s="26" t="s">
-        <v>345</v>
+        <v>875</v>
       </c>
       <c r="S48" s="26" t="s">
         <v>138</v>
@@ -17772,58 +17900,58 @@
       <c r="U48" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V48" t="s">
-        <v>879</v>
+      <c r="V48" s="26" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>1011109716</v>
+        <v>1000024972</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D49" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E49">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F49">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G49">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H49">
         <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J49" t="s">
         <v>138</v>
       </c>
       <c r="K49" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L49" t="s">
         <v>138</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N49" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q49" t="s">
         <v>848</v>
       </c>
       <c r="R49" s="26" t="s">
-        <v>880</v>
+        <v>389</v>
       </c>
       <c r="S49" s="26" t="s">
         <v>138</v>
@@ -17833,29 +17961,32 @@
       </c>
       <c r="U49" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="V49" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>1008550250</v>
+        <v>1000326621</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D50" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E50">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G50">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H50">
         <v>15</v>
@@ -17873,16 +18004,16 @@
         <v>138</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N50" t="s">
         <v>852</v>
       </c>
       <c r="Q50" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R50" s="26" t="s">
-        <v>178</v>
+        <v>873</v>
       </c>
       <c r="S50" s="26" t="s">
         <v>138</v>
@@ -17893,31 +18024,28 @@
       <c r="U50" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V50" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>1201301817</v>
+        <v>1101568757</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>357</v>
+        <v>749</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D51" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E51">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F51">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="G51">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H51">
         <v>15</v>
@@ -17929,13 +18057,13 @@
         <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s">
         <v>138</v>
       </c>
       <c r="M51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N51" t="s">
         <v>847</v>
@@ -17944,7 +18072,7 @@
         <v>848</v>
       </c>
       <c r="R51" s="26" t="s">
-        <v>356</v>
+        <v>891</v>
       </c>
       <c r="S51" s="26" t="s">
         <v>138</v>
@@ -17956,30 +18084,30 @@
         <v>138</v>
       </c>
       <c r="V51" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>1102506734</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>845</v>
+        <v>1001720769</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>850</v>
       </c>
       <c r="D52" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F52">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G52">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -17991,60 +18119,51 @@
         <v>138</v>
       </c>
       <c r="K52" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L52" t="s">
         <v>138</v>
       </c>
       <c r="M52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q52" t="s">
         <v>848</v>
       </c>
       <c r="R52" s="26" t="s">
-        <v>882</v>
+        <v>856</v>
       </c>
       <c r="S52" s="26" t="s">
         <v>138</v>
       </c>
       <c r="T52" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="U52" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V52" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>1401249635</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>850</v>
+        <v>1205450202</v>
+      </c>
+      <c r="C53" t="s">
+        <v>845</v>
       </c>
       <c r="D53" t="s">
         <v>862</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F53">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="G53">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
         <v>138</v>
@@ -18059,51 +18178,48 @@
         <v>138</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N53" t="s">
         <v>847</v>
       </c>
       <c r="Q53" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R53" s="26" t="s">
-        <v>883</v>
-      </c>
-      <c r="S53" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T53" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U53" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V53" s="26" t="s">
-        <v>998</v>
+        <v>921</v>
+      </c>
+      <c r="S53" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T53" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U53" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V53" s="42" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>1401250968</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>845</v>
+        <v>1401382217</v>
+      </c>
+      <c r="C54" t="s">
+        <v>850</v>
       </c>
       <c r="D54" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E54">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F54">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G54">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -18115,84 +18231,84 @@
         <v>138</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L54" t="s">
         <v>138</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q54" t="s">
         <v>848</v>
       </c>
       <c r="R54" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="S54" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T54" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U54" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="S54" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T54" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U54" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V54" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1009826465</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>1006629455</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
         <v>845</v>
       </c>
       <c r="D55" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E55">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F55">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G55">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H55">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J55" t="s">
         <v>138</v>
       </c>
       <c r="K55" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L55" t="s">
         <v>138</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N55" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q55" t="s">
         <v>848</v>
       </c>
       <c r="R55" s="26" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="S55" s="26" t="s">
         <v>138</v>
@@ -18200,34 +18316,31 @@
       <c r="T55" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="U55" s="26" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>1401251362</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>850</v>
+      <c r="A56" s="38">
+        <v>1401159022</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>845</v>
       </c>
       <c r="D56" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F56">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G56">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="H56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I56" t="s">
         <v>138</v>
@@ -18236,144 +18349,133 @@
         <v>138</v>
       </c>
       <c r="K56" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L56" t="s">
         <v>138</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N56" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q56" t="s">
         <v>848</v>
       </c>
-      <c r="R56" s="26" t="s">
-        <v>880</v>
-      </c>
-      <c r="S56" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T56" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U56" s="26" t="s">
-        <v>138</v>
+      <c r="S56" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T56" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1000024972</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>850</v>
+        <v>1005430532</v>
+      </c>
+      <c r="C57" t="s">
+        <v>845</v>
       </c>
       <c r="D57" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E57">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F57">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G57">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H57">
         <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J57" t="s">
         <v>138</v>
       </c>
       <c r="K57" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s">
         <v>138</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q57" t="s">
         <v>848</v>
       </c>
       <c r="R57" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="S57" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T57" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U57" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V57" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>915</v>
+      </c>
+      <c r="S57" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T57" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U57" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>1401255084</v>
+        <v>1101010685</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D58" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E58">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F58">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G58">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="H58">
         <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J58" t="s">
         <v>138</v>
       </c>
       <c r="K58" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s">
         <v>138</v>
       </c>
       <c r="M58">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q58" t="s">
         <v>848</v>
       </c>
-      <c r="R58" s="26" t="s">
-        <v>886</v>
-      </c>
       <c r="S58" s="26" t="s">
         <v>138</v>
       </c>
@@ -18386,25 +18488,25 @@
     </row>
     <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1401281866</v>
+        <v>1007809059</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>403</v>
+        <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D59" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E59">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F59">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="G59">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="H59">
         <v>15</v>
@@ -18416,57 +18518,57 @@
         <v>138</v>
       </c>
       <c r="K59" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L59" t="s">
         <v>138</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N59" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q59" t="s">
-        <v>847</v>
-      </c>
-      <c r="R59" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="S59" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T59" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="S59" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T59" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>986</v>
+        <v>731</v>
+      </c>
+      <c r="V59" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>1401622561</v>
+      <c r="A60" s="38">
+        <v>1200624653</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D60" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="F60">
+        <v>79</v>
+      </c>
+      <c r="G60">
         <v>120</v>
       </c>
-      <c r="G60">
-        <v>67</v>
-      </c>
       <c r="H60">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
         <v>138</v>
@@ -18481,16 +18583,16 @@
         <v>138</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q60" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R60" s="26" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="S60" s="26" t="s">
         <v>138</v>
@@ -18501,31 +18603,28 @@
       <c r="U60" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V60" s="26" t="s">
-        <v>999</v>
+      <c r="V60" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>1102874529</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>845</v>
+        <v>1401316516</v>
+      </c>
+      <c r="C61" t="s">
+        <v>850</v>
       </c>
       <c r="D61" t="s">
         <v>857</v>
       </c>
       <c r="E61">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F61">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="G61">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="H61">
         <v>15</v>
@@ -18537,122 +18636,120 @@
         <v>138</v>
       </c>
       <c r="K61" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L61" t="s">
         <v>138</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q61" t="s">
         <v>848</v>
       </c>
       <c r="R61" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="S61" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T61" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U61" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>900</v>
+      </c>
+      <c r="S61" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T61" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U61" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V61" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>1002666748</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C62" s="1" t="s">
+        <v>1200230428</v>
+      </c>
+      <c r="C62" t="s">
         <v>850</v>
       </c>
       <c r="D62" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F62">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="G62">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J62" t="s">
         <v>138</v>
       </c>
       <c r="K62" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s">
         <v>138</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N62" t="s">
         <v>847</v>
       </c>
       <c r="Q62" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R62" s="26" t="s">
-        <v>733</v>
+        <v>439</v>
       </c>
       <c r="S62" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="T62" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="U62" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="V62" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
-        <v>1401126371</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="A63" s="2">
+        <v>1401311288</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" t="s">
         <v>845</v>
       </c>
       <c r="D63" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="F63">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G63">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="H63">
         <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J63" t="s">
         <v>138</v>
@@ -18664,16 +18761,16 @@
         <v>138</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N63" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q63" t="s">
         <v>848</v>
       </c>
       <c r="R63" s="26" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
       <c r="S63" s="26" t="s">
         <v>138</v>
@@ -18684,31 +18781,28 @@
       <c r="U63" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V63" s="26" t="s">
-        <v>991</v>
-      </c>
     </row>
     <row r="64" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="38">
-        <v>1200624653</v>
+      <c r="A64" s="2">
+        <v>1102644291</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>742</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D64" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E64">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F64">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G64">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H64">
         <v>15</v>
@@ -18726,36 +18820,33 @@
         <v>138</v>
       </c>
       <c r="M64">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N64" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q64" t="s">
         <v>848</v>
       </c>
       <c r="R64" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="S64" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T64" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="S64" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T64" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U64" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V64" t="s">
-        <v>879</v>
-      </c>
     </row>
     <row r="65" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="38">
-        <v>1401621668</v>
+      <c r="A65" s="2">
+        <v>1102644291</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>745</v>
+        <v>314</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>850</v>
@@ -18764,16 +18855,16 @@
         <v>859</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F65">
-        <v>112</v>
-      </c>
-      <c r="G65" t="s">
-        <v>864</v>
+        <v>99</v>
+      </c>
+      <c r="G65">
+        <v>103</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
         <v>138</v>
@@ -18786,13 +18877,16 @@
       </c>
       <c r="L65" t="s">
         <v>138</v>
+      </c>
+      <c r="M65">
+        <v>10</v>
+      </c>
+      <c r="N65" t="s">
+        <v>847</v>
       </c>
       <c r="Q65" t="s">
         <v>848</v>
       </c>
-      <c r="R65" s="26" t="s">
-        <v>890</v>
-      </c>
       <c r="S65" s="26" t="s">
         <v>138</v>
       </c>
@@ -18801,32 +18895,29 @@
       </c>
       <c r="U65" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V65" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>1101568757</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C66" s="1" t="s">
+        <v>1205218011</v>
+      </c>
+      <c r="B66" t="s">
+        <v>801</v>
+      </c>
+      <c r="C66" t="s">
         <v>845</v>
       </c>
       <c r="D66" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F66">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="G66">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="H66">
         <v>15</v>
@@ -18835,7 +18926,7 @@
         <v>138</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="K66" t="s">
         <v>138</v>
@@ -18844,7 +18935,7 @@
         <v>138</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N66" t="s">
         <v>847</v>
@@ -18853,7 +18944,7 @@
         <v>848</v>
       </c>
       <c r="R66" s="26" t="s">
-        <v>892</v>
+        <v>178</v>
       </c>
       <c r="S66" s="26" t="s">
         <v>138</v>
@@ -18861,34 +18952,28 @@
       <c r="T66" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="U66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V66" t="s">
-        <v>893</v>
-      </c>
     </row>
     <row r="67" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A67" s="38">
-        <v>1401645430</v>
+      <c r="A67" s="2">
+        <v>1009103377</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>757</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D67" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E67">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>107</v>
       </c>
       <c r="G67">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H67">
         <v>15</v>
@@ -18906,7 +18991,7 @@
         <v>138</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N67" t="s">
         <v>847</v>
@@ -18914,40 +18999,40 @@
       <c r="Q67" t="s">
         <v>848</v>
       </c>
-      <c r="R67" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="S67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T67" s="26" t="s">
+      <c r="S67" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T67" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U67" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V67" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
-        <v>1002234563</v>
-      </c>
-      <c r="C68" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1001694549</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D68" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E68">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F68">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="G68">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="H68">
         <v>15</v>
@@ -18959,13 +19044,13 @@
         <v>138</v>
       </c>
       <c r="K68" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L68" t="s">
         <v>138</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N68" t="s">
         <v>847</v>
@@ -18973,37 +19058,35 @@
       <c r="Q68" t="s">
         <v>848</v>
       </c>
-      <c r="R68" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="S68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T68" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U68" s="26" t="s">
-        <v>138</v>
-      </c>
+      <c r="S68" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T68" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U68" s="42"/>
     </row>
     <row r="69" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="38">
-        <v>1004993792</v>
-      </c>
-      <c r="C69" t="s">
-        <v>845</v>
+      <c r="A69" s="2">
+        <v>1007329807</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D69" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E69">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F69">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="G69">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H69">
         <v>15</v>
@@ -19015,60 +19098,60 @@
         <v>138</v>
       </c>
       <c r="K69" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L69" t="s">
         <v>138</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N69" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q69" t="s">
         <v>848</v>
       </c>
-      <c r="R69" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="S69" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T69" s="26" t="s">
+      <c r="R69" s="26" t="s">
+        <v>870</v>
+      </c>
+      <c r="S69" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T69" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U69" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V69" t="s">
-        <v>879</v>
-      </c>
     </row>
     <row r="70" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>1002316006</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="A70" s="38">
+        <v>1006139627</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D70" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E70">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F70">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G70">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H70">
         <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J70" t="s">
         <v>138</v>
@@ -19080,48 +19163,43 @@
         <v>138</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N70" t="s">
         <v>847</v>
       </c>
       <c r="Q70" t="s">
-        <v>852</v>
-      </c>
-      <c r="R70" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="S70" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T70" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U70" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V70" t="s">
-        <v>895</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="R70" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="S70" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T70" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U70" s="42"/>
     </row>
     <row r="71" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>1200230428</v>
+        <v>1205055292</v>
       </c>
       <c r="C71" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D71" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E71">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F71">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G71">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="H71">
         <v>15</v>
@@ -19139,7 +19217,7 @@
         <v>138</v>
       </c>
       <c r="M71">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N71" t="s">
         <v>847</v>
@@ -19148,7 +19226,7 @@
         <v>848</v>
       </c>
       <c r="R71" s="26" t="s">
-        <v>439</v>
+        <v>928</v>
       </c>
       <c r="S71" s="26" t="s">
         <v>138</v>
@@ -19158,32 +19236,32 @@
       </c>
       <c r="U71" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V71" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>1401210342</v>
-      </c>
-      <c r="C72" t="s">
+        <v>1401255084</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D72" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="E72">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F72">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="G72">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="H72">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
         <v>731</v>
@@ -19192,22 +19270,22 @@
         <v>138</v>
       </c>
       <c r="K72" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L72" t="s">
         <v>138</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N72" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q72" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="R72" s="26" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="S72" s="26" t="s">
         <v>138</v>
@@ -19218,31 +19296,28 @@
       <c r="U72" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V72" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>1102295028</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>333</v>
+        <v>1401129153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>797</v>
       </c>
       <c r="C73" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D73" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E73">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F73">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G73">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="H73">
         <v>15</v>
@@ -19260,16 +19335,16 @@
         <v>138</v>
       </c>
       <c r="M73">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N73" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q73" t="s">
         <v>848</v>
       </c>
       <c r="R73" s="26" t="s">
-        <v>897</v>
+        <v>313</v>
       </c>
       <c r="S73" s="26" t="s">
         <v>138</v>
@@ -19277,31 +19352,25 @@
       <c r="T73" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="U73" s="26" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="74" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <v>1005149298</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>407</v>
+      <c r="A74" s="38">
+        <v>1002234563</v>
       </c>
       <c r="C74" t="s">
         <v>845</v>
       </c>
       <c r="D74" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E74">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="F74">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G74">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="H74">
         <v>15</v>
@@ -19319,16 +19388,16 @@
         <v>138</v>
       </c>
       <c r="M74">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N74" t="s">
         <v>847</v>
       </c>
       <c r="Q74" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="R74" s="26" t="s">
-        <v>898</v>
+        <v>431</v>
       </c>
       <c r="S74" s="26" t="s">
         <v>138</v>
@@ -19337,33 +19406,27 @@
         <v>138</v>
       </c>
       <c r="U74" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V74" t="s">
-        <v>899</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>1203506199</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>415</v>
+        <v>1102881845</v>
       </c>
       <c r="C75" t="s">
         <v>845</v>
       </c>
       <c r="D75" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F75">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G75">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H75">
         <v>15</v>
@@ -19381,17 +19444,14 @@
         <v>138</v>
       </c>
       <c r="M75">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N75" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q75" t="s">
         <v>848</v>
       </c>
-      <c r="R75" s="26" t="s">
-        <v>414</v>
-      </c>
       <c r="S75" s="26" t="s">
         <v>138</v>
       </c>
@@ -19402,28 +19462,27 @@
         <v>138</v>
       </c>
       <c r="V75" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>1401311288</v>
-      </c>
-      <c r="B76" s="1"/>
+        <v>1400105541</v>
+      </c>
       <c r="C76" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D76" t="s">
         <v>860</v>
       </c>
       <c r="E76">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="F76">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="G76">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H76">
         <v>15</v>
@@ -19441,7 +19500,7 @@
         <v>138</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N76" t="s">
         <v>847</v>
@@ -19461,31 +19520,37 @@
       <c r="U76" s="26" t="s">
         <v>138</v>
       </c>
+      <c r="V76" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="77" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>1400105541</v>
-      </c>
-      <c r="C77" t="s">
-        <v>850</v>
+        <v>1008550250</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D77" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="E77">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F77">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G77">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="H77">
         <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
         <v>138</v>
@@ -19497,16 +19562,16 @@
         <v>138</v>
       </c>
       <c r="M77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q77" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="R77" s="26" t="s">
-        <v>861</v>
+        <v>178</v>
       </c>
       <c r="S77" s="26" t="s">
         <v>138</v>
@@ -19518,89 +19583,92 @@
         <v>138</v>
       </c>
       <c r="V77" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>1401316516</v>
+        <v>1401210342</v>
       </c>
       <c r="C78" t="s">
         <v>850</v>
       </c>
       <c r="D78" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E78">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F78">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="G78">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="H78">
+        <v>10</v>
+      </c>
+      <c r="I78" t="s">
+        <v>731</v>
+      </c>
+      <c r="J78" t="s">
+        <v>138</v>
+      </c>
+      <c r="K78" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" t="s">
+        <v>138</v>
+      </c>
+      <c r="M78">
+        <v>6</v>
+      </c>
+      <c r="N78" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>852</v>
+      </c>
+      <c r="R78" s="26" t="s">
+        <v>895</v>
+      </c>
+      <c r="S78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V78" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>1103414115</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D79" t="s">
+        <v>855</v>
+      </c>
+      <c r="E79">
+        <v>24</v>
+      </c>
+      <c r="F79">
+        <v>106</v>
+      </c>
+      <c r="G79">
+        <v>117</v>
+      </c>
+      <c r="H79">
         <v>15</v>
-      </c>
-      <c r="I78" t="s">
-        <v>138</v>
-      </c>
-      <c r="J78" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" t="s">
-        <v>731</v>
-      </c>
-      <c r="L78" t="s">
-        <v>138</v>
-      </c>
-      <c r="M78">
-        <v>11</v>
-      </c>
-      <c r="N78" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>848</v>
-      </c>
-      <c r="R78" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="S78" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T78" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U78" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V78" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
-        <v>1101619038</v>
-      </c>
-      <c r="C79" t="s">
-        <v>850</v>
-      </c>
-      <c r="D79" t="s">
-        <v>857</v>
-      </c>
-      <c r="E79">
-        <v>30</v>
-      </c>
-      <c r="F79">
-        <v>89</v>
-      </c>
-      <c r="G79">
-        <v>181</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
       </c>
       <c r="I79" t="s">
         <v>731</v>
@@ -19615,48 +19683,48 @@
         <v>138</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N79" t="s">
         <v>847</v>
       </c>
       <c r="Q79" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R79" s="26" t="s">
-        <v>902</v>
+        <v>219</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="T79" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="U79" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V79" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="48" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
-        <v>1009612218</v>
+        <v>138</v>
+      </c>
+      <c r="V79" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>1009368877</v>
       </c>
       <c r="C80" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D80" t="s">
         <v>855</v>
       </c>
       <c r="E80">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F80">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="G80">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="H80">
         <v>15</v>
@@ -19667,52 +19735,49 @@
       <c r="J80" t="s">
         <v>138</v>
       </c>
+      <c r="K80" t="s">
+        <v>731</v>
+      </c>
       <c r="L80" t="s">
         <v>138</v>
       </c>
       <c r="M80">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N80" t="s">
         <v>847</v>
       </c>
       <c r="Q80" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R80" s="26" t="s">
-        <v>903</v>
-      </c>
-      <c r="S80" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="T80" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="U80" s="26" t="s">
-        <v>731</v>
+        <v>904</v>
       </c>
       <c r="V80" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>1009368877</v>
-      </c>
-      <c r="C81" t="s">
-        <v>845</v>
+        <v>1400587005</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D81" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E81">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F81">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="G81">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="H81">
         <v>15</v>
@@ -19730,7 +19795,7 @@
         <v>138</v>
       </c>
       <c r="M81">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N81" t="s">
         <v>847</v>
@@ -19738,31 +19803,34 @@
       <c r="Q81" t="s">
         <v>852</v>
       </c>
-      <c r="R81" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="V81" t="s">
-        <v>879</v>
+      <c r="S81" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T81" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U81" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
-        <v>1401325082</v>
+      <c r="A82" s="2">
+        <v>1400161166</v>
       </c>
       <c r="C82" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D82" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E82">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F82">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="G82">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H82">
         <v>15</v>
@@ -19774,107 +19842,110 @@
         <v>138</v>
       </c>
       <c r="K82" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L82" t="s">
         <v>138</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N82" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q82" t="s">
         <v>852</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="S82" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T82" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U82" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>1102188394</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D83" t="s">
+        <v>857</v>
+      </c>
+      <c r="E83">
+        <v>34</v>
+      </c>
+      <c r="F83">
+        <v>132</v>
+      </c>
+      <c r="G83">
+        <v>110</v>
+      </c>
+      <c r="H83">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>138</v>
+      </c>
+      <c r="J83" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" t="s">
+        <v>731</v>
+      </c>
+      <c r="L83" t="s">
+        <v>138</v>
+      </c>
+      <c r="M83">
+        <v>13</v>
+      </c>
+      <c r="N83" t="s">
         <v>847</v>
       </c>
-      <c r="R82" s="26" t="s">
-        <v>906</v>
-      </c>
-      <c r="S82" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T82" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U82" s="49" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>1203506199</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="Q83" t="s">
+        <v>852</v>
+      </c>
+      <c r="S83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V83" s="26" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>1401208505</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D83" t="s">
-        <v>862</v>
-      </c>
-      <c r="E83">
-        <v>12</v>
-      </c>
-      <c r="F83">
-        <v>97</v>
-      </c>
-      <c r="G83">
-        <v>127</v>
-      </c>
-      <c r="H83">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>138</v>
-      </c>
-      <c r="J83" t="s">
-        <v>138</v>
-      </c>
-      <c r="K83" t="s">
-        <v>138</v>
-      </c>
-      <c r="L83" t="s">
-        <v>138</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83" t="s">
-        <v>852</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>848</v>
-      </c>
-      <c r="R83" s="26" t="s">
-        <v>907</v>
-      </c>
-      <c r="S83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V83" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>1400041383</v>
-      </c>
-      <c r="C84" t="s">
-        <v>850</v>
-      </c>
       <c r="D84" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F84">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="G84">
         <v>119</v>
@@ -19889,22 +19960,19 @@
         <v>138</v>
       </c>
       <c r="K84" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L84" t="s">
         <v>138</v>
       </c>
       <c r="M84">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N84" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q84" t="s">
-        <v>848</v>
-      </c>
-      <c r="R84" s="26" t="s">
-        <v>908</v>
+        <v>852</v>
       </c>
       <c r="S84" s="26" t="s">
         <v>138</v>
@@ -19916,24 +19984,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>1401332618</v>
+        <v>1400394345</v>
       </c>
       <c r="C85" t="s">
-        <v>909</v>
+        <v>850</v>
       </c>
       <c r="D85" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E85">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F85">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G85">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H85">
         <v>15</v>
@@ -19951,16 +20019,16 @@
         <v>138</v>
       </c>
       <c r="M85">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N85" t="s">
         <v>847</v>
       </c>
       <c r="Q85" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="R85" s="26" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
       <c r="S85" s="26" t="s">
         <v>138</v>
@@ -19970,85 +20038,85 @@
       </c>
       <c r="U85" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V85" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>1003435007</v>
-      </c>
-      <c r="C86" t="s">
+        <v>1006702172</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D86" t="s">
+        <v>862</v>
+      </c>
+      <c r="E86">
+        <v>47</v>
+      </c>
+      <c r="F86">
+        <v>98</v>
+      </c>
+      <c r="G86">
+        <v>134</v>
+      </c>
+      <c r="H86">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" t="s">
+        <v>138</v>
+      </c>
+      <c r="L86" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86">
+        <v>13</v>
+      </c>
+      <c r="N86" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>852</v>
+      </c>
+      <c r="S86" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T86" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U86" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>1401215589</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="D86" t="s">
-        <v>846</v>
-      </c>
-      <c r="E86">
-        <v>24</v>
-      </c>
-      <c r="F86">
-        <v>73</v>
-      </c>
-      <c r="G86">
-        <v>131</v>
-      </c>
-      <c r="H86">
-        <v>15</v>
-      </c>
-      <c r="I86" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" t="s">
-        <v>138</v>
-      </c>
-      <c r="L86" t="s">
-        <v>138</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>852</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>848</v>
-      </c>
-      <c r="R86" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="S86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T86" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U86" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>1400161166</v>
-      </c>
-      <c r="C87" t="s">
-        <v>845</v>
       </c>
       <c r="D87" t="s">
         <v>854</v>
       </c>
       <c r="E87">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F87">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="G87">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H87">
         <v>15</v>
@@ -20057,16 +20125,16 @@
         <v>138</v>
       </c>
       <c r="J87" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="K87" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L87" t="s">
         <v>138</v>
       </c>
       <c r="M87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N87" t="s">
         <v>847</v>
@@ -20074,9 +20142,6 @@
       <c r="Q87" t="s">
         <v>852</v>
       </c>
-      <c r="R87" s="26" t="s">
-        <v>912</v>
-      </c>
       <c r="S87" s="26" t="s">
         <v>138</v>
       </c>
@@ -20086,25 +20151,31 @@
       <c r="U87" s="26" t="s">
         <v>138</v>
       </c>
+      <c r="V87" s="26" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="88" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>1007340188</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="A88" s="1">
+        <v>1002805912</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D88" t="s">
         <v>854</v>
       </c>
       <c r="E88">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F88">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="G88">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="H88">
         <v>15</v>
@@ -20122,16 +20193,13 @@
         <v>138</v>
       </c>
       <c r="M88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88" t="s">
         <v>852</v>
       </c>
       <c r="Q88" t="s">
-        <v>848</v>
-      </c>
-      <c r="R88" s="26" t="s">
-        <v>913</v>
+        <v>852</v>
       </c>
       <c r="S88" s="26" t="s">
         <v>138</v>
@@ -20141,35 +20209,35 @@
       </c>
       <c r="U88" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V88" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>1401359722</v>
-      </c>
-      <c r="C89" t="s">
-        <v>850</v>
+        <v>1100404076</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D89" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E89">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F89">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="G89">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J89" t="s">
         <v>138</v>
@@ -20181,54 +20249,48 @@
         <v>138</v>
       </c>
       <c r="M89">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N89" t="s">
         <v>847</v>
       </c>
       <c r="Q89" t="s">
-        <v>847</v>
-      </c>
-      <c r="R89" s="26" t="s">
-        <v>914</v>
-      </c>
-      <c r="S89" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="T89" s="26" t="s">
-        <v>731</v>
+        <v>852</v>
+      </c>
+      <c r="S89" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T89" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="U89" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V89" t="s">
-        <v>887</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>1401369977</v>
+        <v>1003297212</v>
       </c>
       <c r="C90" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D90" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E90">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F90">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G90">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H90">
         <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J90" t="s">
         <v>138</v>
@@ -20240,45 +20302,48 @@
         <v>138</v>
       </c>
       <c r="M90">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N90" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q90" t="s">
         <v>852</v>
       </c>
-      <c r="Q90" t="s">
-        <v>847</v>
-      </c>
       <c r="R90" s="26" t="s">
-        <v>914</v>
-      </c>
-      <c r="S90" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T90" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U90" s="49" t="s">
-        <v>986</v>
+        <v>927</v>
+      </c>
+      <c r="S90" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T90" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U90" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V90" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>1401369968</v>
+        <v>1002316006</v>
       </c>
       <c r="C91" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D91" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F91">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G91">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H91">
         <v>15</v>
@@ -20296,213 +20361,231 @@
         <v>138</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N91" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q91" t="s">
         <v>852</v>
       </c>
-      <c r="Q91" t="s">
-        <v>847</v>
-      </c>
-      <c r="R91" s="26" t="s">
-        <v>914</v>
-      </c>
-      <c r="S91" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T91" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U91" s="49" t="s">
-        <v>986</v>
+      <c r="R91" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="S91" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T91" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U91" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V91" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>1401369966</v>
-      </c>
-      <c r="C92" t="s">
+        <v>1000053365</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D92" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E92">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F92">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G92">
         <v>115</v>
       </c>
       <c r="H92">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+      <c r="K92" t="s">
+        <v>138</v>
+      </c>
+      <c r="L92" t="s">
+        <v>138</v>
+      </c>
+      <c r="M92">
+        <v>10</v>
+      </c>
+      <c r="N92" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>852</v>
+      </c>
+      <c r="S92" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T92" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U92" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V92" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>1401622561</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D93" t="s">
+        <v>857</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>120</v>
+      </c>
+      <c r="G93">
+        <v>67</v>
+      </c>
+      <c r="H93">
+        <v>9</v>
+      </c>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" t="s">
+        <v>138</v>
+      </c>
+      <c r="L93" t="s">
+        <v>138</v>
+      </c>
+      <c r="M93">
+        <v>16</v>
+      </c>
+      <c r="N93" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>847</v>
+      </c>
+      <c r="R93" s="26" t="s">
+        <v>879</v>
+      </c>
+      <c r="S93" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T93" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U93" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V93" s="26" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>1401374927</v>
+      </c>
+      <c r="C94" t="s">
+        <v>850</v>
+      </c>
+      <c r="D94" t="s">
+        <v>862</v>
+      </c>
+      <c r="E94">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>109</v>
+      </c>
+      <c r="G94">
+        <v>120</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>138</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" t="s">
         <v>731</v>
       </c>
-      <c r="J92" t="s">
-        <v>138</v>
-      </c>
-      <c r="K92" t="s">
-        <v>138</v>
-      </c>
-      <c r="L92" t="s">
-        <v>138</v>
-      </c>
-      <c r="M92">
-        <v>3</v>
-      </c>
-      <c r="N92" t="s">
-        <v>852</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>848</v>
-      </c>
-      <c r="R92" s="26" t="s">
-        <v>914</v>
-      </c>
-      <c r="S92" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T92" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U92" s="49" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>1008177567</v>
-      </c>
-      <c r="C93" t="s">
-        <v>845</v>
-      </c>
-      <c r="D93" t="s">
-        <v>862</v>
-      </c>
-      <c r="E93">
-        <v>16</v>
-      </c>
-      <c r="F93">
-        <v>94</v>
-      </c>
-      <c r="G93">
-        <v>119</v>
-      </c>
-      <c r="H93">
-        <v>15</v>
-      </c>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-      <c r="J93" t="s">
-        <v>138</v>
-      </c>
-      <c r="K93" t="s">
-        <v>138</v>
-      </c>
-      <c r="L93" t="s">
-        <v>138</v>
-      </c>
-      <c r="M93">
-        <v>5</v>
-      </c>
-      <c r="N93" t="s">
-        <v>852</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>848</v>
-      </c>
-      <c r="R93" s="26" t="s">
-        <v>915</v>
-      </c>
-      <c r="S93" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T93" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U93" s="49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>1005430532</v>
-      </c>
-      <c r="C94" t="s">
-        <v>845</v>
-      </c>
-      <c r="D94" t="s">
-        <v>854</v>
-      </c>
-      <c r="E94">
-        <v>40</v>
-      </c>
-      <c r="F94">
-        <v>78</v>
-      </c>
-      <c r="G94">
-        <v>123</v>
-      </c>
-      <c r="H94">
-        <v>15</v>
-      </c>
-      <c r="I94" t="s">
-        <v>138</v>
-      </c>
-      <c r="J94" t="s">
-        <v>138</v>
-      </c>
-      <c r="K94" t="s">
-        <v>138</v>
-      </c>
       <c r="L94" t="s">
         <v>138</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N94" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q94" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R94" s="26" t="s">
-        <v>916</v>
-      </c>
-      <c r="S94" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T94" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U94" s="49" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+        <v>919</v>
+      </c>
+      <c r="S94" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T94" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U94" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V94" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>1010313203</v>
+        <v>1400059656</v>
+      </c>
+      <c r="B95" t="s">
+        <v>784</v>
       </c>
       <c r="C95" t="s">
         <v>845</v>
       </c>
       <c r="D95" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E95">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F95">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G95">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H95">
         <v>15</v>
@@ -20514,60 +20597,60 @@
         <v>138</v>
       </c>
       <c r="K95" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L95" t="s">
         <v>138</v>
       </c>
       <c r="M95">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N95" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q95" t="s">
         <v>847</v>
       </c>
-      <c r="Q95" t="s">
-        <v>848</v>
-      </c>
       <c r="R95" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="S95" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T95" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U95" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V95" t="s">
-        <v>879</v>
+        <v>178</v>
+      </c>
+      <c r="S95" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T95" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U95" s="26" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>1401315092</v>
-      </c>
-      <c r="C96" t="s">
+        <v>1400775825</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D96" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E96">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F96">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G96">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H96">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J96" t="s">
         <v>138</v>
@@ -20579,48 +20662,54 @@
         <v>138</v>
       </c>
       <c r="M96">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N96" t="s">
         <v>847</v>
       </c>
       <c r="Q96" t="s">
-        <v>848</v>
-      </c>
-      <c r="S96" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T96" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U96" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V96" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+      <c r="R96" s="26" t="s">
+        <v>876</v>
+      </c>
+      <c r="S96" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T96" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U96" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V96" s="26" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>1401373597</v>
+        <v>1401096023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D97" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E97">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F97">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="G97">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="H97">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
         <v>138</v>
@@ -20629,60 +20718,57 @@
         <v>138</v>
       </c>
       <c r="K97" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L97" t="s">
         <v>138</v>
       </c>
       <c r="M97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N97" t="s">
         <v>852</v>
       </c>
       <c r="Q97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R97" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="S97" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T97" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U97" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V97" t="s">
-        <v>879</v>
+        <v>858</v>
+      </c>
+      <c r="S97" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T97" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V97" s="26" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>1400877154</v>
+        <v>1401369977</v>
       </c>
       <c r="C98" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D98" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E98">
         <v>22</v>
       </c>
       <c r="F98">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="G98">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H98">
         <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J98" t="s">
         <v>138</v>
@@ -20694,51 +20780,48 @@
         <v>138</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N98" t="s">
         <v>852</v>
       </c>
       <c r="Q98" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R98" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="S98" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T98" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U98" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V98" t="s">
-        <v>879</v>
+        <v>913</v>
+      </c>
+      <c r="S98" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T98" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U98" s="42" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>1401374927</v>
+      <c r="A99" s="1">
+        <v>1401325082</v>
       </c>
       <c r="C99" t="s">
         <v>850</v>
       </c>
       <c r="D99" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E99">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F99">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="G99">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
         <v>138</v>
@@ -20747,60 +20830,60 @@
         <v>138</v>
       </c>
       <c r="K99" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s">
         <v>138</v>
       </c>
       <c r="M99">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q99" t="s">
         <v>847</v>
       </c>
       <c r="R99" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="S99" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T99" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U99" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V99" t="s">
-        <v>921</v>
+        <v>905</v>
+      </c>
+      <c r="S99" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T99" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U99" s="42" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>1205450202</v>
-      </c>
-      <c r="C100" t="s">
-        <v>845</v>
+        <v>1002666748</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D100" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E100">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F100">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="G100">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J100" t="s">
         <v>138</v>
@@ -20812,54 +20895,54 @@
         <v>138</v>
       </c>
       <c r="M100">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N100" t="s">
         <v>847</v>
       </c>
       <c r="Q100" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R100" s="26" t="s">
-        <v>922</v>
-      </c>
-      <c r="S100" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T100" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U100" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V100" s="49" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>733</v>
+      </c>
+      <c r="S100" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T100" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U100" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V100" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>1401380766</v>
+        <v>1401359722</v>
       </c>
       <c r="C101" t="s">
         <v>850</v>
       </c>
       <c r="D101" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E101">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F101">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G101">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J101" t="s">
         <v>138</v>
@@ -20871,48 +20954,54 @@
         <v>138</v>
       </c>
       <c r="M101">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N101" t="s">
         <v>847</v>
       </c>
       <c r="Q101" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R101" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="S101" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T101" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U101" s="49" t="s">
-        <v>138</v>
+        <v>913</v>
+      </c>
+      <c r="S101" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="T101" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="U101" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V101" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>1010017969</v>
-      </c>
-      <c r="C102" t="s">
+        <v>1401249635</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D102" t="s">
-        <v>851</v>
+        <v>862</v>
       </c>
       <c r="E102">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F102">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G102">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I102" t="s">
         <v>138</v>
@@ -20927,92 +21016,89 @@
         <v>138</v>
       </c>
       <c r="M102">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N102" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q102" t="s">
         <v>847</v>
       </c>
       <c r="R102" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="S102" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T102" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U102" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V102" s="49" t="s">
-        <v>1002</v>
+        <v>882</v>
+      </c>
+      <c r="S102" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="T102" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U102" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V102" s="26" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>1401382217</v>
+        <v>1401369968</v>
       </c>
       <c r="C103" t="s">
         <v>850</v>
       </c>
       <c r="D103" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E103">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F103">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G103">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="H103">
         <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J103" t="s">
         <v>138</v>
       </c>
       <c r="K103" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L103" t="s">
         <v>138</v>
       </c>
       <c r="M103">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N103" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q103" t="s">
         <v>847</v>
       </c>
-      <c r="Q103" t="s">
-        <v>848</v>
-      </c>
       <c r="R103" s="26" t="s">
-        <v>924</v>
-      </c>
-      <c r="S103" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="T103" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="U103" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="V103" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>1401381886</v>
+        <v>913</v>
+      </c>
+      <c r="S103" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T103" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U103" s="42" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>1101619038</v>
       </c>
       <c r="C104" t="s">
         <v>850</v>
@@ -21021,16 +21107,16 @@
         <v>857</v>
       </c>
       <c r="E104">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F104">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G104">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I104" t="s">
         <v>731</v>
@@ -21039,13 +21125,13 @@
         <v>138</v>
       </c>
       <c r="K104" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L104" t="s">
         <v>138</v>
       </c>
       <c r="M104">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N104" t="s">
         <v>847</v>
@@ -21054,39 +21140,42 @@
         <v>847</v>
       </c>
       <c r="R104" s="26" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="S104" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="T104" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="U104" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V104" s="26" t="s">
-        <v>1001</v>
+      <c r="V104" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>1400712166</v>
+      <c r="A105" s="1">
+        <v>1005149298</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C105" t="s">
         <v>845</v>
       </c>
       <c r="D105" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="E105">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F105">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G105">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="H105">
         <v>15</v>
@@ -21104,16 +21193,16 @@
         <v>138</v>
       </c>
       <c r="M105">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N105" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q105" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R105" s="26" t="s">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="S105" s="26" t="s">
         <v>138</v>
@@ -21122,30 +21211,33 @@
         <v>138</v>
       </c>
       <c r="U105" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="V105" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>1400394345</v>
-      </c>
-      <c r="C106" t="s">
+        <v>1401281866</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D106" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E106">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F106">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="G106">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H106">
         <v>15</v>
@@ -21157,22 +21249,22 @@
         <v>138</v>
       </c>
       <c r="K106" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L106" t="s">
         <v>138</v>
       </c>
       <c r="M106">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N106" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q106" t="s">
         <v>847</v>
       </c>
-      <c r="Q106" t="s">
-        <v>852</v>
-      </c>
       <c r="R106" s="26" t="s">
-        <v>927</v>
+        <v>178</v>
       </c>
       <c r="S106" s="26" t="s">
         <v>138</v>
@@ -21181,27 +21273,30 @@
         <v>138</v>
       </c>
       <c r="U106" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>1003297212</v>
-      </c>
-      <c r="C107" t="s">
-        <v>845</v>
+        <v>1102416341</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D107" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E107">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F107">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G107">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H107">
         <v>15</v>
@@ -21219,48 +21314,45 @@
         <v>138</v>
       </c>
       <c r="M107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N107" t="s">
         <v>847</v>
       </c>
       <c r="Q107" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R107" s="26" t="s">
-        <v>928</v>
-      </c>
-      <c r="S107" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T107" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="S107" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T107" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U107" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V107" t="s">
-        <v>879</v>
+        <v>985</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>1102881845</v>
+        <v>1010017969</v>
       </c>
       <c r="C108" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D108" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E108">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F108">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="G108">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="H108">
         <v>15</v>
@@ -21272,57 +21364,60 @@
         <v>138</v>
       </c>
       <c r="K108" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L108" t="s">
         <v>138</v>
       </c>
       <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>847</v>
+      </c>
+      <c r="R108" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="S108" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T108" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U108" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V108" s="42" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>1401381886</v>
+      </c>
+      <c r="C109" t="s">
+        <v>850</v>
+      </c>
+      <c r="D109" t="s">
+        <v>857</v>
+      </c>
+      <c r="E109">
+        <v>42</v>
+      </c>
+      <c r="F109">
+        <v>81</v>
+      </c>
+      <c r="G109">
+        <v>118</v>
+      </c>
+      <c r="H109">
         <v>13</v>
       </c>
-      <c r="N108" t="s">
-        <v>847</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>848</v>
-      </c>
-      <c r="S108" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T108" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U108" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V108" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>1205055292</v>
-      </c>
-      <c r="C109" t="s">
-        <v>845</v>
-      </c>
-      <c r="D109" t="s">
-        <v>854</v>
-      </c>
-      <c r="E109">
-        <v>66</v>
-      </c>
-      <c r="F109">
-        <v>69</v>
-      </c>
-      <c r="G109">
-        <v>91</v>
-      </c>
-      <c r="H109">
-        <v>15</v>
-      </c>
       <c r="I109" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J109" t="s">
         <v>138</v>
@@ -21334,16 +21429,16 @@
         <v>138</v>
       </c>
       <c r="M109">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N109" t="s">
         <v>847</v>
       </c>
       <c r="Q109" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R109" s="26" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="S109" s="26" t="s">
         <v>138</v>
@@ -21352,27 +21447,33 @@
         <v>138</v>
       </c>
       <c r="U109" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
+      </c>
+      <c r="V109" s="26" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>1100869636</v>
-      </c>
-      <c r="C110" t="s">
+        <v>1011109895</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D110" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E110">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F110">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G110">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="H110">
         <v>15</v>
@@ -21384,169 +21485,178 @@
         <v>138</v>
       </c>
       <c r="K110" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L110" t="s">
         <v>138</v>
       </c>
       <c r="M110">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N110" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Q110" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R110" s="26" t="s">
-        <v>930</v>
-      </c>
-      <c r="S110" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T110" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="S110" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T110" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U110" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="V110" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>1203342736</v>
+        <v>1401141829</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
       </c>
       <c r="C111" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D111" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E111">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F111">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="G111">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="H111">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J111" t="s">
         <v>138</v>
       </c>
       <c r="K111" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L111" t="s">
         <v>138</v>
       </c>
       <c r="M111">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="N111" t="s">
         <v>847</v>
       </c>
       <c r="Q111" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R111" s="26" t="s">
-        <v>931</v>
-      </c>
-      <c r="S111" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="T111" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U111" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V111" t="s">
-        <v>879</v>
+        <v>866</v>
+      </c>
+      <c r="S111" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="T111" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U111" s="42" t="s">
+        <v>731</v>
+      </c>
+      <c r="V111" s="42" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>1401393822</v>
+      <c r="A112" s="1">
+        <v>1009612218</v>
       </c>
       <c r="C112" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D112" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F112">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="G112">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="H112">
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J112" t="s">
         <v>138</v>
       </c>
-      <c r="K112" t="s">
-        <v>731</v>
-      </c>
       <c r="L112" t="s">
         <v>138</v>
       </c>
       <c r="M112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N112" t="s">
         <v>847</v>
       </c>
       <c r="Q112" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R112" s="26" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="S112" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="T112" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="U112" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="2">
-        <v>1401393820</v>
-      </c>
-      <c r="C113" t="s">
-        <v>850</v>
+        <v>731</v>
+      </c>
+      <c r="V112" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A113" s="38">
+        <v>1010033242</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D113" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="F113">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G113">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H113">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I113" t="s">
         <v>731</v>
@@ -21555,22 +21665,22 @@
         <v>138</v>
       </c>
       <c r="K113" t="s">
+        <v>138</v>
+      </c>
+      <c r="L113" t="s">
         <v>731</v>
       </c>
-      <c r="L113" t="s">
-        <v>138</v>
-      </c>
       <c r="M113">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N113" t="s">
         <v>847</v>
       </c>
       <c r="Q113" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R113" s="26" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
       <c r="S113" s="26" t="s">
         <v>138</v>
@@ -21579,52 +21689,55 @@
         <v>138</v>
       </c>
       <c r="U113" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="V113" s="26" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -22651,6 +22764,11 @@
       <c r="A469" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X472">
+    <sortCondition ref="Q2:Q472"/>
+    <sortCondition ref="E2:E472"/>
+    <sortCondition ref="N2:N472"/>
+  </sortState>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="102" priority="106"/>
   </conditionalFormatting>
@@ -22977,6 +23095,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230CE0AA-2CB9-774A-BCBE-A874407B9B9A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C8B3A6-798B-43F8-B6F4-73A4A0E5381E}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -23011,13 +23141,13 @@
         <v>45026</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C2" s="24">
         <v>1205351623</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -23025,13 +23155,13 @@
         <v>45026</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C3" s="24">
         <v>1400844846</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -23039,13 +23169,13 @@
         <v>45027</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C4" s="24">
         <v>1100584785</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="24" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -23053,13 +23183,13 @@
         <v>45027</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C5" s="24">
         <v>1401175674</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -23067,7 +23197,7 @@
         <v>45027</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C6" s="24">
         <v>1007731399</v>
@@ -23078,7 +23208,7 @@
         <v>45027</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C7" s="24">
         <v>1401178427</v>
@@ -23089,7 +23219,7 @@
         <v>45028</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C8" s="24">
         <v>1000422530</v>
@@ -23100,7 +23230,7 @@
         <v>45028</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C9" s="24">
         <v>1203455978</v>
@@ -23111,7 +23241,7 @@
         <v>45028</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C10" s="24">
         <v>1401179331</v>
@@ -23122,7 +23252,7 @@
         <v>45028</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C11" s="24">
         <v>1008038019</v>
@@ -23133,7 +23263,7 @@
         <v>45030</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C12" s="24">
         <v>1102776593</v>
@@ -23144,7 +23274,7 @@
         <v>45031</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C13" s="24">
         <v>1401183624</v>
@@ -23155,13 +23285,13 @@
         <v>45033</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C14" s="24">
         <v>1006922086</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -23169,7 +23299,7 @@
         <v>45034</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C15" s="24">
         <v>1007133642</v>
@@ -23181,7 +23311,7 @@
         <v>45034</v>
       </c>
       <c r="B16" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C16">
         <v>1007930850</v>
@@ -23192,7 +23322,7 @@
         <v>45037</v>
       </c>
       <c r="B17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C17">
         <v>1401187351</v>
@@ -23203,7 +23333,7 @@
         <v>45038</v>
       </c>
       <c r="B18" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C18">
         <v>1201324361</v>
@@ -23214,13 +23344,13 @@
         <v>45039</v>
       </c>
       <c r="B19" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C19">
         <v>1400432623</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23228,13 +23358,13 @@
         <v>45039</v>
       </c>
       <c r="B20" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C20">
         <v>1000565302</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23242,13 +23372,13 @@
         <v>45045</v>
       </c>
       <c r="B21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C21">
         <v>1203280315</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23256,13 +23386,13 @@
         <v>45045</v>
       </c>
       <c r="B22" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C22">
         <v>1010356971</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23270,13 +23400,13 @@
         <v>45046</v>
       </c>
       <c r="B23" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C23">
         <v>1101654813</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23284,13 +23414,13 @@
         <v>45046</v>
       </c>
       <c r="B24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C24">
         <v>1401201782</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -23298,13 +23428,13 @@
         <v>45047</v>
       </c>
       <c r="B25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C25">
         <v>1006067284</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -23312,13 +23442,13 @@
         <v>45049</v>
       </c>
       <c r="B26" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C26">
         <v>1401011614</v>
       </c>
       <c r="D26" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -23326,13 +23456,13 @@
         <v>45051</v>
       </c>
       <c r="B27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C27">
         <v>1010489188</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23340,13 +23470,13 @@
         <v>45052</v>
       </c>
       <c r="B28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C28">
         <v>1400316000</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23354,13 +23484,13 @@
         <v>45053</v>
       </c>
       <c r="B29" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C29">
         <v>1400163746</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23368,13 +23498,13 @@
         <v>45071</v>
       </c>
       <c r="B30" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C30">
         <v>1401210629</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23382,13 +23512,13 @@
         <v>45076</v>
       </c>
       <c r="B31" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C31">
         <v>1400486325</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23402,7 +23532,7 @@
         <v>1102644291</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
@@ -23410,13 +23540,13 @@
         <v>45080</v>
       </c>
       <c r="B33" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C33">
         <v>1400827203</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23424,13 +23554,13 @@
         <v>45085</v>
       </c>
       <c r="B34" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C34">
         <v>1010212925</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23438,13 +23568,13 @@
         <v>45095</v>
       </c>
       <c r="B35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C35">
         <v>1006906795</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -23452,13 +23582,13 @@
         <v>45097</v>
       </c>
       <c r="B36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C36">
         <v>1401311857</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -23466,13 +23596,13 @@
         <v>45099</v>
       </c>
       <c r="B37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C37">
         <v>1007515500</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23480,13 +23610,13 @@
         <v>45100</v>
       </c>
       <c r="B38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C38">
         <v>1400611805</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23494,13 +23624,13 @@
         <v>45101</v>
       </c>
       <c r="B39" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C39">
         <v>1401317998</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23508,13 +23638,13 @@
         <v>45110</v>
       </c>
       <c r="B40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C40">
         <v>1401073700</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23522,13 +23652,13 @@
         <v>45110</v>
       </c>
       <c r="B41" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C41">
         <v>1401327891</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -23536,13 +23666,13 @@
         <v>45111</v>
       </c>
       <c r="B42" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C42">
         <v>1203195479</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>

--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4551F7F1-36D2-E14F-A7FA-8B5CBE0DC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C145939-8E23-CF4F-9CE1-FE81B13E6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="33540" windowHeight="20020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1018">
   <si>
     <t>INTOXICATE Status</t>
   </si>
@@ -3081,6 +3081,39 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Optimized Predicted Disposition</t>
+  </si>
+  <si>
+    <t>Agreement</t>
+  </si>
+  <si>
+    <t>Original threshold</t>
+  </si>
+  <si>
+    <t>Not</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>ROC Optimized Threshold</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Peds</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3350,6 +3383,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4472,8 +4511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}" name="Table3" displayName="Table3" ref="AA2:AA10" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
-  <autoFilter ref="AA2:AA10" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}" name="Table3" displayName="Table3" ref="AB2:AB10" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+  <autoFilter ref="AB2:AB10" xr:uid="{45F0F697-1E04-4F46-82EE-39AA16786EEB}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AB316893-1109-4C39-948A-005BE9A21A5D}" name="Exposure Values" dataDxfId="104"/>
   </tableColumns>
@@ -14902,11 +14941,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25C0DBF-50F6-4E43-B81A-8EA8A04F8EC5}">
-  <dimension ref="A1:AG469"/>
+  <dimension ref="A1:AR469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N98" sqref="N98"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC38" sqref="AC38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14923,17 +14962,18 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.6640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="40.6640625" style="26" customWidth="1"/>
-    <col min="22" max="22" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="40.6640625" style="26" customWidth="1"/>
+    <col min="23" max="23" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
@@ -14974,41 +15014,44 @@
         <v>839</v>
       </c>
       <c r="N1" s="35" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O1" s="35" t="s">
         <v>840</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>994</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>995</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>841</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="41" t="s">
         <v>842</v>
       </c>
-      <c r="S1" s="41" t="s">
+      <c r="T1" s="41" t="s">
         <v>982</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="U1" s="41" t="s">
         <v>981</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>1002</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>843</v>
       </c>
-      <c r="W1" s="36"/>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="AB1" s="36"/>
+    </row>
+    <row r="2" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="38">
         <v>1401126371</v>
       </c>
@@ -15048,18 +15091,19 @@
       <c r="M2">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="str">
+        <f>IF($M2&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
+      </c>
+      <c r="O2" t="s">
         <v>852</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>848</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="S2" s="26" t="s">
         <v>887</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T2" s="26" t="s">
         <v>138</v>
       </c>
@@ -15067,16 +15111,19 @@
         <v>138</v>
       </c>
       <c r="V2" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>731</v>
       </c>
-      <c r="AA2" s="33" t="s">
+      <c r="AB2" s="33" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="38">
         <v>1400361697</v>
       </c>
@@ -15113,27 +15160,31 @@
       <c r="L3" t="s">
         <v>138</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N66" si="0">IF($M3&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
+      </c>
+      <c r="R3" t="s">
         <v>848</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="S3" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S3" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T3" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="Y3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA3" s="33" t="s">
+      <c r="U3" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="42"/>
+      <c r="Z3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB3" s="33" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>1401621668</v>
       </c>
@@ -15170,29 +15221,33 @@
       <c r="L4" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="R4" t="s">
         <v>848</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="S4" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="S4" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T4" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" t="s">
         <v>890</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AB4" s="33" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1400616084</v>
       </c>
@@ -15232,15 +15287,16 @@
       <c r="M5">
         <v>7</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O5" t="s">
         <v>847</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>848</v>
       </c>
-      <c r="S5" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T5" s="26" t="s">
         <v>138</v>
       </c>
@@ -15248,13 +15304,16 @@
         <v>138</v>
       </c>
       <c r="V5" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AB5" s="33" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1401393820</v>
       </c>
@@ -15291,29 +15350,33 @@
       <c r="M6">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O6" t="s">
         <v>847</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>848</v>
       </c>
-      <c r="R6" s="26" t="s">
+      <c r="S6" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="S6" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T6" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U6" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="V6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB6" s="33" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1401393822</v>
       </c>
@@ -15350,29 +15413,33 @@
       <c r="M7">
         <v>12</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O7" t="s">
         <v>847</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>848</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="S7" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="S7" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T7" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U7" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AA7" s="33" t="s">
+      <c r="V7" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB7" s="33" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1100869636</v>
       </c>
@@ -15409,29 +15476,33 @@
       <c r="M8">
         <v>4</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O8" t="s">
         <v>852</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>848</v>
       </c>
-      <c r="R8" s="26" t="s">
+      <c r="S8" s="26" t="s">
         <v>929</v>
       </c>
-      <c r="S8" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T8" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U8" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="V8" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB8" s="33" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1101578680</v>
       </c>
@@ -15471,32 +15542,36 @@
       <c r="M9">
         <v>13</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O9" t="s">
         <v>847</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>848</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="S9" s="26" t="s">
         <v>867</v>
       </c>
-      <c r="S9" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T9" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U9" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="U9" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W9" t="s">
         <v>991</v>
       </c>
-      <c r="AA9" s="33" t="s">
+      <c r="AB9" s="33" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1009826465</v>
       </c>
@@ -15536,29 +15611,33 @@
       <c r="M10">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O10" t="s">
         <v>852</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>848</v>
       </c>
-      <c r="R10" s="26" t="s">
+      <c r="S10" s="26" t="s">
         <v>883</v>
       </c>
-      <c r="S10" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T10" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U10" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AA10" s="33" t="s">
+      <c r="V10" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="33" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1203506199</v>
       </c>
@@ -15598,29 +15677,33 @@
       <c r="M11">
         <v>3</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O11" t="s">
         <v>852</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>848</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="S11" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T11" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U11" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W11" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1203506199</v>
       </c>
@@ -15657,29 +15740,33 @@
       <c r="M12">
         <v>5</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O12" t="s">
         <v>852</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>848</v>
       </c>
-      <c r="R12" s="26" t="s">
+      <c r="S12" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="S12" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T12" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U12" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1401332618</v>
       </c>
@@ -15716,29 +15803,33 @@
       <c r="M13">
         <v>10</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O13" t="s">
         <v>847</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>848</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="S13" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="S13" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T13" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U13" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V13" t="s">
+      <c r="V13" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W13" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1010313203</v>
       </c>
@@ -15775,29 +15866,33 @@
       <c r="M14">
         <v>12</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O14" t="s">
         <v>847</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>848</v>
       </c>
-      <c r="R14" s="26" t="s">
+      <c r="S14" s="26" t="s">
         <v>916</v>
       </c>
-      <c r="S14" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T14" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U14" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W14" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1009487000</v>
       </c>
@@ -15837,21 +15932,25 @@
       <c r="M15">
         <v>4</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O15" t="s">
         <v>852</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>848</v>
       </c>
-      <c r="S15" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="U15" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="42"/>
+    </row>
+    <row r="16" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1009024651</v>
       </c>
@@ -15891,26 +15990,30 @@
       <c r="M16">
         <v>11</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O16" t="s">
         <v>847</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>848</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="S16" s="26" t="s">
         <v>877</v>
       </c>
-      <c r="S16" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T16" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U16" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" ht="48" x14ac:dyDescent="0.2">
+      <c r="V16" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1203342736</v>
       </c>
@@ -15947,44 +16050,45 @@
       <c r="M17">
         <v>9</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O17" t="s">
         <v>847</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>848</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="S17" s="26" t="s">
         <v>930</v>
       </c>
-      <c r="S17" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T17" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U17" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V17" t="s">
+      <c r="V17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W17" t="s">
         <v>878</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="AB17" t="s">
         <v>868</v>
       </c>
-      <c r="AA17" t="s">
-        <v>868</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>1005</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>1004</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1008508665</v>
       </c>
@@ -16024,56 +16128,57 @@
       <c r="M18">
         <v>3</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O18" t="s">
         <v>852</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>848</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="S18" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S18" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T18" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U18" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="V18" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB18" t="s">
         <v>847</v>
       </c>
-      <c r="AA18" t="s">
-        <v>847</v>
-      </c>
-      <c r="AB18">
-        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q$2:$Q$115,$AA18)</f>
+      <c r="AC18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R$2:$R$115,$AB18)</f>
         <v>20</v>
       </c>
-      <c r="AC18">
-        <f>ROUND(100*AB18/AB$21,0)</f>
+      <c r="AD18">
+        <f>ROUND(100*AC18/AC$21,0)</f>
         <v>19</v>
       </c>
-      <c r="AD18">
-        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q2:$Q115,$AA18, $E$2:$E$115,"&lt;"&amp;18)</f>
+      <c r="AE18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R2:$R115,$AB18, $E$2:$E$115,"&lt;"&amp;18)</f>
         <v>4</v>
       </c>
-      <c r="AE18">
-        <f t="shared" ref="AE18:AE20" si="0">ROUND(100*AD18/AD$21,0)</f>
+      <c r="AF18">
+        <f t="shared" ref="AF18:AF20" si="1">ROUND(100*AE18/AE$21,0)</f>
         <v>17</v>
       </c>
-      <c r="AF18">
-        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$Q2:$Q115,$AA18)</f>
+      <c r="AG18">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$R2:$R115,$AB18)</f>
         <v>16</v>
       </c>
-      <c r="AG18">
-        <f t="shared" ref="AG18:AG20" si="1">ROUND(100*AF18/AF$21,0)</f>
+      <c r="AH18">
+        <f t="shared" ref="AH18:AH20" si="2">ROUND(100*AG18/AG$21,0)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1011109716</v>
       </c>
@@ -16113,56 +16218,57 @@
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O19" t="s">
         <v>852</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>848</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="S19" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="S19" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T19" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="V19" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB19" t="s">
         <v>852</v>
       </c>
-      <c r="AA19" t="s">
-        <v>852</v>
-      </c>
-      <c r="AB19">
-        <f t="shared" ref="AB19:AB20" si="2">COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q$2:$Q$115,$AA19)</f>
+      <c r="AC19">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R$2:$R$115,$AB19)</f>
         <v>16</v>
       </c>
-      <c r="AC19">
-        <f t="shared" ref="AC19:AC20" si="3">ROUND(100*AB19/AB$21,0)</f>
+      <c r="AD19">
+        <f t="shared" ref="AD19:AD20" si="3">ROUND(100*AC19/AC$21,0)</f>
         <v>16</v>
       </c>
-      <c r="AD19">
-        <f t="shared" ref="AC19:AD20" si="4">COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$Q3:$Q116,$AA19, $E$2:$E$115,"&lt;"&amp;18)</f>
+      <c r="AE19">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R3:$R116,$AB19, $E$2:$E$115,"&lt;"&amp;18)</f>
         <v>2</v>
       </c>
-      <c r="AE19">
-        <f t="shared" si="0"/>
+      <c r="AF19">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AF19">
-        <f t="shared" ref="AD19:AF20" si="5">COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$Q3:$Q116,$AA19)</f>
+      <c r="AG19">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$R3:$R116,$AB19)</f>
         <v>14</v>
       </c>
-      <c r="AG19">
-        <f t="shared" si="1"/>
+      <c r="AH19">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1401373597</v>
       </c>
@@ -16199,56 +16305,60 @@
       <c r="M20">
         <v>6</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O20" t="s">
         <v>852</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>848</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="S20" s="26" t="s">
         <v>917</v>
       </c>
-      <c r="S20" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T20" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U20" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W20" t="s">
         <v>878</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>848</v>
       </c>
-      <c r="AB20">
-        <f t="shared" si="2"/>
+      <c r="AC20">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R$2:$R$115,$AB20)</f>
         <v>67</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="4"/>
+      <c r="AE20">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp;12,$R4:$R117,$AB20, $E$2:$E$115,"&lt;"&amp;18)</f>
         <v>18</v>
       </c>
-      <c r="AE20">
-        <f t="shared" si="0"/>
+      <c r="AF20">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="AF20">
-        <f t="shared" si="5"/>
+      <c r="AG20">
+        <f>COUNTIFS($E$2:$E$115,"&gt;="&amp; 18,$R4:$R117,$AB20)</f>
         <v>47</v>
       </c>
-      <c r="AG20">
-        <f t="shared" si="1"/>
+      <c r="AH20">
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1401251362</v>
       </c>
@@ -16288,38 +16398,42 @@
       <c r="M21">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O21" t="s">
         <v>852</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>848</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="S21" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="S21" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T21" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U21" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AB21">
-        <f>SUM(AB$18:AB$20)</f>
+      <c r="V21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC21">
+        <f>SUM(AC$18:AC$20)</f>
         <v>103</v>
       </c>
-      <c r="AD21">
-        <f>SUM(AD$18:AD$20)</f>
+      <c r="AE21">
+        <f>SUM(AE$18:AE$20)</f>
         <v>24</v>
       </c>
-      <c r="AF21">
-        <f>SUM(AF$18:AF$20)</f>
+      <c r="AG21">
+        <f>SUM(AG$18:AG$20)</f>
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1008177567</v>
       </c>
@@ -16356,26 +16470,30 @@
       <c r="M22">
         <v>5</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O22" t="s">
         <v>852</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>848</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="S22" s="26" t="s">
         <v>914</v>
       </c>
-      <c r="S22" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T22" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U22" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="V22" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1401138268</v>
       </c>
@@ -16415,15 +16533,16 @@
       <c r="M23">
         <v>12</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O23" t="s">
         <v>847</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>848</v>
       </c>
-      <c r="S23" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T23" s="26" t="s">
         <v>138</v>
       </c>
@@ -16431,17 +16550,20 @@
         <v>138</v>
       </c>
       <c r="V23" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W23" s="26" t="s">
         <v>990</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
         <v>1006</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <f>COUNTIF($E$2:$E$155,"&gt;="&amp;12)</f>
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1400041383</v>
       </c>
@@ -16478,26 +16600,30 @@
       <c r="M24">
         <v>10</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O24" t="s">
         <v>847</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>848</v>
       </c>
-      <c r="R24" s="26" t="s">
+      <c r="S24" s="26" t="s">
         <v>907</v>
       </c>
-      <c r="S24" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T24" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U24" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="V24" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1201301817</v>
       </c>
@@ -16537,29 +16663,33 @@
       <c r="M25">
         <v>11</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O25" t="s">
         <v>847</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>848</v>
       </c>
-      <c r="R25" s="26" t="s">
+      <c r="S25" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="S25" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T25" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U25" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W25" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1102506734</v>
       </c>
@@ -16599,29 +16729,33 @@
       <c r="M26">
         <v>9</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O26" t="s">
         <v>847</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="R26" t="s">
         <v>848</v>
       </c>
-      <c r="R26" s="26" t="s">
+      <c r="S26" s="26" t="s">
         <v>881</v>
       </c>
-      <c r="S26" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T26" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U26" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V26" t="s">
+      <c r="V26" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W26" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1401380766</v>
       </c>
@@ -16658,26 +16792,33 @@
       <c r="M27">
         <v>15</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O27" t="s">
         <v>847</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="R27" t="s">
         <v>848</v>
       </c>
-      <c r="R27" s="26" t="s">
+      <c r="S27" s="26" t="s">
         <v>922</v>
       </c>
-      <c r="S27" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T27" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U27" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="V27" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1401239791</v>
       </c>
@@ -16717,29 +16858,37 @@
       <c r="M28">
         <v>3</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O28" t="s">
         <v>852</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>848</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="S28" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="S28" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T28" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U28" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V28" t="s">
+      <c r="V28" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W28" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC28" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AD28" s="51"/>
+    </row>
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1401369966</v>
       </c>
@@ -16776,26 +16925,36 @@
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O29" t="s">
         <v>852</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>848</v>
       </c>
-      <c r="R29" s="26" t="s">
+      <c r="S29" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="S29" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T29" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U29" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V29" s="42" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC29" t="s">
+        <v>847</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1401161378</v>
       </c>
@@ -16835,15 +16994,16 @@
       <c r="M30">
         <v>7</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O30" t="s">
         <v>847</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>848</v>
       </c>
-      <c r="S30" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T30" s="26" t="s">
         <v>138</v>
       </c>
@@ -16851,10 +17011,30 @@
         <v>138</v>
       </c>
       <c r="V30" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W30" s="26" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="31" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z30" s="26" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AA30" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>847</v>
+      </c>
+      <c r="AC30">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$O$2:$O$120,"ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>13</v>
+      </c>
+      <c r="AD30">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$O$2:$O$120,"ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1401098593</v>
       </c>
@@ -16894,23 +17074,39 @@
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O31" t="s">
         <v>852</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>848</v>
       </c>
-      <c r="S31" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T31" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U31" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="32" spans="1:33" ht="16" x14ac:dyDescent="0.2">
+      <c r="V31" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA31" s="50"/>
+      <c r="AB31" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AC31">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$O$2:$O$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>7</v>
+      </c>
+      <c r="AD31">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$O$2:$O$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1401224985</v>
       </c>
@@ -16950,23 +17146,37 @@
       <c r="M32">
         <v>4</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O32" t="s">
         <v>852</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="R32" t="s">
         <v>848</v>
       </c>
-      <c r="S32" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T32" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U32" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V32" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AD32">
+        <f>SUM(AC30:AD31)</f>
+        <v>103</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1401250968</v>
       </c>
@@ -17006,29 +17216,33 @@
       <c r="M33">
         <v>3</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O33" t="s">
         <v>852</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>848</v>
       </c>
-      <c r="R33" s="26" t="s">
+      <c r="S33" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S33" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T33" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U33" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V33" t="s">
+      <c r="V33" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W33" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1102874529</v>
       </c>
@@ -17068,26 +17282,30 @@
       <c r="M34">
         <v>5</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O34" t="s">
         <v>852</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>848</v>
       </c>
-      <c r="R34" s="26" t="s">
+      <c r="S34" s="26" t="s">
         <v>728</v>
       </c>
-      <c r="S34" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T34" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U34" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V34" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1400712166</v>
       </c>
@@ -17124,29 +17342,47 @@
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O35" t="s">
         <v>852</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>848</v>
       </c>
-      <c r="R35" s="26" t="s">
+      <c r="S35" s="26" t="s">
         <v>925</v>
       </c>
-      <c r="S35" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T35" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U35" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V35" t="s">
+      <c r="V35" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W35" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="AG35" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AH35" s="51"/>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="51"/>
+      <c r="AK35" s="51"/>
+      <c r="AN35" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+    </row>
+    <row r="36" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1008108363</v>
       </c>
@@ -17186,20 +17422,36 @@
       <c r="M36">
         <v>-5</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O36" t="s">
         <v>852</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="R36" t="s">
         <v>848</v>
       </c>
-      <c r="S36" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T36" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="U36" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC36" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AD36" s="51"/>
+      <c r="AJ36" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AK36" s="51"/>
+      <c r="AQ36" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AR36" s="51"/>
+    </row>
+    <row r="37" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1400877154</v>
       </c>
@@ -17236,29 +17488,51 @@
       <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O37" t="s">
         <v>852</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>848</v>
       </c>
-      <c r="R37" s="26" t="s">
+      <c r="S37" s="26" t="s">
         <v>918</v>
       </c>
-      <c r="S37" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T37" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U37" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V37" t="s">
+      <c r="V37" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W37" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="AC37" t="s">
+        <v>847</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>847</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>847</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1003435007</v>
       </c>
@@ -17295,26 +17569,81 @@
       <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O38" t="s">
         <v>852</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>848</v>
       </c>
-      <c r="R38" s="26" t="s">
+      <c r="S38" s="26" t="s">
         <v>910</v>
       </c>
-      <c r="S38" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T38" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U38" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z38" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AA38" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>847</v>
+      </c>
+      <c r="AC38">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>8</v>
+      </c>
+      <c r="AD38">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>1</v>
+      </c>
+      <c r="AG38" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AH38" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>847</v>
+      </c>
+      <c r="AJ38">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;18)</f>
+        <v>7</v>
+      </c>
+      <c r="AK38">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;18)</f>
+        <v>1</v>
+      </c>
+      <c r="AN38" s="26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AO38" s="50" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>847</v>
+      </c>
+      <c r="AQ38">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;11, $E$2:$E$120,"&lt;"&amp;19)</f>
+        <v>1</v>
+      </c>
+      <c r="AR38">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"ICU",$E$2:$E$120,"&gt;"&amp;11, $E$2:$E$120,"&lt;"&amp;19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="38">
         <v>1401645430</v>
       </c>
@@ -17354,29 +17683,69 @@
       <c r="M39">
         <v>14</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O39" t="s">
         <v>847</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>848</v>
       </c>
-      <c r="R39" s="26" t="s">
+      <c r="S39" s="26" t="s">
         <v>893</v>
       </c>
-      <c r="S39" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T39" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U39" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V39" t="s">
+      <c r="V39" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W39" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="AA39" s="50"/>
+      <c r="AB39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AC39">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>12</v>
+      </c>
+      <c r="AD39">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
+        <v>82</v>
+      </c>
+      <c r="AH39" s="50"/>
+      <c r="AI39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AJ39">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;8)</f>
+        <v>12</v>
+      </c>
+      <c r="AK39">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;18)</f>
+        <v>59</v>
+      </c>
+      <c r="AO39" s="50"/>
+      <c r="AP39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AQ39">
+        <f>COUNTIFS($R$2:$R$120,"ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11, $E$2:$E$120,"&lt;"&amp;19)</f>
+        <v>3</v>
+      </c>
+      <c r="AR39">
+        <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11,$E$2:$E$120,"&lt;"&amp;19)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1401090590</v>
       </c>
@@ -17416,23 +17785,51 @@
       <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O40" t="s">
         <v>852</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="R40" t="s">
         <v>848</v>
       </c>
-      <c r="R40" s="26" t="s">
+      <c r="S40" s="26" t="s">
         <v>853</v>
       </c>
-      <c r="S40" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T40" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AD40">
+        <f>SUM(AC38:AD39)</f>
+        <v>103</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AK40">
+        <f>SUM(AJ38:AK39)</f>
+        <v>79</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AR40">
+        <f>SUM(AQ38:AR39)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="38">
         <v>1004993792</v>
       </c>
@@ -17469,29 +17866,33 @@
       <c r="M41">
         <v>4</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O41" t="s">
         <v>852</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="R41" t="s">
         <v>848</v>
       </c>
-      <c r="R41" s="17" t="s">
+      <c r="S41" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="S41" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T41" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U41" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V41" t="s">
+      <c r="V41" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W41" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1102295028</v>
       </c>
@@ -17531,26 +17932,30 @@
       <c r="M42">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O42" t="s">
         <v>852</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
         <v>848</v>
       </c>
-      <c r="R42" s="26" t="s">
+      <c r="S42" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="S42" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T42" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U42" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V42" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1401192570</v>
       </c>
@@ -17590,26 +17995,30 @@
       <c r="M43">
         <v>2</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O43" t="s">
         <v>852</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>848</v>
       </c>
-      <c r="R43" s="26" t="s">
+      <c r="S43" s="26" t="s">
         <v>872</v>
       </c>
-      <c r="S43" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T43" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U43" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U43" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V43" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1100390034</v>
       </c>
@@ -17649,23 +18058,27 @@
       <c r="M44">
         <v>6</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O44" t="s">
         <v>852</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>848</v>
       </c>
-      <c r="S44" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T44" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U44" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V44" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1401315092</v>
       </c>
@@ -17702,26 +18115,30 @@
       <c r="M45">
         <v>13</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O45" t="s">
         <v>847</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="R45" t="s">
         <v>848</v>
       </c>
-      <c r="S45" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T45" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U45" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V45" t="s">
+      <c r="V45" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W45" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1401206978</v>
       </c>
@@ -17761,18 +18178,19 @@
       <c r="M46">
         <v>5</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O46" t="s">
         <v>852</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>848</v>
       </c>
-      <c r="R46" s="26" t="s">
+      <c r="S46" s="26" t="s">
         <v>874</v>
       </c>
-      <c r="S46" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T46" s="26" t="s">
         <v>138</v>
       </c>
@@ -17780,10 +18198,13 @@
         <v>138</v>
       </c>
       <c r="V46" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W46" s="26" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1007340188</v>
       </c>
@@ -17820,29 +18241,33 @@
       <c r="M47">
         <v>3</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O47" t="s">
         <v>852</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>848</v>
       </c>
-      <c r="R47" s="26" t="s">
+      <c r="S47" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="S47" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T47" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U47" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V47" t="s">
+      <c r="V47" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W47" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1401207030</v>
       </c>
@@ -17882,18 +18307,19 @@
       <c r="M48">
         <v>10</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O48" t="s">
         <v>847</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>848</v>
       </c>
-      <c r="R48" s="26" t="s">
+      <c r="S48" s="26" t="s">
         <v>875</v>
       </c>
-      <c r="S48" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T48" s="26" t="s">
         <v>138</v>
       </c>
@@ -17901,10 +18327,13 @@
         <v>138</v>
       </c>
       <c r="V48" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W48" s="26" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1000024972</v>
       </c>
@@ -17944,29 +18373,33 @@
       <c r="M49">
         <v>13</v>
       </c>
-      <c r="N49" t="s">
+      <c r="N49" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O49" t="s">
         <v>847</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>848</v>
       </c>
-      <c r="R49" s="26" t="s">
+      <c r="S49" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="S49" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T49" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U49" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V49" t="s">
+      <c r="V49" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W49" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1000326621</v>
       </c>
@@ -18006,26 +18439,30 @@
       <c r="M50">
         <v>6</v>
       </c>
-      <c r="N50" t="s">
+      <c r="N50" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O50" t="s">
         <v>852</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>848</v>
       </c>
-      <c r="R50" s="26" t="s">
+      <c r="S50" s="26" t="s">
         <v>873</v>
       </c>
-      <c r="S50" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T50" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U50" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V50" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1101568757</v>
       </c>
@@ -18065,29 +18502,33 @@
       <c r="M51">
         <v>8</v>
       </c>
-      <c r="N51" t="s">
+      <c r="N51" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O51" t="s">
         <v>847</v>
       </c>
-      <c r="Q51" t="s">
+      <c r="R51" t="s">
         <v>848</v>
       </c>
-      <c r="R51" s="26" t="s">
+      <c r="S51" s="26" t="s">
         <v>891</v>
       </c>
-      <c r="S51" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T51" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U51" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V51" t="s">
+      <c r="V51" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W51" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1001720769</v>
       </c>
@@ -18127,23 +18568,27 @@
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O52" t="s">
         <v>852</v>
       </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>848</v>
       </c>
-      <c r="R52" s="26" t="s">
+      <c r="S52" s="26" t="s">
         <v>856</v>
       </c>
-      <c r="S52" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T52" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U52" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1205450202</v>
       </c>
@@ -18180,18 +18625,19 @@
       <c r="M53">
         <v>12</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O53" t="s">
         <v>847</v>
       </c>
-      <c r="Q53" t="s">
+      <c r="R53" t="s">
         <v>848</v>
       </c>
-      <c r="R53" s="26" t="s">
+      <c r="S53" s="26" t="s">
         <v>921</v>
       </c>
-      <c r="S53" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T53" s="42" t="s">
         <v>138</v>
       </c>
@@ -18199,10 +18645,13 @@
         <v>138</v>
       </c>
       <c r="V53" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W53" s="42" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1401382217</v>
       </c>
@@ -18239,29 +18688,33 @@
       <c r="M54">
         <v>9</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O54" t="s">
         <v>847</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
         <v>848</v>
       </c>
-      <c r="R54" s="26" t="s">
+      <c r="S54" s="26" t="s">
         <v>923</v>
       </c>
-      <c r="S54" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T54" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U54" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V54" t="s">
+      <c r="V54" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W54" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1006629455</v>
       </c>
@@ -18301,23 +18754,27 @@
       <c r="M55">
         <v>16</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O55" t="s">
         <v>847</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="R55" t="s">
         <v>848</v>
       </c>
-      <c r="R55" s="26" t="s">
+      <c r="S55" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="S55" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T55" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U55" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="38">
         <v>1401159022</v>
       </c>
@@ -18357,24 +18814,28 @@
       <c r="M56">
         <v>9</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O56" t="s">
         <v>847</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
         <v>848</v>
       </c>
-      <c r="S56" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T56" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42" t="s">
+      <c r="U56" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1005430532</v>
       </c>
@@ -18411,26 +18872,30 @@
       <c r="M57">
         <v>5</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O57" t="s">
         <v>852</v>
       </c>
-      <c r="Q57" t="s">
+      <c r="R57" t="s">
         <v>848</v>
       </c>
-      <c r="R57" s="26" t="s">
+      <c r="S57" s="26" t="s">
         <v>915</v>
       </c>
-      <c r="S57" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T57" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U57" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V57" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1101010685</v>
       </c>
@@ -18470,23 +18935,27 @@
       <c r="M58">
         <v>4</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O58" t="s">
         <v>852</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="R58" t="s">
         <v>848</v>
       </c>
-      <c r="S58" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T58" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U58" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V58" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1007809059</v>
       </c>
@@ -18526,26 +18995,30 @@
       <c r="M59">
         <v>12</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O59" t="s">
         <v>847</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="R59" t="s">
         <v>848</v>
       </c>
-      <c r="S59" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T59" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U59" s="26" t="s">
+      <c r="U59" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V59" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V59" t="s">
+      <c r="W59" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="38">
         <v>1200624653</v>
       </c>
@@ -18585,29 +19058,33 @@
       <c r="M60">
         <v>5</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O60" t="s">
         <v>852</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
         <v>848</v>
       </c>
-      <c r="R60" s="26" t="s">
+      <c r="S60" s="26" t="s">
         <v>888</v>
       </c>
-      <c r="S60" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T60" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U60" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V60" t="s">
+      <c r="V60" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W60" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1401316516</v>
       </c>
@@ -18644,29 +19121,33 @@
       <c r="M61">
         <v>11</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O61" t="s">
         <v>847</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>848</v>
       </c>
-      <c r="R61" s="26" t="s">
+      <c r="S61" s="26" t="s">
         <v>900</v>
       </c>
-      <c r="S61" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T61" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U61" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V61" t="s">
+      <c r="V61" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W61" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1200230428</v>
       </c>
@@ -18703,29 +19184,33 @@
       <c r="M62">
         <v>9</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O62" t="s">
         <v>847</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="R62" t="s">
         <v>848</v>
       </c>
-      <c r="R62" s="26" t="s">
+      <c r="S62" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="S62" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T62" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U62" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W62" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1401311288</v>
       </c>
@@ -18763,26 +19248,30 @@
       <c r="M63">
         <v>14</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O63" t="s">
         <v>847</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="R63" t="s">
         <v>848</v>
       </c>
-      <c r="R63" s="26" t="s">
+      <c r="S63" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="S63" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T63" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U63" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V63" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1102644291</v>
       </c>
@@ -18822,26 +19311,30 @@
       <c r="M64">
         <v>12</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O64" t="s">
         <v>847</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>848</v>
       </c>
-      <c r="R64" s="26" t="s">
+      <c r="S64" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="S64" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T64" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U64" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U64" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V64" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1102644291</v>
       </c>
@@ -18881,23 +19374,27 @@
       <c r="M65">
         <v>10</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O65" t="s">
         <v>847</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="R65" t="s">
         <v>848</v>
       </c>
-      <c r="S65" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T65" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U65" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V65" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1205218011</v>
       </c>
@@ -18937,23 +19434,27 @@
       <c r="M66">
         <v>11</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v>GMF</v>
+      </c>
+      <c r="O66" t="s">
         <v>847</v>
       </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>848</v>
       </c>
-      <c r="R66" s="26" t="s">
+      <c r="S66" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S66" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T66" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="U66" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1009103377</v>
       </c>
@@ -18993,26 +19494,30 @@
       <c r="M67">
         <v>15</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N67" t="str">
+        <f t="shared" ref="N67:N113" si="4">IF($M67&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
+      </c>
+      <c r="O67" t="s">
         <v>847</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="R67" t="s">
         <v>848</v>
       </c>
-      <c r="S67" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T67" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U67" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V67" t="s">
+      <c r="U67" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W67" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1001694549</v>
       </c>
@@ -19052,21 +19557,25 @@
       <c r="M68">
         <v>14</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O68" t="s">
         <v>847</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="R68" t="s">
         <v>848</v>
       </c>
-      <c r="S68" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T68" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U68" s="42"/>
-    </row>
-    <row r="69" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U68" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V68" s="42"/>
+    </row>
+    <row r="69" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1007329807</v>
       </c>
@@ -19106,26 +19615,30 @@
       <c r="M69">
         <v>17</v>
       </c>
-      <c r="N69" t="s">
+      <c r="N69" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O69" t="s">
         <v>847</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="R69" t="s">
         <v>848</v>
       </c>
-      <c r="R69" s="26" t="s">
+      <c r="S69" s="26" t="s">
         <v>870</v>
       </c>
-      <c r="S69" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T69" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U69" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U69" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V69" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="38">
         <v>1006139627</v>
       </c>
@@ -19165,24 +19678,28 @@
       <c r="M70">
         <v>9</v>
       </c>
-      <c r="N70" t="s">
+      <c r="N70" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O70" t="s">
         <v>847</v>
       </c>
-      <c r="Q70" t="s">
+      <c r="R70" t="s">
         <v>848</v>
       </c>
-      <c r="R70" s="26" t="s">
+      <c r="S70" s="26" t="s">
         <v>865</v>
       </c>
-      <c r="S70" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T70" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U70" s="42"/>
-    </row>
-    <row r="71" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="U70" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V70" s="42"/>
+    </row>
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1205055292</v>
       </c>
@@ -19219,26 +19736,30 @@
       <c r="M71">
         <v>14</v>
       </c>
-      <c r="N71" t="s">
+      <c r="N71" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O71" t="s">
         <v>847</v>
       </c>
-      <c r="Q71" t="s">
+      <c r="R71" t="s">
         <v>848</v>
       </c>
-      <c r="R71" s="26" t="s">
+      <c r="S71" s="26" t="s">
         <v>928</v>
       </c>
-      <c r="S71" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T71" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U71" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V71" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1401255084</v>
       </c>
@@ -19278,26 +19799,30 @@
       <c r="M72">
         <v>17</v>
       </c>
-      <c r="N72" t="s">
+      <c r="N72" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O72" t="s">
         <v>847</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>848</v>
       </c>
-      <c r="R72" s="26" t="s">
+      <c r="S72" s="26" t="s">
         <v>885</v>
       </c>
-      <c r="S72" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T72" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U72" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V72" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1401129153</v>
       </c>
@@ -19337,23 +19862,27 @@
       <c r="M73">
         <v>17</v>
       </c>
-      <c r="N73" t="s">
+      <c r="N73" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O73" t="s">
         <v>847</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="R73" t="s">
         <v>848</v>
       </c>
-      <c r="R73" s="26" t="s">
+      <c r="S73" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="S73" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T73" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U73" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="38">
         <v>1002234563</v>
       </c>
@@ -19390,26 +19919,30 @@
       <c r="M74">
         <v>16</v>
       </c>
-      <c r="N74" t="s">
+      <c r="N74" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O74" t="s">
         <v>847</v>
       </c>
-      <c r="Q74" t="s">
+      <c r="R74" t="s">
         <v>848</v>
       </c>
-      <c r="R74" s="26" t="s">
+      <c r="S74" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="S74" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T74" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U74" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V74" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1102881845</v>
       </c>
@@ -19446,26 +19979,30 @@
       <c r="M75">
         <v>13</v>
       </c>
-      <c r="N75" t="s">
+      <c r="N75" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O75" t="s">
         <v>847</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>848</v>
       </c>
-      <c r="S75" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T75" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U75" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V75" t="s">
+      <c r="V75" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W75" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1400105541</v>
       </c>
@@ -19502,29 +20039,33 @@
       <c r="M76">
         <v>9</v>
       </c>
-      <c r="N76" t="s">
+      <c r="N76" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O76" t="s">
         <v>847</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="R76" t="s">
         <v>848</v>
       </c>
-      <c r="R76" s="26" t="s">
+      <c r="S76" s="26" t="s">
         <v>861</v>
       </c>
-      <c r="S76" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T76" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U76" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V76" t="s">
+      <c r="V76" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W76" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>1008550250</v>
       </c>
@@ -19564,29 +20105,33 @@
       <c r="M77">
         <v>5</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N77" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O77" t="s">
         <v>852</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="R77" t="s">
         <v>852</v>
       </c>
-      <c r="R77" s="26" t="s">
+      <c r="S77" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S77" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T77" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U77" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V77" t="s">
+      <c r="V77" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W77" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1401210342</v>
       </c>
@@ -19623,29 +20168,33 @@
       <c r="M78">
         <v>6</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N78" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O78" t="s">
         <v>852</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>852</v>
       </c>
-      <c r="R78" s="26" t="s">
+      <c r="S78" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="S78" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T78" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U78" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V78" t="s">
+      <c r="V78" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W78" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1103414115</v>
       </c>
@@ -19685,18 +20234,19 @@
       <c r="M79">
         <v>18</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O79" t="s">
         <v>847</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>852</v>
       </c>
-      <c r="R79" s="26" t="s">
+      <c r="S79" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="S79" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T79" s="26" t="s">
         <v>138</v>
       </c>
@@ -19704,10 +20254,13 @@
         <v>138</v>
       </c>
       <c r="V79" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W79" s="26" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>1009368877</v>
       </c>
@@ -19744,20 +20297,24 @@
       <c r="M80">
         <v>11</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O80" t="s">
         <v>847</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="R80" t="s">
         <v>852</v>
       </c>
-      <c r="R80" s="26" t="s">
+      <c r="S80" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="V80" t="s">
+      <c r="W80" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>1400587005</v>
       </c>
@@ -19797,23 +20354,27 @@
       <c r="M81">
         <v>9</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O81" t="s">
         <v>847</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>852</v>
       </c>
-      <c r="S81" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T81" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U81" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U81" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V81" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1400161166</v>
       </c>
@@ -19850,26 +20411,30 @@
       <c r="M82">
         <v>12</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N82" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O82" t="s">
         <v>847</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>852</v>
       </c>
-      <c r="R82" s="26" t="s">
+      <c r="S82" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="S82" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T82" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U82" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V82" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>1102188394</v>
       </c>
@@ -19909,15 +20474,16 @@
       <c r="M83">
         <v>13</v>
       </c>
-      <c r="N83" t="s">
+      <c r="N83" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O83" t="s">
         <v>847</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="R83" t="s">
         <v>852</v>
       </c>
-      <c r="S83" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T83" s="26" t="s">
         <v>138</v>
       </c>
@@ -19925,10 +20491,13 @@
         <v>138</v>
       </c>
       <c r="V83" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W83" s="26" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>1401208505</v>
       </c>
@@ -19968,23 +20537,27 @@
       <c r="M84">
         <v>6</v>
       </c>
-      <c r="N84" t="s">
+      <c r="N84" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O84" t="s">
         <v>852</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="R84" t="s">
         <v>852</v>
       </c>
-      <c r="S84" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T84" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U84" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="V84" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>1400394345</v>
       </c>
@@ -20021,26 +20594,30 @@
       <c r="M85">
         <v>15</v>
       </c>
-      <c r="N85" t="s">
+      <c r="N85" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O85" t="s">
         <v>847</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="R85" t="s">
         <v>852</v>
       </c>
-      <c r="R85" s="26" t="s">
+      <c r="S85" s="26" t="s">
         <v>926</v>
       </c>
-      <c r="S85" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T85" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U85" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V85" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>1006702172</v>
       </c>
@@ -20080,23 +20657,27 @@
       <c r="M86">
         <v>13</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O86" t="s">
         <v>847</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>852</v>
       </c>
-      <c r="S86" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T86" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U86" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="U86" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V86" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>1401215589</v>
       </c>
@@ -20136,15 +20717,16 @@
       <c r="M87">
         <v>13</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O87" t="s">
         <v>847</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="R87" t="s">
         <v>852</v>
       </c>
-      <c r="S87" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T87" s="26" t="s">
         <v>138</v>
       </c>
@@ -20152,10 +20734,13 @@
         <v>138</v>
       </c>
       <c r="V87" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W87" s="26" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>1002805912</v>
       </c>
@@ -20195,23 +20780,27 @@
       <c r="M88">
         <v>5</v>
       </c>
-      <c r="N88" t="s">
+      <c r="N88" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O88" t="s">
         <v>852</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>852</v>
       </c>
-      <c r="S88" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T88" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U88" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="V88" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>1100404076</v>
       </c>
@@ -20251,23 +20840,27 @@
       <c r="M89">
         <v>12</v>
       </c>
-      <c r="N89" t="s">
+      <c r="N89" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O89" t="s">
         <v>847</v>
       </c>
-      <c r="Q89" t="s">
+      <c r="R89" t="s">
         <v>852</v>
       </c>
-      <c r="S89" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T89" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U89" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="U89" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V89" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>1003297212</v>
       </c>
@@ -20304,29 +20897,33 @@
       <c r="M90">
         <v>7</v>
       </c>
-      <c r="N90" t="s">
+      <c r="N90" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O90" t="s">
         <v>847</v>
       </c>
-      <c r="Q90" t="s">
+      <c r="R90" t="s">
         <v>852</v>
       </c>
-      <c r="R90" s="26" t="s">
+      <c r="S90" s="26" t="s">
         <v>927</v>
       </c>
-      <c r="S90" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T90" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U90" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V90" t="s">
+      <c r="V90" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W90" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>1002316006</v>
       </c>
@@ -20363,29 +20960,33 @@
       <c r="M91">
         <v>13</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N91" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O91" t="s">
         <v>847</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>852</v>
       </c>
-      <c r="R91" s="17" t="s">
+      <c r="S91" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="S91" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T91" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U91" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V91" t="s">
+      <c r="V91" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W91" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>1000053365</v>
       </c>
@@ -20425,26 +21026,30 @@
       <c r="M92">
         <v>10</v>
       </c>
-      <c r="N92" t="s">
+      <c r="N92" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O92" t="s">
         <v>847</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>852</v>
       </c>
-      <c r="S92" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T92" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U92" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V92" t="s">
+      <c r="U92" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V92" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W92" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>1401622561</v>
       </c>
@@ -20484,18 +21089,19 @@
       <c r="M93">
         <v>16</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N93" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O93" t="s">
         <v>847</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>847</v>
       </c>
-      <c r="R93" s="26" t="s">
+      <c r="S93" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="S93" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T93" s="26" t="s">
         <v>138</v>
       </c>
@@ -20503,10 +21109,13 @@
         <v>138</v>
       </c>
       <c r="V93" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W93" s="26" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>1401374927</v>
       </c>
@@ -20543,29 +21152,33 @@
       <c r="M94">
         <v>14</v>
       </c>
-      <c r="N94" t="s">
+      <c r="N94" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O94" t="s">
         <v>847</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="R94" t="s">
         <v>847</v>
       </c>
-      <c r="R94" s="26" t="s">
+      <c r="S94" s="26" t="s">
         <v>919</v>
       </c>
-      <c r="S94" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T94" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U94" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V94" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V94" t="s">
+      <c r="W94" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>1400059656</v>
       </c>
@@ -20605,26 +21218,30 @@
       <c r="M95">
         <v>3</v>
       </c>
-      <c r="N95" t="s">
+      <c r="N95" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O95" t="s">
         <v>852</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="R95" t="s">
         <v>847</v>
       </c>
-      <c r="R95" s="26" t="s">
+      <c r="S95" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S95" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T95" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U95" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V95" s="26" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>1400775825</v>
       </c>
@@ -20664,18 +21281,19 @@
       <c r="M96">
         <v>20</v>
       </c>
-      <c r="N96" t="s">
+      <c r="N96" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O96" t="s">
         <v>847</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>847</v>
       </c>
-      <c r="R96" s="26" t="s">
+      <c r="S96" s="26" t="s">
         <v>876</v>
       </c>
-      <c r="S96" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T96" s="26" t="s">
         <v>138</v>
       </c>
@@ -20683,10 +21301,13 @@
         <v>138</v>
       </c>
       <c r="V96" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W96" s="26" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>1401096023</v>
       </c>
@@ -20726,26 +21347,30 @@
       <c r="M97">
         <v>4</v>
       </c>
-      <c r="N97" t="s">
+      <c r="N97" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O97" t="s">
         <v>852</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>847</v>
       </c>
-      <c r="R97" s="26" t="s">
+      <c r="S97" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="S97" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T97" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V97" s="26" t="s">
+      <c r="U97" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W97" s="26" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>1401369977</v>
       </c>
@@ -20782,26 +21407,30 @@
       <c r="M98">
         <v>4</v>
       </c>
-      <c r="N98" t="s">
+      <c r="N98" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O98" t="s">
         <v>852</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>847</v>
       </c>
-      <c r="R98" s="26" t="s">
+      <c r="S98" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="S98" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T98" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U98" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V98" s="42" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1401325082</v>
       </c>
@@ -20838,26 +21467,30 @@
       <c r="M99">
         <v>5</v>
       </c>
-      <c r="N99" t="s">
+      <c r="N99" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O99" t="s">
         <v>852</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>847</v>
       </c>
-      <c r="R99" s="26" t="s">
+      <c r="S99" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="S99" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T99" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U99" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V99" s="42" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>1002666748</v>
       </c>
@@ -20897,17 +21530,18 @@
       <c r="M100">
         <v>26</v>
       </c>
-      <c r="N100" t="s">
+      <c r="N100" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O100" t="s">
         <v>847</v>
       </c>
-      <c r="Q100" t="s">
+      <c r="R100" t="s">
         <v>847</v>
       </c>
-      <c r="R100" s="26" t="s">
+      <c r="S100" s="26" t="s">
         <v>733</v>
-      </c>
-      <c r="S100" s="26" t="s">
-        <v>731</v>
       </c>
       <c r="T100" s="26" t="s">
         <v>731</v>
@@ -20915,11 +21549,14 @@
       <c r="U100" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V100" t="s">
+      <c r="V100" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W100" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>1401359722</v>
       </c>
@@ -20956,17 +21593,18 @@
       <c r="M101">
         <v>22</v>
       </c>
-      <c r="N101" t="s">
+      <c r="N101" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O101" t="s">
         <v>847</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="R101" t="s">
         <v>847</v>
       </c>
-      <c r="R101" s="26" t="s">
+      <c r="S101" s="26" t="s">
         <v>913</v>
-      </c>
-      <c r="S101" s="26" t="s">
-        <v>731</v>
       </c>
       <c r="T101" s="26" t="s">
         <v>731</v>
@@ -20974,11 +21612,14 @@
       <c r="U101" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V101" t="s">
+      <c r="V101" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W101" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>1401249635</v>
       </c>
@@ -21018,29 +21659,33 @@
       <c r="M102">
         <v>13</v>
       </c>
-      <c r="N102" t="s">
+      <c r="N102" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O102" t="s">
         <v>847</v>
       </c>
-      <c r="Q102" t="s">
+      <c r="R102" t="s">
         <v>847</v>
       </c>
-      <c r="R102" s="26" t="s">
+      <c r="S102" s="26" t="s">
         <v>882</v>
       </c>
-      <c r="S102" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T102" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U102" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V102" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V102" s="26" t="s">
+      <c r="W102" s="26" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>1401369968</v>
       </c>
@@ -21077,26 +21722,30 @@
       <c r="M103">
         <v>3</v>
       </c>
-      <c r="N103" t="s">
+      <c r="N103" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O103" t="s">
         <v>852</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="R103" t="s">
         <v>847</v>
       </c>
-      <c r="R103" s="26" t="s">
+      <c r="S103" s="26" t="s">
         <v>913</v>
       </c>
-      <c r="S103" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T103" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U103" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V103" s="42" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>1101619038</v>
       </c>
@@ -21133,17 +21782,18 @@
       <c r="M104">
         <v>24</v>
       </c>
-      <c r="N104" t="s">
+      <c r="N104" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O104" t="s">
         <v>847</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="R104" t="s">
         <v>847</v>
       </c>
-      <c r="R104" s="26" t="s">
+      <c r="S104" s="26" t="s">
         <v>901</v>
-      </c>
-      <c r="S104" s="26" t="s">
-        <v>731</v>
       </c>
       <c r="T104" s="26" t="s">
         <v>731</v>
@@ -21151,11 +21801,14 @@
       <c r="U104" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V104" t="s">
+      <c r="V104" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W104" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1005149298</v>
       </c>
@@ -21195,29 +21848,33 @@
       <c r="M105">
         <v>9</v>
       </c>
-      <c r="N105" t="s">
+      <c r="N105" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O105" t="s">
         <v>847</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="R105" t="s">
         <v>847</v>
       </c>
-      <c r="R105" s="26" t="s">
+      <c r="S105" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="S105" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T105" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U105" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V105" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V105" t="s">
+      <c r="W105" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>1401281866</v>
       </c>
@@ -21257,26 +21914,30 @@
       <c r="M106">
         <v>6</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O106" t="s">
         <v>852</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="R106" t="s">
         <v>847</v>
       </c>
-      <c r="R106" s="26" t="s">
+      <c r="S106" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="S106" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T106" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U106" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V106" s="26" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>1102416341</v>
       </c>
@@ -21316,26 +21977,30 @@
       <c r="M107">
         <v>8</v>
       </c>
-      <c r="N107" t="s">
+      <c r="N107" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O107" t="s">
         <v>847</v>
       </c>
-      <c r="Q107" t="s">
+      <c r="R107" t="s">
         <v>847</v>
       </c>
-      <c r="R107" s="26" t="s">
+      <c r="S107" s="26" t="s">
         <v>871</v>
       </c>
-      <c r="S107" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T107" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U107" s="26" t="s">
+      <c r="U107" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V107" s="26" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>1010017969</v>
       </c>
@@ -21372,18 +22037,19 @@
       <c r="M108">
         <v>5</v>
       </c>
-      <c r="N108" t="s">
+      <c r="N108" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O108" t="s">
         <v>852</v>
       </c>
-      <c r="Q108" t="s">
+      <c r="R108" t="s">
         <v>847</v>
       </c>
-      <c r="R108" s="26" t="s">
+      <c r="S108" s="26" t="s">
         <v>858</v>
       </c>
-      <c r="S108" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T108" s="42" t="s">
         <v>138</v>
       </c>
@@ -21391,10 +22057,13 @@
         <v>138</v>
       </c>
       <c r="V108" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W108" s="42" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="109" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>1401381886</v>
       </c>
@@ -21431,29 +22100,33 @@
       <c r="M109">
         <v>18</v>
       </c>
-      <c r="N109" t="s">
+      <c r="N109" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O109" t="s">
         <v>847</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>847</v>
       </c>
-      <c r="R109" s="26" t="s">
+      <c r="S109" s="26" t="s">
         <v>924</v>
       </c>
-      <c r="S109" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T109" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U109" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V109" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V109" s="26" t="s">
+      <c r="W109" s="26" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1011109895</v>
       </c>
@@ -21493,29 +22166,33 @@
       <c r="M110">
         <v>19</v>
       </c>
-      <c r="N110" t="s">
+      <c r="N110" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O110" t="s">
         <v>847</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>847</v>
       </c>
-      <c r="R110" s="26" t="s">
+      <c r="S110" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="S110" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T110" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="U110" s="26" t="s">
+      <c r="U110" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V110" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V110" t="s">
+      <c r="W110" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="111" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>1401141829</v>
       </c>
@@ -21555,29 +22232,33 @@
       <c r="M111">
         <v>29</v>
       </c>
-      <c r="N111" t="s">
+      <c r="N111" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O111" t="s">
         <v>847</v>
       </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
         <v>847</v>
       </c>
-      <c r="R111" s="26" t="s">
+      <c r="S111" s="26" t="s">
         <v>866</v>
       </c>
-      <c r="S111" s="42" t="s">
-        <v>138</v>
-      </c>
       <c r="T111" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U111" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V111" s="42" t="s">
         <v>731</v>
       </c>
-      <c r="V111" s="42" t="s">
+      <c r="W111" s="42" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>1009612218</v>
       </c>
@@ -21611,17 +22292,18 @@
       <c r="M112">
         <v>14</v>
       </c>
-      <c r="N112" t="s">
+      <c r="N112" t="str">
+        <f t="shared" si="4"/>
+        <v>GMF</v>
+      </c>
+      <c r="O112" t="s">
         <v>847</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>847</v>
       </c>
-      <c r="R112" s="26" t="s">
+      <c r="S112" s="26" t="s">
         <v>902</v>
-      </c>
-      <c r="S112" s="26" t="s">
-        <v>731</v>
       </c>
       <c r="T112" s="26" t="s">
         <v>731</v>
@@ -21629,11 +22311,14 @@
       <c r="U112" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V112" t="s">
+      <c r="V112" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W112" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="38">
         <v>1010033242</v>
       </c>
@@ -21673,71 +22358,75 @@
       <c r="M113">
         <v>35</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N113" t="str">
+        <f t="shared" si="4"/>
+        <v>ICU</v>
+      </c>
+      <c r="O113" t="s">
         <v>847</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="R113" t="s">
         <v>847</v>
       </c>
-      <c r="R113" s="26" t="s">
+      <c r="S113" s="26" t="s">
         <v>863</v>
       </c>
-      <c r="S113" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="T113" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U113" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V113" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="V113" s="26" t="s">
+      <c r="W113" s="26" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
@@ -22764,11 +23453,23 @@
       <c r="A469" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X472">
-    <sortCondition ref="Q2:Q472"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y472">
+    <sortCondition ref="R2:R472"/>
     <sortCondition ref="E2:E472"/>
-    <sortCondition ref="N2:N472"/>
+    <sortCondition ref="O2:O472"/>
   </sortState>
+  <mergeCells count="10">
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="AC28:AD28"/>
+    <mergeCell ref="AC36:AD36"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AJ36:AK36"/>
+    <mergeCell ref="AH38:AH39"/>
+    <mergeCell ref="AG35:AK35"/>
+  </mergeCells>
   <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="102" priority="106"/>
   </conditionalFormatting>
@@ -23080,10 +23781,10 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" sqref="D1:D1048576" xr:uid="{756351FA-EA10-4EFA-B4D6-83BEC0F103E1}">
-      <formula1>$AA$3:$AA$10</formula1>
+      <formula1>$AB$3:$AB$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="I1:L1048576" xr:uid="{2DB06261-F2B9-48EC-96E9-635A45F2E9BD}">
-      <formula1>$Y$2:$Y$3</formula1>
+      <formula1>$Z$2:$Z$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C145939-8E23-CF4F-9CE1-FE81B13E6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F6B1FB-0F8F-B94C-8E12-F1B092084AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="33540" windowHeight="20020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="1024">
   <si>
     <t>INTOXICATE Status</t>
   </si>
@@ -3114,6 +3114,24 @@
   </si>
   <si>
     <t>Peds</t>
+  </si>
+  <si>
+    <t>Inappropriate Downgrades</t>
+  </si>
+  <si>
+    <t>With IRS 6</t>
+  </si>
+  <si>
+    <t>With IRS 17</t>
+  </si>
+  <si>
+    <t>Needed ICU</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -3366,29 +3384,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5975,7 +5993,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="3">
@@ -5990,27 +6008,27 @@
       <c r="E35" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="45"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="L35" s="43"/>
-      <c r="N35" s="43" t="s">
+      <c r="L35" s="45"/>
+      <c r="N35" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3">
         <v>45036</v>
       </c>
@@ -6023,14 +6041,14 @@
       <c r="E36" s="2">
         <v>1006702172</v>
       </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="43"/>
-      <c r="N36" s="43"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="45"/>
+      <c r="N36" s="45"/>
     </row>
     <row r="37" spans="1:14" ht="96" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
@@ -6289,28 +6307,28 @@
       <c r="E45" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="45" t="s">
+      <c r="G45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="H45" s="45" t="s">
+      <c r="H45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="L45" s="49" t="s">
+      <c r="L45" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="M45" s="43" t="s">
+      <c r="M45" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="N45" s="43" t="s">
+      <c r="N45" s="45" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6330,14 +6348,14 @@
       <c r="E46" s="2">
         <v>1201620056</v>
       </c>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
     </row>
     <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
@@ -6468,7 +6486,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3">
@@ -6483,18 +6501,18 @@
       <c r="E51" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F51" s="48" t="s">
+      <c r="F51" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="43"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="31"/>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="47" t="s">
         <v>99</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -6502,7 +6520,7 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="43"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="3">
         <v>45042</v>
       </c>
@@ -6515,18 +6533,18 @@
       <c r="E52" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F52" s="48"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="31"/>
-      <c r="K52" s="46"/>
+      <c r="K52" s="47"/>
       <c r="N52" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="43"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="3">
         <v>45043</v>
       </c>
@@ -6539,12 +6557,12 @@
       <c r="E53" s="1">
         <v>1002805912</v>
       </c>
-      <c r="F53" s="48"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="31"/>
-      <c r="K53" s="46"/>
+      <c r="K53" s="47"/>
       <c r="N53" s="1" t="s">
         <v>100</v>
       </c>
@@ -6707,21 +6725,21 @@
       <c r="E59" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F59" s="48" t="s">
+      <c r="F59" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="I59" s="43"/>
+      <c r="I59" s="45"/>
       <c r="J59" s="31"/>
-      <c r="K59" s="46" t="s">
+      <c r="K59" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="43" t="s">
+      <c r="N59" s="45" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6738,13 +6756,13 @@
       <c r="E60" s="1">
         <v>1008151593</v>
       </c>
-      <c r="F60" s="48"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
       <c r="J60" s="31"/>
-      <c r="K60" s="46"/>
-      <c r="N60" s="43"/>
+      <c r="K60" s="47"/>
+      <c r="N60" s="45"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
@@ -8292,7 +8310,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="3">
@@ -8307,16 +8325,16 @@
       <c r="E109" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F109" s="48" t="s">
+      <c r="F109" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="G109" s="43" t="s">
+      <c r="G109" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="H109" s="43" t="s">
+      <c r="H109" s="45" t="s">
         <v>408</v>
       </c>
-      <c r="K109" s="43" t="s">
+      <c r="K109" s="45" t="s">
         <v>99</v>
       </c>
       <c r="N109" s="1" t="s">
@@ -8324,7 +8342,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="43"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="3">
         <v>45087</v>
       </c>
@@ -8337,16 +8355,16 @@
       <c r="E110" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F110" s="48"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="K110" s="43"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="K110" s="45"/>
       <c r="N110" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A111" s="43"/>
+      <c r="A111" s="45"/>
       <c r="B111" s="3">
         <v>45088</v>
       </c>
@@ -8359,10 +8377,10 @@
       <c r="E111" s="1">
         <v>1005149298</v>
       </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="K111" s="43"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="K111" s="45"/>
       <c r="N111" s="1" t="s">
         <v>100</v>
       </c>
@@ -8858,7 +8876,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A132" s="43" t="s">
+      <c r="A132" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B132" s="3">
@@ -8873,12 +8891,12 @@
       <c r="E132" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N132" s="43" t="s">
+      <c r="N132" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A133" s="43"/>
+      <c r="A133" s="45"/>
       <c r="B133" s="3">
         <v>45104</v>
       </c>
@@ -8891,10 +8909,10 @@
       <c r="E133" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N133" s="43"/>
+      <c r="N133" s="45"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A134" s="43"/>
+      <c r="A134" s="45"/>
       <c r="B134" s="3">
         <v>45105</v>
       </c>
@@ -8907,7 +8925,7 @@
       <c r="E134" s="1">
         <v>1101619038</v>
       </c>
-      <c r="N134" s="43"/>
+      <c r="N134" s="45"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
@@ -8930,7 +8948,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B136" s="3">
@@ -8945,12 +8963,12 @@
       <c r="E136" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N136" s="43" t="s">
+      <c r="N136" s="45" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A137" s="43"/>
+      <c r="A137" s="45"/>
       <c r="B137" s="3">
         <v>45104</v>
       </c>
@@ -8963,10 +8981,10 @@
       <c r="E137" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N137" s="43"/>
+      <c r="N137" s="45"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="43"/>
+      <c r="A138" s="45"/>
       <c r="B138" s="3">
         <v>45105</v>
       </c>
@@ -8979,7 +8997,7 @@
       <c r="E138" s="1">
         <v>1009612218</v>
       </c>
-      <c r="N138" s="43"/>
+      <c r="N138" s="45"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
@@ -9022,7 +9040,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B141" s="3">
@@ -9042,7 +9060,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A142" s="43"/>
+      <c r="A142" s="45"/>
       <c r="B142" s="3">
         <v>45108</v>
       </c>
@@ -9468,7 +9486,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B164" s="3">
@@ -9485,7 +9503,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="46"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="3">
         <v>45140</v>
       </c>
@@ -9755,7 +9773,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B181" s="3">
@@ -9772,7 +9790,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="43"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="3">
         <v>45153</v>
       </c>
@@ -9787,7 +9805,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="43" t="s">
+      <c r="A183" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B183" s="3">
@@ -9804,7 +9822,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="43"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="3">
         <v>45154</v>
       </c>
@@ -9836,7 +9854,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B186" s="3">
@@ -9853,7 +9871,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="46"/>
+      <c r="A187" s="47"/>
       <c r="B187" s="3">
         <v>45154</v>
       </c>
@@ -9868,7 +9886,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="43" t="s">
+      <c r="A188" s="45" t="s">
         <v>14</v>
       </c>
       <c r="B188" s="3">
@@ -9885,7 +9903,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="43"/>
+      <c r="A189" s="45"/>
       <c r="B189" s="3">
         <v>45154</v>
       </c>
@@ -11139,7 +11157,7 @@
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A274" s="46" t="s">
+      <c r="A274" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B274" s="3">
@@ -11154,31 +11172,31 @@
       <c r="E274" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F274" s="47" t="s">
+      <c r="F274" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G274" s="46" t="s">
+      <c r="G274" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="H274" s="46" t="s">
+      <c r="H274" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="I274" s="46" t="s">
+      <c r="I274" s="47" t="s">
         <v>136</v>
       </c>
       <c r="J274" s="32"/>
-      <c r="K274" s="46" t="s">
+      <c r="K274" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="L274" s="47" t="s">
+      <c r="L274" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="M274" s="43" t="s">
+      <c r="M274" s="45" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A275" s="46"/>
+      <c r="A275" s="47"/>
       <c r="B275" s="3">
         <v>45223</v>
       </c>
@@ -11191,14 +11209,14 @@
       <c r="E275" s="2">
         <v>1401468415</v>
       </c>
-      <c r="F275" s="47"/>
-      <c r="G275" s="46"/>
-      <c r="H275" s="46"/>
-      <c r="I275" s="46"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="47"/>
+      <c r="H275" s="47"/>
+      <c r="I275" s="47"/>
       <c r="J275" s="32"/>
-      <c r="K275" s="46"/>
-      <c r="L275" s="47"/>
-      <c r="M275" s="43"/>
+      <c r="K275" s="47"/>
+      <c r="L275" s="49"/>
+      <c r="M275" s="45"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B276" s="3">
@@ -14880,12 +14898,35 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A274:A275"/>
+    <mergeCell ref="A109:A111"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="M274:M275"/>
+    <mergeCell ref="L274:L275"/>
+    <mergeCell ref="F274:F275"/>
+    <mergeCell ref="G274:G275"/>
+    <mergeCell ref="H274:H275"/>
+    <mergeCell ref="I274:I275"/>
+    <mergeCell ref="K274:K275"/>
+    <mergeCell ref="N136:N138"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="G109:G111"/>
+    <mergeCell ref="H109:H111"/>
+    <mergeCell ref="K109:K111"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="N132:N134"/>
@@ -14902,35 +14943,12 @@
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="I45:I46"/>
     <mergeCell ref="K45:K46"/>
-    <mergeCell ref="N136:N138"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="G109:G111"/>
-    <mergeCell ref="H109:H111"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="M274:M275"/>
-    <mergeCell ref="L274:L275"/>
-    <mergeCell ref="F274:F275"/>
-    <mergeCell ref="G274:G275"/>
-    <mergeCell ref="H274:H275"/>
-    <mergeCell ref="I274:I275"/>
-    <mergeCell ref="K274:K275"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A274:A275"/>
-    <mergeCell ref="A109:A111"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A136:A138"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A181:A182"/>
-    <mergeCell ref="A183:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="duplicateValues" dxfId="103" priority="1"/>
@@ -14944,8 +14962,8 @@
   <dimension ref="A1:AR469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC38" sqref="AC38"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC47" sqref="AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16883,10 +16901,10 @@
       <c r="W28" t="s">
         <v>878</v>
       </c>
-      <c r="AC28" s="51" t="s">
+      <c r="AC28" s="50" t="s">
         <v>1011</v>
       </c>
-      <c r="AD28" s="51"/>
+      <c r="AD28" s="50"/>
     </row>
     <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -17019,7 +17037,7 @@
       <c r="Z30" s="26" t="s">
         <v>1009</v>
       </c>
-      <c r="AA30" s="50" t="s">
+      <c r="AA30" s="51" t="s">
         <v>1012</v>
       </c>
       <c r="AB30" t="s">
@@ -17093,7 +17111,7 @@
       <c r="V31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AA31" s="50"/>
+      <c r="AA31" s="51"/>
       <c r="AB31" t="s">
         <v>1010</v>
       </c>
@@ -17367,20 +17385,20 @@
       <c r="W35" t="s">
         <v>878</v>
       </c>
-      <c r="AG35" s="51" t="s">
+      <c r="AG35" s="50" t="s">
         <v>1016</v>
       </c>
-      <c r="AH35" s="51"/>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="51"/>
-      <c r="AK35" s="51"/>
-      <c r="AN35" s="51" t="s">
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AN35" s="50" t="s">
         <v>1017</v>
       </c>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="50"/>
+      <c r="AR35" s="50"/>
     </row>
     <row r="36" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
@@ -17438,18 +17456,18 @@
       <c r="U36" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="AC36" s="51" t="s">
+      <c r="AC36" s="50" t="s">
         <v>1011</v>
       </c>
-      <c r="AD36" s="51"/>
-      <c r="AJ36" s="51" t="s">
+      <c r="AD36" s="50"/>
+      <c r="AJ36" s="50" t="s">
         <v>1011</v>
       </c>
-      <c r="AK36" s="51"/>
-      <c r="AQ36" s="51" t="s">
+      <c r="AK36" s="50"/>
+      <c r="AQ36" s="50" t="s">
         <v>1011</v>
       </c>
-      <c r="AR36" s="51"/>
+      <c r="AR36" s="50"/>
     </row>
     <row r="37" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -17594,7 +17612,7 @@
       <c r="Z38" s="26" t="s">
         <v>1014</v>
       </c>
-      <c r="AA38" s="50" t="s">
+      <c r="AA38" s="51" t="s">
         <v>1012</v>
       </c>
       <c r="AB38" t="s">
@@ -17611,7 +17629,7 @@
       <c r="AG38" s="26" t="s">
         <v>1014</v>
       </c>
-      <c r="AH38" s="50" t="s">
+      <c r="AH38" s="51" t="s">
         <v>1012</v>
       </c>
       <c r="AI38" t="s">
@@ -17628,7 +17646,7 @@
       <c r="AN38" s="26" t="s">
         <v>1014</v>
       </c>
-      <c r="AO38" s="50" t="s">
+      <c r="AO38" s="51" t="s">
         <v>1012</v>
       </c>
       <c r="AP38" t="s">
@@ -17708,7 +17726,7 @@
       <c r="W39" t="s">
         <v>892</v>
       </c>
-      <c r="AA39" s="50"/>
+      <c r="AA39" s="51"/>
       <c r="AB39" t="s">
         <v>1010</v>
       </c>
@@ -17720,7 +17738,7 @@
         <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;11)</f>
         <v>82</v>
       </c>
-      <c r="AH39" s="50"/>
+      <c r="AH39" s="51"/>
       <c r="AI39" t="s">
         <v>1010</v>
       </c>
@@ -17732,7 +17750,7 @@
         <f>COUNTIFS($R$2:$R$120,"&lt;&gt;ICU",$N$2:$N$120,"&lt;&gt;ICU",$E$2:$E$120,"&gt;"&amp;18)</f>
         <v>59</v>
       </c>
-      <c r="AO39" s="50"/>
+      <c r="AO39" s="51"/>
       <c r="AP39" t="s">
         <v>1010</v>
       </c>
@@ -18137,6 +18155,12 @@
       <c r="W45" t="s">
         <v>878</v>
       </c>
+      <c r="Z45" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="46" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -18203,6 +18227,27 @@
       <c r="W46" s="26" t="s">
         <v>992</v>
       </c>
+      <c r="Z46" s="26" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AB46">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=6",$R$2:$R$150,"ICU")</f>
+        <v>7</v>
+      </c>
+      <c r="AC46">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=6",$R$2:$R$150,"ICU",$V$2:$V$150,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=6",$R$2:$R$150,"ICU",$U$2:$U$150,"&lt;&gt;No")</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="47" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -18266,6 +18311,35 @@
       <c r="W47" t="s">
         <v>892</v>
       </c>
+      <c r="Z47" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AB47">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=17",$R$2:$R$150,"ICU")</f>
+        <v>13</v>
+      </c>
+      <c r="AC47">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=17",$R$2:$R$150,"ICU",$V$2:$V$150,"Yes")</f>
+        <v>4</v>
+      </c>
+      <c r="AD47">
+        <f>COUNTIFS($M$2:$M$150,"&lt;=17",$R$2:$R$150,"ICU",$U$2:$U$150,"&lt;&gt;No")</f>
+        <v>1</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>847</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AJ47">
+        <f>COUNTIFS($R$2:$R$150,"ICU",$U$2:$U$150,"Yes")</f>
+        <v>4</v>
+      </c>
+      <c r="AK47">
+        <f>COUNTIFS($R$2:$R$150,"ICU",$U$2:$U$150,"No")</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="48" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -18331,6 +18405,26 @@
       </c>
       <c r="W48" s="26" t="s">
         <v>990</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>981</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AJ48">
+        <f>COUNTIFS($R$2:$R$150,"&lt;&gt;ICU",$U$2:$U$150,"Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <f>COUNTIFS($R$2:$R$150,"&lt;&gt;ICU",$U$2:$U$150,"No")</f>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.2">

--- a/data/snapshot.05062024.xlsx
+++ b/data/snapshot.05062024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelchary/Documents/GitHub/INTOXICATE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F6B1FB-0F8F-B94C-8E12-F1B092084AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E1E743-6EF0-774D-B604-224FF4D2DBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="33540" windowHeight="20020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="7800" windowWidth="38360" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tox Book" sheetId="1" r:id="rId1"/>
@@ -4837,9 +4837,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O503"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E184" sqref="E184"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14961,9 +14961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25C0DBF-50F6-4E43-B81A-8EA8A04F8EC5}">
   <dimension ref="A1:AR469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC47" sqref="AC47"/>
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O68" sqref="O68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15179,7 +15179,7 @@
         <v>138</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N66" si="0">IF($M3&gt;17,"ICU","GMF")</f>
+        <f>IF($M3&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="R3" t="s">
@@ -15240,7 +15240,7 @@
         <v>138</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M4&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="R4" t="s">
@@ -15265,30 +15265,30 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>1400616084</v>
+        <v>1401622561</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>725</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D5" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
         <v>138</v>
@@ -15303,17 +15303,20 @@
         <v>138</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M5&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O5" t="s">
         <v>847</v>
       </c>
       <c r="R5" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>879</v>
       </c>
       <c r="T5" s="26" t="s">
         <v>138</v>
@@ -15325,51 +15328,54 @@
         <v>138</v>
       </c>
       <c r="W5" s="26" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="AB5" s="33" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>1401393820</v>
-      </c>
-      <c r="C6" t="s">
-        <v>850</v>
+        <v>1400616084</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D6" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6">
         <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J6" t="s">
         <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
         <v>138</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M6&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O6" t="s">
@@ -15378,9 +15384,6 @@
       <c r="R6" t="s">
         <v>848</v>
       </c>
-      <c r="S6" s="26" t="s">
-        <v>913</v>
-      </c>
       <c r="T6" s="26" t="s">
         <v>138</v>
       </c>
@@ -15389,6 +15392,9 @@
       </c>
       <c r="V6" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W6" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="AB6" s="33" t="s">
         <v>857</v>
@@ -15396,22 +15402,22 @@
     </row>
     <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>1401393822</v>
+        <v>1401393820</v>
       </c>
       <c r="C7" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D7" t="s">
         <v>860</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G7">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -15429,10 +15435,10 @@
         <v>138</v>
       </c>
       <c r="M7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M7&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O7" t="s">
@@ -15459,53 +15465,53 @@
     </row>
     <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>1100869636</v>
+        <v>1401393822</v>
       </c>
       <c r="C8" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D8" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H8">
         <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J8" t="s">
         <v>138</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L8" t="s">
         <v>138</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M8&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O8" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R8" t="s">
         <v>848</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="T8" s="26" t="s">
         <v>138</v>
@@ -15520,27 +15526,24 @@
         <v>860</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>1101578680</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>845</v>
+        <v>1100869636</v>
+      </c>
+      <c r="C9" t="s">
+        <v>850</v>
       </c>
       <c r="D9" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E9">
         <v>10</v>
       </c>
       <c r="F9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G9">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -15552,64 +15555,61 @@
         <v>138</v>
       </c>
       <c r="K9" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s">
         <v>138</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M9&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O9" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R9" t="s">
         <v>848</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="T9" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" s="42" t="s">
+        <v>929</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U9" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V9" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W9" t="s">
-        <v>991</v>
       </c>
       <c r="AB9" s="33" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>1009826465</v>
+        <v>1101578680</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D10" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -15621,35 +15621,38 @@
         <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L10" t="s">
         <v>138</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M10&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O10" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R10" t="s">
         <v>848</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>883</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U10" s="26" t="s">
+        <v>867</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U10" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V10" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W10" t="s">
+        <v>991</v>
       </c>
       <c r="AB10" s="33" t="s">
         <v>855</v>
@@ -15657,25 +15660,25 @@
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>1203506199</v>
+        <v>1009826465</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D11" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E11">
         <v>12</v>
       </c>
       <c r="F11">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G11">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -15693,10 +15696,10 @@
         <v>138</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M11&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O11" t="s">
@@ -15706,7 +15709,7 @@
         <v>848</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>414</v>
+        <v>883</v>
       </c>
       <c r="T11" s="26" t="s">
         <v>138</v>
@@ -15717,31 +15720,31 @@
       <c r="V11" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W11" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1203506199</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="C12" t="s">
         <v>845</v>
       </c>
       <c r="D12" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
       <c r="F12">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G12">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
         <v>138</v>
@@ -15756,10 +15759,10 @@
         <v>138</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M12&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O12" t="s">
@@ -15769,7 +15772,7 @@
         <v>848</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>906</v>
+        <v>414</v>
       </c>
       <c r="T12" s="26" t="s">
         <v>138</v>
@@ -15784,27 +15787,27 @@
         <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>1401332618</v>
+        <v>1203506199</v>
       </c>
       <c r="C13" t="s">
-        <v>908</v>
+        <v>845</v>
       </c>
       <c r="D13" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G13">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
         <v>138</v>
@@ -15813,26 +15816,26 @@
         <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
         <v>138</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M13&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O13" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R13" t="s">
         <v>848</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="T13" s="26" t="s">
         <v>138</v>
@@ -15847,24 +15850,24 @@
         <v>878</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>1010313203</v>
+        <v>1401332618</v>
       </c>
       <c r="C14" t="s">
-        <v>845</v>
+        <v>908</v>
       </c>
       <c r="D14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G14">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H14">
         <v>15</v>
@@ -15882,10 +15885,10 @@
         <v>138</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M14&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O14" t="s">
@@ -15895,42 +15898,39 @@
         <v>848</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>916</v>
-      </c>
-      <c r="T14" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U14" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V14" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V14" s="26" t="s">
         <v>138</v>
       </c>
       <c r="W14" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>1009487000</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>1010313203</v>
+      </c>
+      <c r="C15" t="s">
         <v>845</v>
       </c>
       <c r="D15" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G15">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H15">
         <v>15</v>
@@ -15942,53 +15942,61 @@
         <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L15" t="s">
         <v>138</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M15&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O15" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R15" t="s">
         <v>848</v>
       </c>
+      <c r="S15" s="26" t="s">
+        <v>916</v>
+      </c>
       <c r="T15" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V15" s="42"/>
-    </row>
-    <row r="16" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+      <c r="V15" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>1009024651</v>
+        <v>1009487000</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>311</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D16" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G16">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -16000,43 +16008,41 @@
         <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
         <v>138</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M16&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O16" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R16" t="s">
         <v>848</v>
       </c>
-      <c r="S16" s="26" t="s">
-        <v>877</v>
-      </c>
-      <c r="T16" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U16" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="T16" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U16" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="42"/>
+    </row>
+    <row r="17" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>1203342736</v>
-      </c>
-      <c r="C17" t="s">
-        <v>845</v>
+        <v>1009024651</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D17" t="s">
         <v>846</v>
@@ -16045,10 +16051,10 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -16066,10 +16072,10 @@
         <v>138</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M17&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O17" t="s">
@@ -16079,7 +16085,7 @@
         <v>848</v>
       </c>
       <c r="S17" s="26" t="s">
-        <v>930</v>
+        <v>877</v>
       </c>
       <c r="T17" s="26" t="s">
         <v>138</v>
@@ -16089,9 +16095,6 @@
       </c>
       <c r="V17" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W17" t="s">
-        <v>878</v>
       </c>
       <c r="AB17" t="s">
         <v>868</v>
@@ -16108,25 +16111,22 @@
     </row>
     <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>1008508665</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>850</v>
+        <v>1203342736</v>
+      </c>
+      <c r="C18" t="s">
+        <v>845</v>
       </c>
       <c r="D18" t="s">
         <v>846</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G18">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H18">
         <v>15</v>
@@ -16138,26 +16138,26 @@
         <v>138</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L18" t="s">
         <v>138</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M18&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O18" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R18" t="s">
         <v>848</v>
       </c>
       <c r="S18" s="26" t="s">
-        <v>178</v>
+        <v>930</v>
       </c>
       <c r="T18" s="26" t="s">
         <v>138</v>
@@ -16167,6 +16167,9 @@
       </c>
       <c r="V18" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W18" t="s">
+        <v>878</v>
       </c>
       <c r="AB18" t="s">
         <v>847</v>
@@ -16184,7 +16187,7 @@
         <v>4</v>
       </c>
       <c r="AF18">
-        <f t="shared" ref="AF18:AF20" si="1">ROUND(100*AE18/AE$21,0)</f>
+        <f t="shared" ref="AF18:AF20" si="0">ROUND(100*AE18/AE$21,0)</f>
         <v>17</v>
       </c>
       <c r="AG18">
@@ -16192,34 +16195,31 @@
         <v>16</v>
       </c>
       <c r="AH18">
-        <f t="shared" ref="AH18:AH20" si="2">ROUND(100*AG18/AG$21,0)</f>
+        <f t="shared" ref="AH18:AH20" si="1">ROUND(100*AG18/AG$21,0)</f>
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>1011109716</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>1401374927</v>
+      </c>
+      <c r="C19" t="s">
         <v>850</v>
       </c>
       <c r="D19" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G19">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I19" t="s">
         <v>138</v>
@@ -16228,26 +16228,26 @@
         <v>138</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L19" t="s">
         <v>138</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M19&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O19" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S19" s="26" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="T19" s="26" t="s">
         <v>138</v>
@@ -16256,7 +16256,10 @@
         <v>138</v>
       </c>
       <c r="V19" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
+      </c>
+      <c r="W19" t="s">
+        <v>920</v>
       </c>
       <c r="AB19" t="s">
         <v>852</v>
@@ -16266,7 +16269,7 @@
         <v>16</v>
       </c>
       <c r="AD19">
-        <f t="shared" ref="AD19:AD20" si="3">ROUND(100*AC19/AC$21,0)</f>
+        <f t="shared" ref="AD19:AD20" si="2">ROUND(100*AC19/AC$21,0)</f>
         <v>16</v>
       </c>
       <c r="AE19">
@@ -16274,7 +16277,7 @@
         <v>2</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AG19">
@@ -16282,28 +16285,31 @@
         <v>14</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>1401373597</v>
-      </c>
-      <c r="C20" t="s">
-        <v>845</v>
+        <v>1008508665</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D20" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E20">
         <v>15</v>
       </c>
       <c r="F20">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G20">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="H20">
         <v>15</v>
@@ -16321,10 +16327,10 @@
         <v>138</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M20&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O20" t="s">
@@ -16334,19 +16340,16 @@
         <v>848</v>
       </c>
       <c r="S20" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="T20" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V20" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W20" t="s">
-        <v>878</v>
+        <v>178</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U20" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V20" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="AB20" t="s">
         <v>848</v>
@@ -16356,7 +16359,7 @@
         <v>67</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="AE20">
@@ -16364,7 +16367,7 @@
         <v>18</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="AG20">
@@ -16372,16 +16375,16 @@
         <v>47</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>1401251362</v>
+        <v>1011109716</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>850</v>
@@ -16390,16 +16393,16 @@
         <v>857</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G21">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
         <v>138</v>
@@ -16417,7 +16420,7 @@
         <v>5</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M21&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O21" t="s">
@@ -16451,24 +16454,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>1008177567</v>
+        <v>1401373597</v>
       </c>
       <c r="C22" t="s">
         <v>845</v>
       </c>
       <c r="D22" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G22">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H22">
         <v>15</v>
@@ -16486,10 +16489,10 @@
         <v>138</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M22&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O22" t="s">
@@ -16499,7 +16502,7 @@
         <v>848</v>
       </c>
       <c r="S22" s="26" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="T22" s="42" t="s">
         <v>138</v>
@@ -16510,28 +16513,31 @@
       <c r="V22" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+      <c r="W22" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>1401138268</v>
+        <v>1008550250</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D23" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G23">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H23">
         <v>15</v>
@@ -16543,23 +16549,26 @@
         <v>138</v>
       </c>
       <c r="K23" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s">
         <v>138</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M23&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O23" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R23" t="s">
-        <v>848</v>
+        <v>852</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="T23" s="26" t="s">
         <v>138</v>
@@ -16570,8 +16579,8 @@
       <c r="V23" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W23" s="26" t="s">
-        <v>990</v>
+      <c r="W23" t="s">
+        <v>880</v>
       </c>
       <c r="AB23" t="s">
         <v>1006</v>
@@ -16583,19 +16592,22 @@
     </row>
     <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>1400041383</v>
+        <v>1400059656</v>
+      </c>
+      <c r="B24" t="s">
+        <v>784</v>
       </c>
       <c r="C24" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D24" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G24">
         <v>119</v>
@@ -16610,26 +16622,26 @@
         <v>138</v>
       </c>
       <c r="K24" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s">
         <v>138</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M24&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O24" t="s">
+        <v>852</v>
+      </c>
+      <c r="R24" t="s">
         <v>847</v>
       </c>
-      <c r="R24" t="s">
-        <v>848</v>
-      </c>
       <c r="S24" s="26" t="s">
-        <v>907</v>
+        <v>178</v>
       </c>
       <c r="T24" s="26" t="s">
         <v>138</v>
@@ -16638,33 +16650,33 @@
         <v>138</v>
       </c>
       <c r="V24" s="26" t="s">
-        <v>138</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>1201301817</v>
+        <v>1401251362</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>357</v>
+        <v>384</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D25" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="G25">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
         <v>138</v>
@@ -16673,26 +16685,26 @@
         <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
         <v>138</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M25&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O25" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R25" t="s">
         <v>848</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>356</v>
+        <v>879</v>
       </c>
       <c r="T25" s="26" t="s">
         <v>138</v>
@@ -16702,32 +16714,26 @@
       </c>
       <c r="V25" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W25" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>1102506734</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="1" t="s">
+        <v>1008177567</v>
+      </c>
+      <c r="C26" t="s">
         <v>845</v>
       </c>
       <c r="D26" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G26">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H26">
         <v>15</v>
@@ -16739,58 +16745,58 @@
         <v>138</v>
       </c>
       <c r="K26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s">
         <v>138</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M26&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O26" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R26" t="s">
         <v>848</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>881</v>
-      </c>
-      <c r="T26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V26" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W26" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+      <c r="T26" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U26" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V26" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>1401380766</v>
-      </c>
-      <c r="C27" t="s">
-        <v>850</v>
+        <v>1401138268</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D27" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E27">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27">
         <v>115</v>
       </c>
       <c r="G27">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H27">
         <v>15</v>
@@ -16808,10 +16814,10 @@
         <v>138</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M27&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O27" t="s">
@@ -16820,17 +16826,17 @@
       <c r="R27" t="s">
         <v>848</v>
       </c>
-      <c r="S27" s="26" t="s">
-        <v>922</v>
-      </c>
-      <c r="T27" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U27" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V27" s="42" t="s">
-        <v>138</v>
+      <c r="T27" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W27" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="Z27" t="s">
         <v>1008</v>
@@ -16838,25 +16844,22 @@
     </row>
     <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>1401239791</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>845</v>
+        <v>1400041383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>850</v>
       </c>
       <c r="D28" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="G28">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H28">
         <v>15</v>
@@ -16868,26 +16871,26 @@
         <v>138</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L28" t="s">
         <v>138</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M28&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O28" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R28" t="s">
         <v>848</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>345</v>
+        <v>907</v>
       </c>
       <c r="T28" s="26" t="s">
         <v>138</v>
@@ -16897,9 +16900,6 @@
       </c>
       <c r="V28" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W28" t="s">
-        <v>878</v>
       </c>
       <c r="AC28" s="50" t="s">
         <v>1011</v>
@@ -16908,25 +16908,25 @@
     </row>
     <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>1401369966</v>
+        <v>1401210342</v>
       </c>
       <c r="C29" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D29" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F29">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G29">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H29">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I29" t="s">
         <v>731</v>
@@ -16941,29 +16941,32 @@
         <v>138</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M29&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O29" t="s">
         <v>852</v>
       </c>
       <c r="R29" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>913</v>
-      </c>
-      <c r="T29" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U29" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V29" s="42" t="s">
-        <v>985</v>
+        <v>895</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V29" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W29" t="s">
+        <v>878</v>
       </c>
       <c r="AC29" t="s">
         <v>847</v>
@@ -16972,12 +16975,12 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>1401161378</v>
+        <v>1400775825</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>850</v>
@@ -16986,19 +16989,19 @@
         <v>857</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="G30">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J30" t="s">
         <v>138</v>
@@ -17010,17 +17013,20 @@
         <v>138</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="0"/>
-        <v>GMF</v>
+        <f>IF($M30&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O30" t="s">
         <v>847</v>
       </c>
       <c r="R30" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>876</v>
       </c>
       <c r="T30" s="26" t="s">
         <v>138</v>
@@ -17032,7 +17038,7 @@
         <v>138</v>
       </c>
       <c r="W30" s="26" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="Z30" s="26" t="s">
         <v>1009</v>
@@ -17054,10 +17060,10 @@
     </row>
     <row r="31" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>1401098593</v>
+        <v>1201301817</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>845</v>
@@ -17066,13 +17072,13 @@
         <v>854</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="G31">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="H31">
         <v>15</v>
@@ -17084,24 +17090,27 @@
         <v>138</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L31" t="s">
         <v>138</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M31&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O31" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R31" t="s">
         <v>848</v>
       </c>
+      <c r="S31" s="26" t="s">
+        <v>356</v>
+      </c>
       <c r="T31" s="26" t="s">
         <v>138</v>
       </c>
@@ -17110,6 +17119,9 @@
       </c>
       <c r="V31" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W31" t="s">
+        <v>878</v>
       </c>
       <c r="AA31" s="51"/>
       <c r="AB31" t="s">
@@ -17126,25 +17138,25 @@
     </row>
     <row r="32" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>1401224985</v>
+        <v>1102506734</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D32" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -17162,18 +17174,21 @@
         <v>138</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M32&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O32" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R32" t="s">
         <v>848</v>
       </c>
+      <c r="S32" s="26" t="s">
+        <v>881</v>
+      </c>
       <c r="T32" s="26" t="s">
         <v>138</v>
       </c>
@@ -17182,6 +17197,9 @@
       </c>
       <c r="V32" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W32" t="s">
+        <v>878</v>
       </c>
       <c r="AC32" t="s">
         <v>1013</v>
@@ -17196,25 +17214,22 @@
     </row>
     <row r="33" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>1401250968</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>845</v>
+        <v>1401380766</v>
+      </c>
+      <c r="C33" t="s">
+        <v>850</v>
       </c>
       <c r="D33" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="G33">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="H33">
         <v>15</v>
@@ -17226,64 +17241,61 @@
         <v>138</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L33" t="s">
         <v>138</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M33&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O33" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R33" t="s">
         <v>848</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="T33" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U33" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V33" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W33" t="s">
-        <v>878</v>
+        <v>922</v>
+      </c>
+      <c r="T33" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U33" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V33" s="42" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>1102874529</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>845</v>
+        <v>1401096023</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>850</v>
       </c>
       <c r="D34" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F34">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="G34">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
         <v>138</v>
@@ -17292,26 +17304,26 @@
         <v>138</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L34" t="s">
         <v>138</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M34&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O34" t="s">
         <v>852</v>
       </c>
       <c r="R34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S34" s="26" t="s">
-        <v>728</v>
+        <v>858</v>
       </c>
       <c r="T34" s="26" t="s">
         <v>138</v>
@@ -17319,28 +17331,31 @@
       <c r="U34" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V34" s="26" t="s">
-        <v>138</v>
+      <c r="W34" s="26" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>1400712166</v>
-      </c>
-      <c r="C35" t="s">
+        <v>1401239791</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D35" t="s">
         <v>846</v>
       </c>
       <c r="E35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G35">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H35">
         <v>15</v>
@@ -17358,10 +17373,10 @@
         <v>138</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M35&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O35" t="s">
@@ -17371,7 +17386,7 @@
         <v>848</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>925</v>
+        <v>345</v>
       </c>
       <c r="T35" s="26" t="s">
         <v>138</v>
@@ -17402,31 +17417,28 @@
     </row>
     <row r="36" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>1008108363</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>850</v>
+        <v>1401369966</v>
+      </c>
+      <c r="C36" t="s">
+        <v>845</v>
       </c>
       <c r="D36" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="E36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F36">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G36">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H36">
         <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J36" t="s">
         <v>138</v>
@@ -17438,10 +17450,10 @@
         <v>138</v>
       </c>
       <c r="M36">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M36&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O36" t="s">
@@ -17450,11 +17462,17 @@
       <c r="R36" t="s">
         <v>848</v>
       </c>
+      <c r="S36" s="26" t="s">
+        <v>913</v>
+      </c>
       <c r="T36" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U36" s="42" t="s">
         <v>138</v>
+      </c>
+      <c r="V36" s="42" t="s">
+        <v>985</v>
       </c>
       <c r="AC36" s="50" t="s">
         <v>1011</v>
@@ -17469,24 +17487,27 @@
       </c>
       <c r="AR36" s="50"/>
     </row>
-    <row r="37" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1400877154</v>
-      </c>
-      <c r="C37" t="s">
-        <v>845</v>
+        <v>1401161378</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D37" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F37">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="G37">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H37">
         <v>15</v>
@@ -17498,38 +17519,35 @@
         <v>138</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L37" t="s">
         <v>138</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M37&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O37" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R37" t="s">
         <v>848</v>
       </c>
-      <c r="S37" s="26" t="s">
-        <v>918</v>
-      </c>
-      <c r="T37" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U37" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V37" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W37" t="s">
-        <v>878</v>
+      <c r="T37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V37" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W37" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="AC37" t="s">
         <v>847</v>
@@ -17552,22 +17570,25 @@
     </row>
     <row r="38" spans="1:44" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>1003435007</v>
-      </c>
-      <c r="C38" t="s">
-        <v>850</v>
+        <v>1401098593</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D38" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E38">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F38">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G38">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H38">
         <v>15</v>
@@ -17585,10 +17606,10 @@
         <v>138</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M38&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O38" t="s">
@@ -17596,9 +17617,6 @@
       </c>
       <c r="R38" t="s">
         <v>848</v>
-      </c>
-      <c r="S38" s="26" t="s">
-        <v>910</v>
       </c>
       <c r="T38" s="26" t="s">
         <v>138</v>
@@ -17661,27 +17679,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:44" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="38">
-        <v>1401645430</v>
+    <row r="39" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1401224985</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>757</v>
+        <v>318</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D39" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="E39">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F39">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G39">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="H39">
         <v>15</v>
@@ -17699,21 +17717,18 @@
         <v>138</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M39&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O39" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R39" t="s">
         <v>848</v>
       </c>
-      <c r="S39" s="26" t="s">
-        <v>893</v>
-      </c>
       <c r="T39" s="26" t="s">
         <v>138</v>
       </c>
@@ -17722,9 +17737,6 @@
       </c>
       <c r="V39" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W39" t="s">
-        <v>892</v>
       </c>
       <c r="AA39" s="51"/>
       <c r="AB39" t="s">
@@ -17765,25 +17777,25 @@
     </row>
     <row r="40" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>1401090590</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
+        <v>1401250968</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D40" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E40">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G40">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H40">
         <v>15</v>
@@ -17801,10 +17813,10 @@
         <v>138</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M40&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O40" t="s">
@@ -17814,13 +17826,19 @@
         <v>848</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>853</v>
+        <v>178</v>
       </c>
       <c r="T40" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U40" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="V40" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W40" t="s">
+        <v>878</v>
       </c>
       <c r="AC40" t="s">
         <v>1013</v>
@@ -17848,23 +17866,26 @@
       </c>
     </row>
     <row r="41" spans="1:44" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
-        <v>1004993792</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="A41" s="2">
+        <v>1102874529</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D41" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E41">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G41">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H41">
         <v>15</v>
@@ -17882,10 +17903,10 @@
         <v>138</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M41&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O41" t="s">
@@ -17894,8 +17915,8 @@
       <c r="R41" t="s">
         <v>848</v>
       </c>
-      <c r="S41" s="17" t="s">
-        <v>435</v>
+      <c r="S41" s="26" t="s">
+        <v>728</v>
       </c>
       <c r="T41" s="26" t="s">
         <v>138</v>
@@ -17905,32 +17926,26 @@
       </c>
       <c r="V41" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W41" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="42" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1102295028</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>333</v>
+        <v>1400712166</v>
       </c>
       <c r="C42" t="s">
         <v>845</v>
       </c>
       <c r="D42" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E42">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G42">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="H42">
         <v>15</v>
@@ -17948,10 +17963,10 @@
         <v>138</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M42&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O42" t="s">
@@ -17961,7 +17976,7 @@
         <v>848</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="T42" s="26" t="s">
         <v>138</v>
@@ -17972,28 +17987,31 @@
       <c r="V42" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="43" spans="1:44" ht="32" x14ac:dyDescent="0.2">
+      <c r="W42" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>1401192570</v>
+        <v>1008108363</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D43" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E43">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G43">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H43">
         <v>15</v>
@@ -18011,10 +18029,10 @@
         <v>138</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M43&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O43" t="s">
@@ -18023,40 +18041,31 @@
       <c r="R43" t="s">
         <v>848</v>
       </c>
-      <c r="S43" s="26" t="s">
-        <v>872</v>
-      </c>
       <c r="T43" s="42" t="s">
         <v>138</v>
       </c>
       <c r="U43" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V43" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>1100390034</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>1400877154</v>
+      </c>
+      <c r="C44" t="s">
         <v>845</v>
       </c>
       <c r="D44" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="E44">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F44">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G44">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H44">
         <v>15</v>
@@ -18074,10 +18083,10 @@
         <v>138</v>
       </c>
       <c r="M44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M44&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O44" t="s">
@@ -18086,62 +18095,71 @@
       <c r="R44" t="s">
         <v>848</v>
       </c>
-      <c r="T44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U44" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V44" s="26" t="s">
-        <v>138</v>
+      <c r="S44" s="26" t="s">
+        <v>918</v>
+      </c>
+      <c r="T44" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U44" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V44" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W44" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1401315092</v>
+        <v>1401369977</v>
       </c>
       <c r="C45" t="s">
         <v>850</v>
       </c>
       <c r="D45" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E45">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F45">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="G45">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H45">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J45" t="s">
         <v>138</v>
       </c>
       <c r="K45" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L45" t="s">
         <v>138</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M45&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O45" t="s">
+        <v>852</v>
+      </c>
+      <c r="R45" t="s">
         <v>847</v>
       </c>
-      <c r="R45" t="s">
-        <v>848</v>
+      <c r="S45" s="26" t="s">
+        <v>913</v>
       </c>
       <c r="T45" s="42" t="s">
         <v>138</v>
@@ -18150,10 +18168,7 @@
         <v>138</v>
       </c>
       <c r="V45" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W45" t="s">
-        <v>878</v>
+        <v>985</v>
       </c>
       <c r="Z45" t="s">
         <v>1018</v>
@@ -18162,27 +18177,24 @@
         <v>981</v>
       </c>
     </row>
-    <row r="46" spans="1:44" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:44" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>1401206978</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>845</v>
+        <v>1003435007</v>
+      </c>
+      <c r="C46" t="s">
+        <v>850</v>
       </c>
       <c r="D46" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E46">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F46">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G46">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H46">
         <v>15</v>
@@ -18200,10 +18212,10 @@
         <v>138</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M46&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O46" t="s">
@@ -18213,7 +18225,7 @@
         <v>848</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>874</v>
+        <v>910</v>
       </c>
       <c r="T46" s="26" t="s">
         <v>138</v>
@@ -18223,9 +18235,6 @@
       </c>
       <c r="V46" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W46" s="26" t="s">
-        <v>992</v>
       </c>
       <c r="Z46" s="26" t="s">
         <v>1019</v>
@@ -18251,53 +18260,56 @@
     </row>
     <row r="47" spans="1:44" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>1007340188</v>
-      </c>
-      <c r="C47" t="s">
-        <v>850</v>
+        <v>1103414115</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D47" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E47">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F47">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="G47">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H47">
         <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J47" t="s">
         <v>138</v>
       </c>
       <c r="K47" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L47" t="s">
         <v>138</v>
       </c>
       <c r="M47">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="0"/>
-        <v>GMF</v>
+        <f>IF($M47&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O47" t="s">
+        <v>847</v>
+      </c>
+      <c r="R47" t="s">
         <v>852</v>
       </c>
-      <c r="R47" t="s">
-        <v>848</v>
-      </c>
       <c r="S47" s="26" t="s">
-        <v>912</v>
+        <v>219</v>
       </c>
       <c r="T47" s="26" t="s">
         <v>138</v>
@@ -18308,8 +18320,8 @@
       <c r="V47" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W47" t="s">
-        <v>892</v>
+      <c r="W47" s="26" t="s">
+        <v>990</v>
       </c>
       <c r="Z47" t="s">
         <v>1020</v>
@@ -18341,27 +18353,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:44" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>1401207030</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="1:44" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1401325082</v>
+      </c>
+      <c r="C48" t="s">
         <v>850</v>
       </c>
       <c r="D48" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E48">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F48">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G48">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="H48">
         <v>15</v>
@@ -18373,38 +18382,35 @@
         <v>138</v>
       </c>
       <c r="K48" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L48" t="s">
         <v>138</v>
       </c>
       <c r="M48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M48&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O48" t="s">
+        <v>852</v>
+      </c>
+      <c r="R48" t="s">
         <v>847</v>
       </c>
-      <c r="R48" t="s">
-        <v>848</v>
-      </c>
       <c r="S48" s="26" t="s">
-        <v>875</v>
-      </c>
-      <c r="T48" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U48" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V48" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W48" s="26" t="s">
-        <v>990</v>
+        <v>905</v>
+      </c>
+      <c r="T48" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U48" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V48" s="42" t="s">
+        <v>985</v>
       </c>
       <c r="AB48" t="s">
         <v>1006</v>
@@ -18429,28 +18435,28 @@
     </row>
     <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>1000024972</v>
+        <v>1002666748</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>390</v>
+        <v>734</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D49" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E49">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F49">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G49">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="H49">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I49" t="s">
         <v>731</v>
@@ -18465,103 +18471,103 @@
         <v>138</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="0"/>
-        <v>GMF</v>
+        <f>IF($M49&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O49" t="s">
         <v>847</v>
       </c>
       <c r="R49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S49" s="26" t="s">
-        <v>389</v>
+        <v>733</v>
       </c>
       <c r="T49" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="V49" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="W49" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>1000326621</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="1" t="s">
+        <v>1401359722</v>
+      </c>
+      <c r="C50" t="s">
         <v>850</v>
       </c>
       <c r="D50" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E50">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F50">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G50">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H50">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J50" t="s">
         <v>138</v>
       </c>
       <c r="K50" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L50" t="s">
         <v>138</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="0"/>
-        <v>GMF</v>
+        <f>IF($M50&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O50" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="T50" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="V50" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
-        <v>1101568757</v>
+        <v>731</v>
+      </c>
+      <c r="W50" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
+        <v>1401645430</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>845</v>
@@ -18570,13 +18576,13 @@
         <v>862</v>
       </c>
       <c r="E51">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F51">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G51">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H51">
         <v>15</v>
@@ -18588,16 +18594,16 @@
         <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L51" t="s">
         <v>138</v>
       </c>
       <c r="M51">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M51&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O51" t="s">
@@ -18607,7 +18613,7 @@
         <v>848</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="T51" s="26" t="s">
         <v>138</v>
@@ -18624,25 +18630,25 @@
     </row>
     <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>1001720769</v>
+        <v>1401090590</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D52" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E52">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F52">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G52">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -18660,10 +18666,10 @@
         <v>138</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M52&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O52" t="s">
@@ -18673,7 +18679,7 @@
         <v>848</v>
       </c>
       <c r="S52" s="26" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="T52" s="26" t="s">
         <v>138</v>
@@ -18683,23 +18689,23 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>1205450202</v>
+      <c r="A53" s="38">
+        <v>1004993792</v>
       </c>
       <c r="C53" t="s">
         <v>845</v>
       </c>
       <c r="D53" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F53">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G53">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="H53">
         <v>15</v>
@@ -18711,58 +18717,61 @@
         <v>138</v>
       </c>
       <c r="K53" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s">
         <v>138</v>
       </c>
       <c r="M53">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M53&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O53" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R53" t="s">
         <v>848</v>
       </c>
-      <c r="S53" s="26" t="s">
-        <v>921</v>
-      </c>
-      <c r="T53" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U53" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V53" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W53" s="42" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="S53" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V53" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W53" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>1401382217</v>
+        <v>1102295028</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D54" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E54">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F54">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G54">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H54">
         <v>15</v>
@@ -18774,118 +18783,118 @@
         <v>138</v>
       </c>
       <c r="K54" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s">
         <v>138</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M54&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O54" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R54" t="s">
         <v>848</v>
       </c>
       <c r="S54" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="T54" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U54" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V54" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W54" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>896</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U54" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V54" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1006629455</v>
-      </c>
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="s">
-        <v>845</v>
+        <v>1401192570</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D55" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E55">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F55">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G55">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="H55">
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
         <v>138</v>
       </c>
       <c r="K55" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s">
         <v>138</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M55&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O55" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R55" t="s">
         <v>848</v>
       </c>
       <c r="S55" s="26" t="s">
-        <v>861</v>
-      </c>
-      <c r="T55" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U55" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="T55" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U55" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V55" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
-        <v>1401159022</v>
-      </c>
-      <c r="B56" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="38" t="s">
+      <c r="A56" s="2">
+        <v>1100390034</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D56" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E56">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F56">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="G56">
         <v>115</v>
@@ -18900,53 +18909,52 @@
         <v>138</v>
       </c>
       <c r="K56" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s">
         <v>138</v>
       </c>
       <c r="M56">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M56&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O56" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R56" t="s">
         <v>848</v>
       </c>
-      <c r="T56" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U56" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42" t="s">
-        <v>991</v>
+      <c r="T56" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U56" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V56" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1005430532</v>
+        <v>1401315092</v>
       </c>
       <c r="C57" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D57" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E57">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F57">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G57">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="H57">
         <v>15</v>
@@ -18958,27 +18966,24 @@
         <v>138</v>
       </c>
       <c r="K57" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L57" t="s">
         <v>138</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M57&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O57" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R57" t="s">
         <v>848</v>
       </c>
-      <c r="S57" s="26" t="s">
-        <v>915</v>
-      </c>
       <c r="T57" s="42" t="s">
         <v>138</v>
       </c>
@@ -18988,28 +18993,31 @@
       <c r="V57" s="42" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="W57" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>1101010685</v>
+        <v>1401206978</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D58" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E58">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F58">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G58">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H58">
         <v>15</v>
@@ -19027,10 +19035,10 @@
         <v>138</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M58&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O58" t="s">
@@ -19039,6 +19047,9 @@
       <c r="R58" t="s">
         <v>848</v>
       </c>
+      <c r="S58" s="26" t="s">
+        <v>874</v>
+      </c>
       <c r="T58" s="26" t="s">
         <v>138</v>
       </c>
@@ -19047,29 +19058,29 @@
       </c>
       <c r="V58" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W58" s="26" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1007809059</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>1009368877</v>
+      </c>
+      <c r="C59" t="s">
         <v>845</v>
       </c>
       <c r="D59" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E59">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F59">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G59">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H59">
         <v>15</v>
@@ -19087,83 +19098,77 @@
         <v>138</v>
       </c>
       <c r="M59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M59&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O59" t="s">
         <v>847</v>
       </c>
       <c r="R59" t="s">
-        <v>848</v>
-      </c>
-      <c r="T59" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U59" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V59" s="26" t="s">
+        <v>852</v>
+      </c>
+      <c r="S59" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="W59" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1401249635</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D60" t="s">
+        <v>862</v>
+      </c>
+      <c r="E60">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>162</v>
+      </c>
+      <c r="G60">
+        <v>170</v>
+      </c>
+      <c r="H60">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>138</v>
+      </c>
+      <c r="J60" t="s">
+        <v>138</v>
+      </c>
+      <c r="K60" t="s">
         <v>731</v>
       </c>
-      <c r="W59" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A60" s="38">
-        <v>1200624653</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D60" t="s">
-        <v>855</v>
-      </c>
-      <c r="E60">
-        <v>43</v>
-      </c>
-      <c r="F60">
-        <v>79</v>
-      </c>
-      <c r="G60">
-        <v>120</v>
-      </c>
-      <c r="H60">
-        <v>15</v>
-      </c>
-      <c r="I60" t="s">
-        <v>138</v>
-      </c>
-      <c r="J60" t="s">
-        <v>138</v>
-      </c>
-      <c r="K60" t="s">
-        <v>138</v>
-      </c>
       <c r="L60" t="s">
         <v>138</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M60&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O60" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R60" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S60" s="26" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="T60" s="26" t="s">
         <v>138</v>
@@ -19172,61 +19177,61 @@
         <v>138</v>
       </c>
       <c r="V60" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W60" t="s">
-        <v>878</v>
+        <v>731</v>
+      </c>
+      <c r="W60" s="26" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>1401316516</v>
+        <v>1401369968</v>
       </c>
       <c r="C61" t="s">
         <v>850</v>
       </c>
       <c r="D61" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E61">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F61">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="G61">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="H61">
         <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J61" t="s">
         <v>138</v>
       </c>
       <c r="K61" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s">
         <v>138</v>
       </c>
       <c r="M61">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M61&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O61" t="s">
+        <v>852</v>
+      </c>
+      <c r="R61" t="s">
         <v>847</v>
       </c>
-      <c r="R61" t="s">
-        <v>848</v>
-      </c>
       <c r="S61" s="26" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="T61" s="42" t="s">
         <v>138</v>
@@ -19235,100 +19240,96 @@
         <v>138</v>
       </c>
       <c r="V61" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W61" t="s">
-        <v>884</v>
+        <v>985</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>1200230428</v>
+      <c r="A62" s="1">
+        <v>1101619038</v>
       </c>
       <c r="C62" t="s">
         <v>850</v>
       </c>
       <c r="D62" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E62">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G62">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="H62">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J62" t="s">
         <v>138</v>
       </c>
       <c r="K62" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L62" t="s">
         <v>138</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="0"/>
-        <v>GMF</v>
+        <f>IF($M62&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O62" t="s">
         <v>847</v>
       </c>
       <c r="R62" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S62" s="26" t="s">
-        <v>439</v>
+        <v>901</v>
       </c>
       <c r="T62" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="U62" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="V62" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="W62" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>1401311288</v>
-      </c>
-      <c r="B63" s="1"/>
+        <v>1007340188</v>
+      </c>
       <c r="C63" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D63" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E63">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F63">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="G63">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="H63">
         <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J63" t="s">
         <v>138</v>
@@ -19340,20 +19341,20 @@
         <v>138</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M63&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O63" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R63" t="s">
         <v>848</v>
       </c>
       <c r="S63" s="26" t="s">
-        <v>861</v>
+        <v>912</v>
       </c>
       <c r="T63" s="26" t="s">
         <v>138</v>
@@ -19364,28 +19365,31 @@
       <c r="V63" s="26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="W63" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>1102644291</v>
+        <v>1401207030</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D64" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E64">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F64">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G64">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="H64">
         <v>15</v>
@@ -19397,16 +19401,16 @@
         <v>138</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L64" t="s">
         <v>138</v>
       </c>
       <c r="M64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M64&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O64" t="s">
@@ -19416,60 +19420,63 @@
         <v>848</v>
       </c>
       <c r="S64" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="T64" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U64" s="42" t="s">
+        <v>875</v>
+      </c>
+      <c r="T64" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U64" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V64" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W64" s="26" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>1102644291</v>
+        <v>1000024972</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D65" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E65">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F65">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G65">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J65" t="s">
         <v>138</v>
       </c>
       <c r="K65" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L65" t="s">
         <v>138</v>
       </c>
       <c r="M65">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M65&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O65" t="s">
@@ -19478,6 +19485,9 @@
       <c r="R65" t="s">
         <v>848</v>
       </c>
+      <c r="S65" s="26" t="s">
+        <v>389</v>
+      </c>
       <c r="T65" s="26" t="s">
         <v>138</v>
       </c>
@@ -19486,29 +19496,32 @@
       </c>
       <c r="V65" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W65" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>1205218011</v>
-      </c>
-      <c r="B66" t="s">
-        <v>801</v>
-      </c>
-      <c r="C66" t="s">
-        <v>845</v>
+        <v>1400587005</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D66" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="E66">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F66">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="G66">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H66">
         <v>15</v>
@@ -19517,58 +19530,58 @@
         <v>138</v>
       </c>
       <c r="J66" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66" t="s">
         <v>731</v>
       </c>
-      <c r="K66" t="s">
-        <v>138</v>
-      </c>
       <c r="L66" t="s">
         <v>138</v>
       </c>
       <c r="M66">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($M66&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O66" t="s">
         <v>847</v>
       </c>
       <c r="R66" t="s">
-        <v>848</v>
-      </c>
-      <c r="S66" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="T66" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U66" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+      <c r="T66" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U66" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V66" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>1009103377</v>
+        <v>1000326621</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D67" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E67">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F67">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G67">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="H67">
         <v>15</v>
@@ -19580,58 +19593,58 @@
         <v>138</v>
       </c>
       <c r="K67" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s">
         <v>138</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" ref="N67:N113" si="4">IF($M67&gt;17,"ICU","GMF")</f>
+        <f>IF($M67&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O67" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R67" t="s">
         <v>848</v>
       </c>
-      <c r="T67" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U67" s="42" t="s">
+      <c r="S67" s="26" t="s">
+        <v>873</v>
+      </c>
+      <c r="T67" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U67" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V67" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W67" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>1001694549</v>
+        <v>1101568757</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>749</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D68" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E68">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F68">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="G68">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="H68">
         <v>15</v>
@@ -19643,16 +19656,16 @@
         <v>138</v>
       </c>
       <c r="K68" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s">
         <v>138</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M68&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O68" t="s">
@@ -19661,35 +19674,43 @@
       <c r="R68" t="s">
         <v>848</v>
       </c>
-      <c r="T68" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U68" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V68" s="42"/>
-    </row>
-    <row r="69" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="S68" s="26" t="s">
+        <v>891</v>
+      </c>
+      <c r="T68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V68" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W68" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>1007329807</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>1001720769</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
         <v>850</v>
       </c>
       <c r="D69" t="s">
         <v>855</v>
       </c>
       <c r="E69">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F69">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G69">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="H69">
         <v>15</v>
@@ -19701,58 +19722,52 @@
         <v>138</v>
       </c>
       <c r="K69" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L69" t="s">
         <v>138</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M69&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O69" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R69" t="s">
         <v>848</v>
       </c>
       <c r="S69" s="26" t="s">
-        <v>870</v>
-      </c>
-      <c r="T69" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U69" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V69" s="26" t="s">
+        <v>856</v>
+      </c>
+      <c r="T69" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U69" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="38">
-        <v>1006139627</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="A70" s="2">
+        <v>1400161166</v>
+      </c>
+      <c r="C70" t="s">
         <v>845</v>
       </c>
       <c r="D70" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E70">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="G70">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H70">
         <v>15</v>
@@ -19764,53 +19779,58 @@
         <v>138</v>
       </c>
       <c r="K70" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L70" t="s">
         <v>138</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M70&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O70" t="s">
         <v>847</v>
       </c>
       <c r="R70" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="S70" s="26" t="s">
-        <v>865</v>
-      </c>
-      <c r="T70" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U70" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V70" s="42"/>
-    </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>911</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U70" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V70" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>1205055292</v>
-      </c>
-      <c r="C71" t="s">
+        <v>1102188394</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D71" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E71">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F71">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="G71">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H71">
         <v>15</v>
@@ -19822,26 +19842,23 @@
         <v>138</v>
       </c>
       <c r="K71" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L71" t="s">
         <v>138</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M71&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O71" t="s">
         <v>847</v>
       </c>
       <c r="R71" t="s">
-        <v>848</v>
-      </c>
-      <c r="S71" s="26" t="s">
-        <v>928</v>
+        <v>852</v>
       </c>
       <c r="T71" s="26" t="s">
         <v>138</v>
@@ -19851,35 +19868,35 @@
       </c>
       <c r="V71" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W71" s="26" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>1401255084</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>850</v>
+        <v>1205450202</v>
+      </c>
+      <c r="C72" t="s">
+        <v>845</v>
       </c>
       <c r="D72" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E72">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F72">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G72">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="H72">
         <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J72" t="s">
         <v>138</v>
@@ -19891,10 +19908,10 @@
         <v>138</v>
       </c>
       <c r="M72">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M72&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O72" t="s">
@@ -19904,39 +19921,39 @@
         <v>848</v>
       </c>
       <c r="S72" s="26" t="s">
-        <v>885</v>
-      </c>
-      <c r="T72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U72" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V72" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>921</v>
+      </c>
+      <c r="T72" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U72" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V72" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W72" s="42" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>1401129153</v>
-      </c>
-      <c r="B73" t="s">
-        <v>797</v>
+        <v>1401382217</v>
       </c>
       <c r="C73" t="s">
         <v>850</v>
       </c>
       <c r="D73" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E73">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="G73">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="H73">
         <v>15</v>
@@ -19948,16 +19965,16 @@
         <v>138</v>
       </c>
       <c r="K73" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L73" t="s">
         <v>138</v>
       </c>
       <c r="M73">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M73&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O73" t="s">
@@ -19967,33 +19984,42 @@
         <v>848</v>
       </c>
       <c r="S73" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="T73" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U73" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A74" s="38">
-        <v>1002234563</v>
-      </c>
-      <c r="C74" t="s">
+        <v>923</v>
+      </c>
+      <c r="T73" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U73" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V73" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W73" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>1401208505</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D74" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E74">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F74">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="G74">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="H74">
         <v>15</v>
@@ -20011,20 +20037,17 @@
         <v>138</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M74&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O74" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R74" t="s">
-        <v>848</v>
-      </c>
-      <c r="S74" s="26" t="s">
-        <v>431</v>
+        <v>852</v>
       </c>
       <c r="T74" s="26" t="s">
         <v>138</v>
@@ -20038,43 +20061,46 @@
     </row>
     <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>1102881845</v>
+        <v>1006629455</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
       </c>
       <c r="C75" t="s">
         <v>845</v>
       </c>
       <c r="D75" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E75">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F75">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="G75">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="H75">
         <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J75" t="s">
         <v>138</v>
       </c>
       <c r="K75" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L75" t="s">
         <v>138</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M75&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O75" t="s">
@@ -20083,43 +20109,43 @@
       <c r="R75" t="s">
         <v>848</v>
       </c>
+      <c r="S75" s="26" t="s">
+        <v>861</v>
+      </c>
       <c r="T75" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U75" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="V75" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W75" t="s">
-        <v>878</v>
-      </c>
     </row>
     <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>1400105541</v>
+      <c r="A76" s="1">
+        <v>1005149298</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C76" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D76" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E76">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G76">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="H76">
         <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J76" t="s">
         <v>138</v>
@@ -20134,17 +20160,17 @@
         <v>9</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M76&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O76" t="s">
         <v>847</v>
       </c>
       <c r="R76" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="S76" s="26" t="s">
-        <v>861</v>
+        <v>897</v>
       </c>
       <c r="T76" s="26" t="s">
         <v>138</v>
@@ -20153,33 +20179,33 @@
         <v>138</v>
       </c>
       <c r="V76" s="26" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="W76" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
-        <v>1008550250</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="A77" s="38">
+        <v>1401159022</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="38" t="s">
         <v>845</v>
       </c>
       <c r="D77" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="E77">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F77">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G77">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H77">
         <v>15</v>
@@ -20191,64 +20217,62 @@
         <v>138</v>
       </c>
       <c r="K77" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L77" t="s">
         <v>138</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M77&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O77" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R77" t="s">
-        <v>852</v>
-      </c>
-      <c r="S77" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="T77" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U77" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V77" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W77" t="s">
-        <v>880</v>
+        <v>848</v>
+      </c>
+      <c r="T77" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U77" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>1401210342</v>
-      </c>
-      <c r="C78" t="s">
+        <v>1401281866</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D78" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F78">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G78">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H78">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J78" t="s">
         <v>138</v>
@@ -20263,17 +20287,17 @@
         <v>6</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M78&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O78" t="s">
         <v>852</v>
       </c>
       <c r="R78" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="S78" s="26" t="s">
-        <v>895</v>
+        <v>178</v>
       </c>
       <c r="T78" s="26" t="s">
         <v>138</v>
@@ -20282,96 +20306,90 @@
         <v>138</v>
       </c>
       <c r="V78" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W78" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>1103414115</v>
+        <v>1102416341</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D79" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="E79">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F79">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G79">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H79">
         <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
         <v>138</v>
       </c>
       <c r="K79" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L79" t="s">
         <v>138</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M79&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O79" t="s">
         <v>847</v>
       </c>
       <c r="R79" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="S79" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="T79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U79" s="26" t="s">
+        <v>871</v>
+      </c>
+      <c r="T79" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U79" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V79" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W79" s="26" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
     </row>
     <row r="80" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>1009368877</v>
+        <v>1010017969</v>
       </c>
       <c r="C80" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D80" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F80">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="G80">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H80">
         <v>15</v>
@@ -20389,46 +20407,52 @@
         <v>138</v>
       </c>
       <c r="M80">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M80&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O80" t="s">
+        <v>852</v>
+      </c>
+      <c r="R80" t="s">
         <v>847</v>
       </c>
-      <c r="R80" t="s">
-        <v>852</v>
-      </c>
       <c r="S80" s="26" t="s">
-        <v>904</v>
-      </c>
-      <c r="W80" t="s">
-        <v>878</v>
+        <v>858</v>
+      </c>
+      <c r="T80" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U80" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V80" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W80" s="42" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="81" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>1400587005</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>850</v>
+        <v>1005430532</v>
+      </c>
+      <c r="C81" t="s">
+        <v>845</v>
       </c>
       <c r="D81" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E81">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F81">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="G81">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H81">
         <v>15</v>
@@ -20440,23 +20464,26 @@
         <v>138</v>
       </c>
       <c r="K81" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L81" t="s">
         <v>138</v>
       </c>
       <c r="M81">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M81&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O81" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R81" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="S81" s="26" t="s">
+        <v>915</v>
       </c>
       <c r="T81" s="42" t="s">
         <v>138</v>
@@ -20464,28 +20491,31 @@
       <c r="U81" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V81" s="26" t="s">
+      <c r="V81" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>1400161166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>845</v>
+        <v>1101010685</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D82" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E82">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F82">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="G82">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H82">
         <v>15</v>
@@ -20497,26 +20527,23 @@
         <v>138</v>
       </c>
       <c r="K82" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L82" t="s">
         <v>138</v>
       </c>
       <c r="M82">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M82&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O82" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R82" t="s">
-        <v>852</v>
-      </c>
-      <c r="S82" s="26" t="s">
-        <v>911</v>
+        <v>848</v>
       </c>
       <c r="T82" s="26" t="s">
         <v>138</v>
@@ -20528,27 +20555,27 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>1102188394</v>
+        <v>1007809059</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>294</v>
+        <v>111</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D83" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E83">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F83">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G83">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H83">
         <v>15</v>
@@ -20566,109 +20593,115 @@
         <v>138</v>
       </c>
       <c r="M83">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M83&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O83" t="s">
         <v>847</v>
       </c>
       <c r="R83" t="s">
-        <v>852</v>
-      </c>
-      <c r="T83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U83" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="T83" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U83" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V83" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W83" s="26" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>731</v>
+      </c>
+      <c r="W83" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>1401208505</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>1401381886</v>
+      </c>
+      <c r="C84" t="s">
+        <v>850</v>
+      </c>
+      <c r="D84" t="s">
+        <v>857</v>
+      </c>
+      <c r="E84">
+        <v>42</v>
+      </c>
+      <c r="F84">
+        <v>81</v>
+      </c>
+      <c r="G84">
+        <v>118</v>
+      </c>
+      <c r="H84">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>731</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" t="s">
+        <v>138</v>
+      </c>
+      <c r="L84" t="s">
+        <v>138</v>
+      </c>
+      <c r="M84">
+        <v>18</v>
+      </c>
+      <c r="N84" t="str">
+        <f>IF($M84&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
+      </c>
+      <c r="O84" t="s">
+        <v>847</v>
+      </c>
+      <c r="R84" t="s">
+        <v>847</v>
+      </c>
+      <c r="S84" s="26" t="s">
+        <v>924</v>
+      </c>
+      <c r="T84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U84" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="V84" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W84" s="26" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A85" s="38">
+        <v>1200624653</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D84" t="s">
-        <v>846</v>
-      </c>
-      <c r="E84">
-        <v>35</v>
-      </c>
-      <c r="F84">
-        <v>64</v>
-      </c>
-      <c r="G84">
-        <v>119</v>
-      </c>
-      <c r="H84">
-        <v>15</v>
-      </c>
-      <c r="I84" t="s">
-        <v>138</v>
-      </c>
-      <c r="J84" t="s">
-        <v>138</v>
-      </c>
-      <c r="K84" t="s">
-        <v>138</v>
-      </c>
-      <c r="L84" t="s">
-        <v>138</v>
-      </c>
-      <c r="M84">
-        <v>6</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="4"/>
-        <v>GMF</v>
-      </c>
-      <c r="O84" t="s">
-        <v>852</v>
-      </c>
-      <c r="R84" t="s">
-        <v>852</v>
-      </c>
-      <c r="T84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U84" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V84" s="26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>1400394345</v>
-      </c>
-      <c r="C85" t="s">
-        <v>850</v>
-      </c>
       <c r="D85" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E85">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F85">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="G85">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H85">
         <v>15</v>
@@ -20680,26 +20713,26 @@
         <v>138</v>
       </c>
       <c r="K85" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L85" t="s">
         <v>138</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M85&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O85" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="R85" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="S85" s="26" t="s">
-        <v>926</v>
+        <v>888</v>
       </c>
       <c r="T85" s="26" t="s">
         <v>138</v>
@@ -20709,57 +20742,60 @@
       </c>
       <c r="V85" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W85" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>1006702172</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>845</v>
+        <v>1401316516</v>
+      </c>
+      <c r="C86" t="s">
+        <v>850</v>
       </c>
       <c r="D86" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E86">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F86">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="G86">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="H86">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+      <c r="J86" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" t="s">
+        <v>731</v>
+      </c>
+      <c r="L86" t="s">
+        <v>138</v>
+      </c>
+      <c r="M86">
         <v>11</v>
       </c>
-      <c r="I86" t="s">
-        <v>138</v>
-      </c>
-      <c r="J86" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" t="s">
-        <v>138</v>
-      </c>
-      <c r="L86" t="s">
-        <v>138</v>
-      </c>
-      <c r="M86">
-        <v>13</v>
-      </c>
       <c r="N86" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M86&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O86" t="s">
         <v>847</v>
       </c>
       <c r="R86" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="S86" s="26" t="s">
+        <v>900</v>
       </c>
       <c r="T86" s="42" t="s">
         <v>138</v>
@@ -20767,31 +20803,31 @@
       <c r="U86" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V86" s="26" t="s">
-        <v>138</v>
+      <c r="V86" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="W86" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="87" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>1401215589</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C87" s="1" t="s">
+        <v>1400394345</v>
+      </c>
+      <c r="C87" t="s">
         <v>850</v>
       </c>
       <c r="D87" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E87">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F87">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="G87">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H87">
         <v>15</v>
@@ -20800,19 +20836,19 @@
         <v>138</v>
       </c>
       <c r="J87" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" t="s">
         <v>731</v>
       </c>
-      <c r="K87" t="s">
-        <v>138</v>
-      </c>
       <c r="L87" t="s">
         <v>138</v>
       </c>
       <c r="M87">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M87&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O87" t="s">
@@ -20821,6 +20857,9 @@
       <c r="R87" t="s">
         <v>852</v>
       </c>
+      <c r="S87" s="26" t="s">
+        <v>926</v>
+      </c>
       <c r="T87" s="26" t="s">
         <v>138</v>
       </c>
@@ -20830,31 +20869,25 @@
       <c r="V87" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W87" s="26" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
-        <v>1002805912</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="1" t="s">
+    </row>
+    <row r="88" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>1200230428</v>
+      </c>
+      <c r="C88" t="s">
         <v>850</v>
       </c>
       <c r="D88" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="E88">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F88">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G88">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="H88">
         <v>15</v>
@@ -20872,17 +20905,20 @@
         <v>138</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M88&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O88" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R88" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="S88" s="26" t="s">
+        <v>439</v>
       </c>
       <c r="T88" s="26" t="s">
         <v>138</v>
@@ -20892,89 +20928,96 @@
       </c>
       <c r="V88" s="26" t="s">
         <v>138</v>
+      </c>
+      <c r="W88" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>1100404076</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="1" t="s">
+        <v>1401311288</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" t="s">
         <v>845</v>
       </c>
       <c r="D89" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E89">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F89">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G89">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H89">
         <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J89" t="s">
         <v>138</v>
       </c>
       <c r="K89" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L89" t="s">
         <v>138</v>
       </c>
       <c r="M89">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M89&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O89" t="s">
         <v>847</v>
       </c>
       <c r="R89" t="s">
-        <v>852</v>
-      </c>
-      <c r="T89" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U89" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="S89" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="T89" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U89" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V89" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>1003297212</v>
-      </c>
-      <c r="C90" t="s">
+        <v>1006702172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D90" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="E90">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F90">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G90">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I90" t="s">
         <v>138</v>
@@ -20989,10 +21032,10 @@
         <v>138</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M90&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O90" t="s">
@@ -21001,46 +21044,43 @@
       <c r="R90" t="s">
         <v>852</v>
       </c>
-      <c r="S90" s="26" t="s">
-        <v>927</v>
-      </c>
-      <c r="T90" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U90" s="26" t="s">
+      <c r="T90" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U90" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V90" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W90" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>1002316006</v>
-      </c>
-      <c r="C91" t="s">
-        <v>845</v>
+        <v>1102644291</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D91" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="E91">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F91">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G91">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="H91">
         <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J91" t="s">
         <v>138</v>
@@ -21052,55 +21092,52 @@
         <v>138</v>
       </c>
       <c r="M91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M91&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O91" t="s">
         <v>847</v>
       </c>
       <c r="R91" t="s">
-        <v>852</v>
-      </c>
-      <c r="S91" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="T91" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U91" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="S91" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="T91" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U91" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V91" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="W91" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="92" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>1000053365</v>
+        <v>1102644291</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D92" t="s">
         <v>859</v>
       </c>
       <c r="E92">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F92">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G92">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H92">
         <v>14</v>
@@ -21121,58 +21158,55 @@
         <v>10</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M92&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O92" t="s">
         <v>847</v>
       </c>
       <c r="R92" t="s">
-        <v>852</v>
-      </c>
-      <c r="T92" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U92" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="T92" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U92" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V92" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="W92" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>1401622561</v>
+        <v>1401215589</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>725</v>
+        <v>280</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D93" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="F93">
+        <v>56</v>
+      </c>
+      <c r="G93">
         <v>120</v>
       </c>
-      <c r="G93">
-        <v>67</v>
-      </c>
       <c r="H93">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I93" t="s">
         <v>138</v>
       </c>
       <c r="J93" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="K93" t="s">
         <v>138</v>
@@ -21181,20 +21215,17 @@
         <v>138</v>
       </c>
       <c r="M93">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M93&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O93" t="s">
         <v>847</v>
       </c>
       <c r="R93" t="s">
-        <v>847</v>
-      </c>
-      <c r="S93" s="26" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="T93" s="26" t="s">
         <v>138</v>
@@ -21206,30 +21237,33 @@
         <v>138</v>
       </c>
       <c r="W93" s="26" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>1401374927</v>
-      </c>
-      <c r="C94" t="s">
+        <v>1011109895</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D94" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="E94">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F94">
         <v>109</v>
       </c>
       <c r="G94">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
         <v>138</v>
@@ -21244,11 +21278,11 @@
         <v>138</v>
       </c>
       <c r="M94">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="4"/>
-        <v>GMF</v>
+        <f>IF($M94&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O94" t="s">
         <v>847</v>
@@ -21257,42 +21291,42 @@
         <v>847</v>
       </c>
       <c r="S94" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="T94" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U94" s="26" t="s">
+        <v>869</v>
+      </c>
+      <c r="T94" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U94" s="42" t="s">
         <v>138</v>
       </c>
       <c r="V94" s="26" t="s">
         <v>731</v>
       </c>
       <c r="W94" t="s">
-        <v>920</v>
+        <v>989</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>1400059656</v>
-      </c>
-      <c r="B95" t="s">
-        <v>784</v>
-      </c>
-      <c r="C95" t="s">
-        <v>845</v>
+      <c r="A95" s="1">
+        <v>1002805912</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>850</v>
       </c>
       <c r="D95" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F95">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G95">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="H95">
         <v>15</v>
@@ -21310,20 +21344,17 @@
         <v>138</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M95&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O95" t="s">
         <v>852</v>
       </c>
       <c r="R95" t="s">
-        <v>847</v>
-      </c>
-      <c r="S95" s="26" t="s">
-        <v>178</v>
+        <v>852</v>
       </c>
       <c r="T95" s="26" t="s">
         <v>138</v>
@@ -21332,99 +21363,93 @@
         <v>138</v>
       </c>
       <c r="V95" s="26" t="s">
-        <v>985</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>1400775825</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>850</v>
+        <v>1205218011</v>
+      </c>
+      <c r="B96" t="s">
+        <v>801</v>
+      </c>
+      <c r="C96" t="s">
+        <v>845</v>
       </c>
       <c r="D96" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E96">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F96">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="G96">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="H96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
+        <v>138</v>
+      </c>
+      <c r="J96" t="s">
         <v>731</v>
       </c>
-      <c r="J96" t="s">
-        <v>138</v>
-      </c>
       <c r="K96" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L96" t="s">
         <v>138</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M96&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O96" t="s">
         <v>847</v>
       </c>
       <c r="R96" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S96" s="26" t="s">
-        <v>876</v>
+        <v>178</v>
       </c>
       <c r="T96" s="26" t="s">
         <v>138</v>
       </c>
       <c r="U96" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="V96" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W96" s="26" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="97" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>1401096023</v>
-      </c>
-      <c r="B97" t="s">
-        <v>31</v>
-      </c>
-      <c r="C97" t="s">
-        <v>850</v>
+        <v>1100404076</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D97" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="E97">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F97">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="G97">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
         <v>138</v>
@@ -21439,80 +21464,77 @@
         <v>138</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M97&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O97" t="s">
+        <v>847</v>
+      </c>
+      <c r="R97" t="s">
         <v>852</v>
       </c>
-      <c r="R97" t="s">
-        <v>847</v>
-      </c>
-      <c r="S97" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="T97" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U97" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="W97" s="26" t="s">
-        <v>983</v>
+      <c r="T97" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U97" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V97" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>1401369977</v>
-      </c>
-      <c r="C98" t="s">
+        <v>1009103377</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D98" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E98">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F98">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G98">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="H98">
         <v>15</v>
       </c>
       <c r="I98" t="s">
+        <v>138</v>
+      </c>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98" t="s">
         <v>731</v>
       </c>
-      <c r="J98" t="s">
-        <v>138</v>
-      </c>
-      <c r="K98" t="s">
-        <v>138</v>
-      </c>
       <c r="L98" t="s">
         <v>138</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M98&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O98" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R98" t="s">
-        <v>847</v>
-      </c>
-      <c r="S98" s="26" t="s">
-        <v>913</v>
+        <v>848</v>
       </c>
       <c r="T98" s="42" t="s">
         <v>138</v>
@@ -21520,34 +21542,40 @@
       <c r="U98" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V98" s="42" t="s">
-        <v>985</v>
+      <c r="V98" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="W98" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="99" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>1401325082</v>
+      <c r="A99" s="2">
+        <v>1401141829</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
       </c>
       <c r="C99" t="s">
         <v>850</v>
       </c>
       <c r="D99" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="E99">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>70</v>
       </c>
       <c r="G99">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J99" t="s">
         <v>138</v>
@@ -21559,20 +21587,20 @@
         <v>138</v>
       </c>
       <c r="M99">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="4"/>
-        <v>GMF</v>
+        <f>IF($M99&gt;17,"ICU","GMF")</f>
+        <v>ICU</v>
       </c>
       <c r="O99" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R99" t="s">
         <v>847</v>
       </c>
       <c r="S99" s="26" t="s">
-        <v>905</v>
+        <v>866</v>
       </c>
       <c r="T99" s="42" t="s">
         <v>138</v>
@@ -21581,36 +21609,39 @@
         <v>138</v>
       </c>
       <c r="V99" s="42" t="s">
-        <v>985</v>
+        <v>731</v>
+      </c>
+      <c r="W99" s="42" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="100" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>1002666748</v>
+        <v>1001694549</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>734</v>
+        <v>52</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D100" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F100">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G100">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J100" t="s">
         <v>138</v>
@@ -21622,130 +21653,119 @@
         <v>138</v>
       </c>
       <c r="M100">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M100&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O100" t="s">
         <v>847</v>
       </c>
       <c r="R100" t="s">
-        <v>847</v>
-      </c>
-      <c r="S100" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="T100" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="U100" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="V100" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="W100" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+      <c r="T100" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U100" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V100" s="42"/>
+    </row>
+    <row r="101" spans="1:23" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>1401359722</v>
+        <v>1003297212</v>
       </c>
       <c r="C101" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D101" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F101">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G101">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J101" t="s">
         <v>138</v>
       </c>
       <c r="K101" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L101" t="s">
         <v>138</v>
       </c>
       <c r="M101">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M101&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O101" t="s">
         <v>847</v>
       </c>
       <c r="R101" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="S101" s="26" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="T101" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="U101" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="V101" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="W101" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>1401249635</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>850</v>
+        <v>1002316006</v>
+      </c>
+      <c r="C102" t="s">
+        <v>845</v>
       </c>
       <c r="D102" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E102">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F102">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="G102">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="H102">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J102" t="s">
         <v>138</v>
       </c>
       <c r="K102" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L102" t="s">
         <v>138</v>
@@ -21754,17 +21774,17 @@
         <v>13</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M102&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O102" t="s">
         <v>847</v>
       </c>
       <c r="R102" t="s">
-        <v>847</v>
-      </c>
-      <c r="S102" s="26" t="s">
-        <v>882</v>
+        <v>852</v>
+      </c>
+      <c r="S102" s="17" t="s">
+        <v>437</v>
       </c>
       <c r="T102" s="26" t="s">
         <v>138</v>
@@ -21773,61 +21793,64 @@
         <v>138</v>
       </c>
       <c r="V102" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="W102" s="26" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="W102" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>1401369968</v>
-      </c>
-      <c r="C103" t="s">
+        <v>1007329807</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D103" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F103">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G103">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H103">
         <v>15</v>
       </c>
       <c r="I103" t="s">
+        <v>138</v>
+      </c>
+      <c r="J103" t="s">
+        <v>138</v>
+      </c>
+      <c r="K103" t="s">
         <v>731</v>
       </c>
-      <c r="J103" t="s">
-        <v>138</v>
-      </c>
-      <c r="K103" t="s">
-        <v>138</v>
-      </c>
       <c r="L103" t="s">
         <v>138</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M103&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O103" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R103" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S103" s="26" t="s">
-        <v>913</v>
+        <v>870</v>
       </c>
       <c r="T103" s="42" t="s">
         <v>138</v>
@@ -21835,94 +21858,94 @@
       <c r="U103" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="V103" s="42" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
-        <v>1101619038</v>
-      </c>
-      <c r="C104" t="s">
-        <v>850</v>
+      <c r="V103" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>1000053365</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="D104" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E104">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F104">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G104">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J104" t="s">
         <v>138</v>
       </c>
       <c r="K104" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L104" t="s">
         <v>138</v>
       </c>
       <c r="M104">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M104&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O104" t="s">
         <v>847</v>
       </c>
       <c r="R104" t="s">
-        <v>847</v>
-      </c>
-      <c r="S104" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="T104" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="U104" s="26" t="s">
-        <v>731</v>
+        <v>852</v>
+      </c>
+      <c r="T104" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U104" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="V104" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="W104" t="s">
-        <v>886</v>
+        <v>987</v>
       </c>
     </row>
     <row r="105" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
-        <v>1005149298</v>
+      <c r="A105" s="38">
+        <v>1006139627</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>845</v>
       </c>
       <c r="D105" t="s">
         <v>862</v>
       </c>
       <c r="E105">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F105">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G105">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H105">
         <v>15</v>
@@ -21943,52 +21966,44 @@
         <v>9</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M105&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O105" t="s">
         <v>847</v>
       </c>
       <c r="R105" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S105" s="26" t="s">
-        <v>897</v>
-      </c>
-      <c r="T105" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="U105" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="V105" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="W105" t="s">
-        <v>898</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="T105" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="U105" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="V105" s="42"/>
     </row>
     <row r="106" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>1401281866</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>850</v>
+        <v>1205055292</v>
+      </c>
+      <c r="C106" t="s">
+        <v>845</v>
       </c>
       <c r="D106" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="E106">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F106">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G106">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H106">
         <v>15</v>
@@ -22006,20 +22021,20 @@
         <v>138</v>
       </c>
       <c r="M106">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M106&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O106" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R106" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S106" s="26" t="s">
-        <v>178</v>
+        <v>928</v>
       </c>
       <c r="T106" s="26" t="s">
         <v>138</v>
@@ -22028,90 +22043,93 @@
         <v>138</v>
       </c>
       <c r="V106" s="26" t="s">
-        <v>985</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>1102416341</v>
+        <v>1401255084</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>179</v>
+        <v>400</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D107" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E107">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F107">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="G107">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H107">
         <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J107" t="s">
         <v>138</v>
       </c>
       <c r="K107" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="L107" t="s">
         <v>138</v>
       </c>
       <c r="M107">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M107&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O107" t="s">
         <v>847</v>
       </c>
       <c r="R107" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S107" s="26" t="s">
-        <v>871</v>
-      </c>
-      <c r="T107" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U107" s="42" t="s">
+        <v>885</v>
+      </c>
+      <c r="T107" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U107" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V107" s="26" t="s">
-        <v>985</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>1010017969</v>
+        <v>1401129153</v>
+      </c>
+      <c r="B108" t="s">
+        <v>797</v>
       </c>
       <c r="C108" t="s">
         <v>850</v>
       </c>
       <c r="D108" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E108">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="F108">
-        <v>143</v>
+        <v>90</v>
       </c>
       <c r="G108">
-        <v>157</v>
+        <v>96</v>
       </c>
       <c r="H108">
         <v>15</v>
@@ -22123,64 +22141,58 @@
         <v>138</v>
       </c>
       <c r="K108" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L108" t="s">
         <v>138</v>
       </c>
       <c r="M108">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M108&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O108" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="R108" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S108" s="26" t="s">
-        <v>858</v>
-      </c>
-      <c r="T108" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U108" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V108" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="W108" s="42" t="s">
-        <v>1001</v>
+        <v>313</v>
+      </c>
+      <c r="T108" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U108" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="32" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>1401381886</v>
+      <c r="A109" s="38">
+        <v>1002234563</v>
       </c>
       <c r="C109" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D109" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E109">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F109">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G109">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="H109">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J109" t="s">
         <v>138</v>
@@ -22192,20 +22204,20 @@
         <v>138</v>
       </c>
       <c r="M109">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M109&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O109" t="s">
         <v>847</v>
       </c>
       <c r="R109" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S109" s="26" t="s">
-        <v>924</v>
+        <v>431</v>
       </c>
       <c r="T109" s="26" t="s">
         <v>138</v>
@@ -22214,33 +22226,27 @@
         <v>138</v>
       </c>
       <c r="V109" s="26" t="s">
-        <v>731</v>
-      </c>
-      <c r="W109" s="26" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>1011109895</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>850</v>
+        <v>1102881845</v>
+      </c>
+      <c r="C110" t="s">
+        <v>845</v>
       </c>
       <c r="D110" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E110">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="F110">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="G110">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H110">
         <v>15</v>
@@ -22252,46 +22258,40 @@
         <v>138</v>
       </c>
       <c r="K110" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="L110" t="s">
         <v>138</v>
       </c>
       <c r="M110">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M110&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O110" t="s">
         <v>847</v>
       </c>
       <c r="R110" t="s">
-        <v>847</v>
-      </c>
-      <c r="S110" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="T110" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U110" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="T110" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="U110" s="26" t="s">
         <v>138</v>
       </c>
       <c r="V110" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="W110" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>1401141829</v>
-      </c>
-      <c r="B111" t="s">
-        <v>84</v>
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>1009612218</v>
       </c>
       <c r="C111" t="s">
         <v>850</v>
@@ -22300,35 +22300,32 @@
         <v>855</v>
       </c>
       <c r="E111">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F111">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G111">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="J111" t="s">
         <v>138</v>
       </c>
-      <c r="K111" t="s">
-        <v>138</v>
-      </c>
       <c r="L111" t="s">
         <v>138</v>
       </c>
       <c r="M111">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="4"/>
-        <v>ICU</v>
+        <f>IF($M111&gt;17,"ICU","GMF")</f>
+        <v>GMF</v>
       </c>
       <c r="O111" t="s">
         <v>847</v>
@@ -22337,79 +22334,82 @@
         <v>847</v>
       </c>
       <c r="S111" s="26" t="s">
-        <v>866</v>
-      </c>
-      <c r="T111" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="U111" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="V111" s="42" t="s">
+        <v>902</v>
+      </c>
+      <c r="T111" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="W111" s="42" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="48" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>1009612218</v>
+      <c r="U111" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="V111" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="W111" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>1400105541</v>
       </c>
       <c r="C112" t="s">
         <v>850</v>
       </c>
       <c r="D112" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="E112">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F112">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G112">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="H112">
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>138</v>
+        <v>731</v>
       </c>
       <c r="J112" t="s">
         <v>138</v>
       </c>
+      <c r="K112" t="s">
+        <v>138</v>
+      </c>
       <c r="L112" t="s">
         <v>138</v>
       </c>
       <c r="M112">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M112&gt;17,"ICU","GMF")</f>
         <v>GMF</v>
       </c>
       <c r="O112" t="s">
         <v>847</v>
       </c>
       <c r="R112" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="S112" s="26" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="T112" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="U112" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="V112" s="26" t="s">
-        <v>731</v>
+        <v>138</v>
       </c>
       <c r="W112" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="113" spans="1:23" ht="32" x14ac:dyDescent="0.2">
@@ -22453,7 +22453,7 @@
         <v>35</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="4"/>
+        <f>IF($M113&gt;17,"ICU","GMF")</f>
         <v>ICU</v>
       </c>
       <c r="O113" t="s">
@@ -23547,10 +23547,10 @@
       <c r="A469" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y472">
-    <sortCondition ref="R2:R472"/>
-    <sortCondition ref="E2:E472"/>
-    <sortCondition ref="O2:O472"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W474">
+    <sortCondition ref="E2:E474"/>
+    <sortCondition ref="R2:R474"/>
+    <sortCondition ref="O2:O474"/>
   </sortState>
   <mergeCells count="10">
     <mergeCell ref="AQ36:AR36"/>
